--- a/Covid_19_Dataset_and_References/References/9.xlsx
+++ b/Covid_19_Dataset_and_References/References/9.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="145">
   <si>
     <t>Doi</t>
   </si>
@@ -546,6 +546,121 @@
   </si>
   <si>
     <t>[Mahmud%Mahamid%NULL%1,     Wiliam%Nseir%NULL%1,     Tawfik%Khoury%NULL%1,     Baker%Mahamid%NULL%1,     Adi%Nubania%NULL%1,     Kamal%Sub-Laban%NULL%1,     Joel%Schifter%NULL%1,     Amir%Mari%NULL%1,     Wisam%Sbeit%NULL%1,     Eran%Goldin%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Coronavirus disease-2019 (COVID-19) is a global pandemic.
+ Obesity has been associated with increased disease severity in COVID-19, and obesity is strongly associated with hepatic steatosis (HS).
+ However, how HS alters the natural history of COVID-19 is not well characterized, especially in Western populations.
+Aims
+id="Par2"&gt;To characterize the impact of HS on disease severity and liver injury in COVID-19.
+Methods
+id="Par3"&gt;We examined the association between HS and disease severity in a single-center cohort study of hospitalized COVID-19 patients at Michigan Medicine.
+ HS was defined by either hepatic steatosis index &amp;gt; 36 (for Asians) or &amp;gt; 39 (for non-Asians) or liver imaging demonstrating steatosis &amp;gt; 30 days before onset of COVID-19. The primary predictor was HS.
+ The primary outcomes were severity of cardiopulmonary disease, transaminitis, jaundice, and portal hypertensive complications.
+Results
+id="Par4"&gt;In a cohort of 342 patients, metabolic disease was highly prevalent including nearly 90% overweight.
+ HS was associated with increased transaminitis and need for intubation, dialysis, and vasopressors.
+ There was no association between HS and jaundice or portal hypertensive complications.
+ In a sensitivity analysis including only patients with liver imaging &amp;gt; 30 days before onset of COVID-19, imaging evidence of hepatic steatosis remained associated with disease severity and risk of transaminitis.
+Conclusions
+id="Par5"&gt;HS was associated with increased disease severity and transaminitis in COVID-19. HS may be relevant in predicting risk of complications related to COVID-19.
+</t>
+  </si>
+  <si>
+    <t>[Vincent L.%Chen%vichen@med.umich.edu%1,      Fadi%Hawa%NULL%2,      Fadi%Hawa%NULL%0,      Jeffrey A.%Berinstein%NULL%1,      Chanakyaram A.%Reddy%NULL%1,      Ihab%Kassab%NULL%1,      Kevin D.%Platt%NULL%1,      Chia-Yang%Hsu%NULL%1,      Calen A.%Steiner%NULL%1,      Jeremy%Louissaint%NULL%1,      Naresh T.%Gunaratnam%NULL%1,      Pratima%Sharma%pratimas@med.umich.edu%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Coronavirus disease-2019 (COVID-19) is a global pandemic.
+ Obesity has been associated with increased disease severity in COVID-19, and obesity is strongly associated with hepatic steatosis (HS).
+ However, how HS alters the natural history of COVID-19 is not well characterized, especially in Western populations.
+Aims
+To characterize the impact of HS on disease severity and liver injury in COVID-19.
+Methods
+id="Par3"&gt;We examined the association between HS and disease severity in a single-center cohort study of hospitalized COVID-19 patients at Michigan Medicine.
+ HS was defined by either hepatic steatosis index &amp;gt; 36 (for Asians) or &amp;gt; 39 (for non-Asians) or liver imaging demonstrating steatosis &amp;gt; 30 days before onset of COVID-19. The primary predictor was HS.
+ The primary outcomes were severity of cardiopulmonary disease, transaminitis, jaundice, and portal hypertensive complications.
+Results
+id="Par4"&gt;In a cohort of 342 patients, metabolic disease was highly prevalent including nearly 90% overweight.
+ HS was associated with increased transaminitis and need for intubation, dialysis, and vasopressors.
+ There was no association between HS and jaundice or portal hypertensive complications.
+ In a sensitivity analysis including only patients with liver imaging &amp;gt; 30 days before onset of COVID-19, imaging evidence of hepatic steatosis remained associated with disease severity and risk of transaminitis.
+Conclusions
+id="Par5"&gt;HS was associated with increased disease severity and transaminitis in COVID-19. HS may be relevant in predicting risk of complications related to COVID-19.
+</t>
+  </si>
+  <si>
+    <t>[Vincent L.%Chen%vichen@med.umich.edu%1,       Fadi%Hawa%NULL%2,       Fadi%Hawa%NULL%0,       Jeffrey A.%Berinstein%NULL%1,       Chanakyaram A.%Reddy%NULL%1,       Ihab%Kassab%NULL%1,       Kevin D.%Platt%NULL%1,       Chia-Yang%Hsu%NULL%1,       Calen A.%Steiner%NULL%1,       Jeremy%Louissaint%NULL%1,       Naresh T.%Gunaratnam%NULL%1,       Pratima%Sharma%pratimas@med.umich.edu%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Coronavirus disease-2019 (COVID-19) is a global pandemic.
+ Obesity has been associated with increased disease severity in COVID-19, and obesity is strongly associated with hepatic steatosis (HS).
+ However, how HS alters the natural history of COVID-19 is not well characterized, especially in Western populations.
+Aims
+To characterize the impact of HS on disease severity and liver injury in COVID-19.
+Methods
+We examined the association between HS and disease severity in a single-center cohort study of hospitalized COVID-19 patients at Michigan Medicine.
+ HS was defined by either hepatic steatosis index &amp;gt; 36 (for Asians) or &amp;gt; 39 (for non-Asians) or liver imaging demonstrating steatosis &amp;gt; 30 days before onset of COVID-19. The primary predictor was HS.
+ The primary outcomes were severity of cardiopulmonary disease, transaminitis, jaundice, and portal hypertensive complications.
+Results
+id="Par4"&gt;In a cohort of 342 patients, metabolic disease was highly prevalent including nearly 90% overweight.
+ HS was associated with increased transaminitis and need for intubation, dialysis, and vasopressors.
+ There was no association between HS and jaundice or portal hypertensive complications.
+ In a sensitivity analysis including only patients with liver imaging &amp;gt; 30 days before onset of COVID-19, imaging evidence of hepatic steatosis remained associated with disease severity and risk of transaminitis.
+Conclusions
+id="Par5"&gt;HS was associated with increased disease severity and transaminitis in COVID-19. HS may be relevant in predicting risk of complications related to COVID-19.
+</t>
+  </si>
+  <si>
+    <t>[Vincent L.%Chen%vichen@med.umich.edu%1,        Fadi%Hawa%NULL%2,        Fadi%Hawa%NULL%0,        Jeffrey A.%Berinstein%NULL%1,        Chanakyaram A.%Reddy%NULL%1,        Ihab%Kassab%NULL%1,        Kevin D.%Platt%NULL%1,        Chia-Yang%Hsu%NULL%1,        Calen A.%Steiner%NULL%1,        Jeremy%Louissaint%NULL%1,        Naresh T.%Gunaratnam%NULL%1,        Pratima%Sharma%pratimas@med.umich.edu%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Coronavirus disease-2019 (COVID-19) is a global pandemic.
+ Obesity has been associated with increased disease severity in COVID-19, and obesity is strongly associated with hepatic steatosis (HS).
+ However, how HS alters the natural history of COVID-19 is not well characterized, especially in Western populations.
+Aims
+To characterize the impact of HS on disease severity and liver injury in COVID-19.
+Methods
+We examined the association between HS and disease severity in a single-center cohort study of hospitalized COVID-19 patients at Michigan Medicine.
+ HS was defined by either hepatic steatosis index &amp;gt; 36 (for Asians) or &amp;gt; 39 (for non-Asians) or liver imaging demonstrating steatosis &amp;gt; 30 days before onset of COVID-19. The primary predictor was HS.
+ The primary outcomes were severity of cardiopulmonary disease, transaminitis, jaundice, and portal hypertensive complications.
+Results
+In a cohort of 342 patients, metabolic disease was highly prevalent including nearly 90% overweight.
+ HS was associated with increased transaminitis and need for intubation, dialysis, and vasopressors.
+ There was no association between HS and jaundice or portal hypertensive complications.
+ In a sensitivity analysis including only patients with liver imaging &amp;gt; 30 days before onset of COVID-19, imaging evidence of hepatic steatosis remained associated with disease severity and risk of transaminitis.
+Conclusions
+id="Par5"&gt;HS was associated with increased disease severity and transaminitis in COVID-19. HS may be relevant in predicting risk of complications related to COVID-19.
+</t>
+  </si>
+  <si>
+    <t>[Vincent L.%Chen%vichen@med.umich.edu%1,         Fadi%Hawa%NULL%2,         Fadi%Hawa%NULL%0,         Jeffrey A.%Berinstein%NULL%1,         Chanakyaram A.%Reddy%NULL%1,         Ihab%Kassab%NULL%1,         Kevin D.%Platt%NULL%1,         Chia-Yang%Hsu%NULL%1,         Calen A.%Steiner%NULL%1,         Jeremy%Louissaint%NULL%1,         Naresh T.%Gunaratnam%NULL%1,         Pratima%Sharma%pratimas@med.umich.edu%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Coronavirus disease-2019 (COVID-19) is a global pandemic.
+ Obesity has been associated with increased disease severity in COVID-19, and obesity is strongly associated with hepatic steatosis (HS).
+ However, how HS alters the natural history of COVID-19 is not well characterized, especially in Western populations.
+Aims
+To characterize the impact of HS on disease severity and liver injury in COVID-19.
+Methods
+We examined the association between HS and disease severity in a single-center cohort study of hospitalized COVID-19 patients at Michigan Medicine.
+ HS was defined by either hepatic steatosis index &amp;gt; 36 (for Asians) or &amp;gt; 39 (for non-Asians) or liver imaging demonstrating steatosis &amp;gt; 30 days before onset of COVID-19. The primary predictor was HS.
+ The primary outcomes were severity of cardiopulmonary disease, transaminitis, jaundice, and portal hypertensive complications.
+Results
+In a cohort of 342 patients, metabolic disease was highly prevalent including nearly 90% overweight.
+ HS was associated with increased transaminitis and need for intubation, dialysis, and vasopressors.
+ There was no association between HS and jaundice or portal hypertensive complications.
+ In a sensitivity analysis including only patients with liver imaging &amp;gt; 30 days before onset of COVID-19, imaging evidence of hepatic steatosis remained associated with disease severity and risk of transaminitis.
+Conclusions
+HS was associated with increased disease severity and transaminitis in COVID-19. HS may be relevant in predicting risk of complications related to COVID-19.
+</t>
+  </si>
+  <si>
+    <t>[Vincent L.%Chen%vichen@med.umich.edu%1,          Fadi%Hawa%NULL%2,          Fadi%Hawa%NULL%0,          Jeffrey A.%Berinstein%NULL%1,          Chanakyaram A.%Reddy%NULL%1,          Ihab%Kassab%NULL%1,          Kevin D.%Platt%NULL%1,          Chia-Yang%Hsu%NULL%1,          Calen A.%Steiner%NULL%1,          Jeremy%Louissaint%NULL%1,          Naresh T.%Gunaratnam%NULL%1,          Pratima%Sharma%pratimas@med.umich.edu%1]</t>
   </si>
 </sst>
 </file>
@@ -898,10 +1013,10 @@
         <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>

--- a/Covid_19_Dataset_and_References/References/9.xlsx
+++ b/Covid_19_Dataset_and_References/References/9.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="135">
   <si>
     <t>Doi</t>
   </si>
@@ -546,121 +546,6 @@
   </si>
   <si>
     <t>[Mahmud%Mahamid%NULL%1,     Wiliam%Nseir%NULL%1,     Tawfik%Khoury%NULL%1,     Baker%Mahamid%NULL%1,     Adi%Nubania%NULL%1,     Kamal%Sub-Laban%NULL%1,     Joel%Schifter%NULL%1,     Amir%Mari%NULL%1,     Wisam%Sbeit%NULL%1,     Eran%Goldin%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Coronavirus disease-2019 (COVID-19) is a global pandemic.
- Obesity has been associated with increased disease severity in COVID-19, and obesity is strongly associated with hepatic steatosis (HS).
- However, how HS alters the natural history of COVID-19 is not well characterized, especially in Western populations.
-Aims
-id="Par2"&gt;To characterize the impact of HS on disease severity and liver injury in COVID-19.
-Methods
-id="Par3"&gt;We examined the association between HS and disease severity in a single-center cohort study of hospitalized COVID-19 patients at Michigan Medicine.
- HS was defined by either hepatic steatosis index &amp;gt; 36 (for Asians) or &amp;gt; 39 (for non-Asians) or liver imaging demonstrating steatosis &amp;gt; 30 days before onset of COVID-19. The primary predictor was HS.
- The primary outcomes were severity of cardiopulmonary disease, transaminitis, jaundice, and portal hypertensive complications.
-Results
-id="Par4"&gt;In a cohort of 342 patients, metabolic disease was highly prevalent including nearly 90% overweight.
- HS was associated with increased transaminitis and need for intubation, dialysis, and vasopressors.
- There was no association between HS and jaundice or portal hypertensive complications.
- In a sensitivity analysis including only patients with liver imaging &amp;gt; 30 days before onset of COVID-19, imaging evidence of hepatic steatosis remained associated with disease severity and risk of transaminitis.
-Conclusions
-id="Par5"&gt;HS was associated with increased disease severity and transaminitis in COVID-19. HS may be relevant in predicting risk of complications related to COVID-19.
-</t>
-  </si>
-  <si>
-    <t>[Vincent L.%Chen%vichen@med.umich.edu%1,      Fadi%Hawa%NULL%2,      Fadi%Hawa%NULL%0,      Jeffrey A.%Berinstein%NULL%1,      Chanakyaram A.%Reddy%NULL%1,      Ihab%Kassab%NULL%1,      Kevin D.%Platt%NULL%1,      Chia-Yang%Hsu%NULL%1,      Calen A.%Steiner%NULL%1,      Jeremy%Louissaint%NULL%1,      Naresh T.%Gunaratnam%NULL%1,      Pratima%Sharma%pratimas@med.umich.edu%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Coronavirus disease-2019 (COVID-19) is a global pandemic.
- Obesity has been associated with increased disease severity in COVID-19, and obesity is strongly associated with hepatic steatosis (HS).
- However, how HS alters the natural history of COVID-19 is not well characterized, especially in Western populations.
-Aims
-To characterize the impact of HS on disease severity and liver injury in COVID-19.
-Methods
-id="Par3"&gt;We examined the association between HS and disease severity in a single-center cohort study of hospitalized COVID-19 patients at Michigan Medicine.
- HS was defined by either hepatic steatosis index &amp;gt; 36 (for Asians) or &amp;gt; 39 (for non-Asians) or liver imaging demonstrating steatosis &amp;gt; 30 days before onset of COVID-19. The primary predictor was HS.
- The primary outcomes were severity of cardiopulmonary disease, transaminitis, jaundice, and portal hypertensive complications.
-Results
-id="Par4"&gt;In a cohort of 342 patients, metabolic disease was highly prevalent including nearly 90% overweight.
- HS was associated with increased transaminitis and need for intubation, dialysis, and vasopressors.
- There was no association between HS and jaundice or portal hypertensive complications.
- In a sensitivity analysis including only patients with liver imaging &amp;gt; 30 days before onset of COVID-19, imaging evidence of hepatic steatosis remained associated with disease severity and risk of transaminitis.
-Conclusions
-id="Par5"&gt;HS was associated with increased disease severity and transaminitis in COVID-19. HS may be relevant in predicting risk of complications related to COVID-19.
-</t>
-  </si>
-  <si>
-    <t>[Vincent L.%Chen%vichen@med.umich.edu%1,       Fadi%Hawa%NULL%2,       Fadi%Hawa%NULL%0,       Jeffrey A.%Berinstein%NULL%1,       Chanakyaram A.%Reddy%NULL%1,       Ihab%Kassab%NULL%1,       Kevin D.%Platt%NULL%1,       Chia-Yang%Hsu%NULL%1,       Calen A.%Steiner%NULL%1,       Jeremy%Louissaint%NULL%1,       Naresh T.%Gunaratnam%NULL%1,       Pratima%Sharma%pratimas@med.umich.edu%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Coronavirus disease-2019 (COVID-19) is a global pandemic.
- Obesity has been associated with increased disease severity in COVID-19, and obesity is strongly associated with hepatic steatosis (HS).
- However, how HS alters the natural history of COVID-19 is not well characterized, especially in Western populations.
-Aims
-To characterize the impact of HS on disease severity and liver injury in COVID-19.
-Methods
-We examined the association between HS and disease severity in a single-center cohort study of hospitalized COVID-19 patients at Michigan Medicine.
- HS was defined by either hepatic steatosis index &amp;gt; 36 (for Asians) or &amp;gt; 39 (for non-Asians) or liver imaging demonstrating steatosis &amp;gt; 30 days before onset of COVID-19. The primary predictor was HS.
- The primary outcomes were severity of cardiopulmonary disease, transaminitis, jaundice, and portal hypertensive complications.
-Results
-id="Par4"&gt;In a cohort of 342 patients, metabolic disease was highly prevalent including nearly 90% overweight.
- HS was associated with increased transaminitis and need for intubation, dialysis, and vasopressors.
- There was no association between HS and jaundice or portal hypertensive complications.
- In a sensitivity analysis including only patients with liver imaging &amp;gt; 30 days before onset of COVID-19, imaging evidence of hepatic steatosis remained associated with disease severity and risk of transaminitis.
-Conclusions
-id="Par5"&gt;HS was associated with increased disease severity and transaminitis in COVID-19. HS may be relevant in predicting risk of complications related to COVID-19.
-</t>
-  </si>
-  <si>
-    <t>[Vincent L.%Chen%vichen@med.umich.edu%1,        Fadi%Hawa%NULL%2,        Fadi%Hawa%NULL%0,        Jeffrey A.%Berinstein%NULL%1,        Chanakyaram A.%Reddy%NULL%1,        Ihab%Kassab%NULL%1,        Kevin D.%Platt%NULL%1,        Chia-Yang%Hsu%NULL%1,        Calen A.%Steiner%NULL%1,        Jeremy%Louissaint%NULL%1,        Naresh T.%Gunaratnam%NULL%1,        Pratima%Sharma%pratimas@med.umich.edu%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Coronavirus disease-2019 (COVID-19) is a global pandemic.
- Obesity has been associated with increased disease severity in COVID-19, and obesity is strongly associated with hepatic steatosis (HS).
- However, how HS alters the natural history of COVID-19 is not well characterized, especially in Western populations.
-Aims
-To characterize the impact of HS on disease severity and liver injury in COVID-19.
-Methods
-We examined the association between HS and disease severity in a single-center cohort study of hospitalized COVID-19 patients at Michigan Medicine.
- HS was defined by either hepatic steatosis index &amp;gt; 36 (for Asians) or &amp;gt; 39 (for non-Asians) or liver imaging demonstrating steatosis &amp;gt; 30 days before onset of COVID-19. The primary predictor was HS.
- The primary outcomes were severity of cardiopulmonary disease, transaminitis, jaundice, and portal hypertensive complications.
-Results
-In a cohort of 342 patients, metabolic disease was highly prevalent including nearly 90% overweight.
- HS was associated with increased transaminitis and need for intubation, dialysis, and vasopressors.
- There was no association between HS and jaundice or portal hypertensive complications.
- In a sensitivity analysis including only patients with liver imaging &amp;gt; 30 days before onset of COVID-19, imaging evidence of hepatic steatosis remained associated with disease severity and risk of transaminitis.
-Conclusions
-id="Par5"&gt;HS was associated with increased disease severity and transaminitis in COVID-19. HS may be relevant in predicting risk of complications related to COVID-19.
-</t>
-  </si>
-  <si>
-    <t>[Vincent L.%Chen%vichen@med.umich.edu%1,         Fadi%Hawa%NULL%2,         Fadi%Hawa%NULL%0,         Jeffrey A.%Berinstein%NULL%1,         Chanakyaram A.%Reddy%NULL%1,         Ihab%Kassab%NULL%1,         Kevin D.%Platt%NULL%1,         Chia-Yang%Hsu%NULL%1,         Calen A.%Steiner%NULL%1,         Jeremy%Louissaint%NULL%1,         Naresh T.%Gunaratnam%NULL%1,         Pratima%Sharma%pratimas@med.umich.edu%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Coronavirus disease-2019 (COVID-19) is a global pandemic.
- Obesity has been associated with increased disease severity in COVID-19, and obesity is strongly associated with hepatic steatosis (HS).
- However, how HS alters the natural history of COVID-19 is not well characterized, especially in Western populations.
-Aims
-To characterize the impact of HS on disease severity and liver injury in COVID-19.
-Methods
-We examined the association between HS and disease severity in a single-center cohort study of hospitalized COVID-19 patients at Michigan Medicine.
- HS was defined by either hepatic steatosis index &amp;gt; 36 (for Asians) or &amp;gt; 39 (for non-Asians) or liver imaging demonstrating steatosis &amp;gt; 30 days before onset of COVID-19. The primary predictor was HS.
- The primary outcomes were severity of cardiopulmonary disease, transaminitis, jaundice, and portal hypertensive complications.
-Results
-In a cohort of 342 patients, metabolic disease was highly prevalent including nearly 90% overweight.
- HS was associated with increased transaminitis and need for intubation, dialysis, and vasopressors.
- There was no association between HS and jaundice or portal hypertensive complications.
- In a sensitivity analysis including only patients with liver imaging &amp;gt; 30 days before onset of COVID-19, imaging evidence of hepatic steatosis remained associated with disease severity and risk of transaminitis.
-Conclusions
-HS was associated with increased disease severity and transaminitis in COVID-19. HS may be relevant in predicting risk of complications related to COVID-19.
-</t>
-  </si>
-  <si>
-    <t>[Vincent L.%Chen%vichen@med.umich.edu%1,          Fadi%Hawa%NULL%2,          Fadi%Hawa%NULL%0,          Jeffrey A.%Berinstein%NULL%1,          Chanakyaram A.%Reddy%NULL%1,          Ihab%Kassab%NULL%1,          Kevin D.%Platt%NULL%1,          Chia-Yang%Hsu%NULL%1,          Calen A.%Steiner%NULL%1,          Jeremy%Louissaint%NULL%1,          Naresh T.%Gunaratnam%NULL%1,          Pratima%Sharma%pratimas@med.umich.edu%1]</t>
   </si>
 </sst>
 </file>
@@ -1013,10 +898,10 @@
         <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>

--- a/Covid_19_Dataset_and_References/References/9.xlsx
+++ b/Covid_19_Dataset_and_References/References/9.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="152">
   <si>
     <t>Doi</t>
   </si>
@@ -546,6 +546,57 @@
   </si>
   <si>
     <t>[Mahmud%Mahamid%NULL%1,     Wiliam%Nseir%NULL%1,     Tawfik%Khoury%NULL%1,     Baker%Mahamid%NULL%1,     Adi%Nubania%NULL%1,     Kamal%Sub-Laban%NULL%1,     Joel%Schifter%NULL%1,     Amir%Mari%NULL%1,     Wisam%Sbeit%NULL%1,     Eran%Goldin%NULL%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Nikroo%Hashemi%NULL%1,      Kathleen%Viveiros%NULL%2,      Walker D.%Redd%NULL%1,      Joyce C.%Zhou%NULL%1,      Thomas R.%McCarty%NULL%1,      Ahmad N.%Bazarbashi%NULL%1,      Kelly E.%Hathorn%NULL%1,      Danny%Wong%NULL%1,      Cheikh%Njie%NULL%1,      Lin%Shen%NULL%1,      Walter W.%Chan%wwchan@bwh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Vincent L.%Chen%vichen@med.umich.edu%1,      Fadi%Hawa%NULL%2,      Fadi%Hawa%NULL%0,      Jeffrey A.%Berinstein%NULL%1,      Chanakyaram A.%Reddy%NULL%1,      Ihab%Kassab%NULL%1,      Kevin D.%Platt%NULL%1,      Chia-Yang%Hsu%NULL%1,      Calen A.%Steiner%NULL%1,      Jeremy%Louissaint%NULL%1,      Naresh T.%Gunaratnam%NULL%1,      Pratima%Sharma%pratimas@med.umich.edu%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%NULL%2,      Christopher J.%Tignanelli%NULL%1,      Nirjhar%Dutta%NULL%1,      Emma%Jones%NULL%1,      Leonardo%Tamaritz%NULL%1,      Jeanne%Clark%NULL%1,      Genevieve%Melton-Meaux%NULL%1,      Michael%Usher%NULL%1,      Sayeed%Ikramuddin%NULL%1,       C.%Bramante%null%1,       C. J.% Tignanelli%null%1,       N.% Dutta%null%1,       E.% Jones%null%1,       L.% Tamariz%null%1,       J. M.% Clark%null%1,       M.% Usher%null%1,       G.% Metlon-Meaux%null%1,       S. % Ikramuddin%null%1,  C.%Bramante%null%1,  C. J.% Tignanelli%null%1,  N.% Dutta%null%1,  E.% Jones%null%1,  L.% Tamariz%null%1,  J. M.% Clark%null%1,  M.% Usher%null%1,  G.% Metlon-Meaux%null%1,  S. % Ikramuddin%null%1]</t>
+  </si>
+  <si>
+    <t>medrxiv/biorxiv doi</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%2,      Feng%Gao%NULL%1,      Xiao-Bo%Wang%NULL%2,      Qing-Feng%Sun%NULL%2,      Ke-Hua%Pan%NULL%2,      Ting-Yao%Wang%NULL%2,      Hong-Lei%Ma%NULL%2,      Yong-Ping%Chen%NULL%2,      Wen-Yue%Liu%NULL%1,      Jacob%George%NULL%4,      Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%2,      Li%Zhu%NULL%2,      Li%Zhu%NULL%0,      Jian%Wang%NULL%1,      Leyang%Xue%NULL%1,      Longgen%Liu%NULL%1,      Xuebing%Yan%NULL%1,      Songping%Huang%NULL%1,      Yang%Li%NULL%1,      Xiaomin%Yan%NULL%1,      Biao%Zhang%NULL%1,      Tianmin%Xu%NULL%1,      Chunyang%Li%NULL%1,      Fang%Ji%NULL%1,      Fang%Ming%NULL%1,      Yun%Zhao%NULL%1,      Juan%Cheng%NULL%1,      Yinling%Wang%NULL%1,      Haiyan%Zhao%NULL%1,      Shuqin%Hong%NULL%1,      Kang%Chen%NULL%1,      Xiang‐an%Zhao%NULL%1,      Lei%Zou%NULL%1,      Dawen%Sang%NULL%1,      Huaping%Shao%NULL%1,      Xinying%Guan%NULL%1,      Xiaobing%Chen%NULL%1,      Yuxin%Chen%NULL%1,      Jie%Wei%NULL%1,      Chuanwu%Zhu%zhuchw@126.com%1,      Chao%Wu%dr.wu@nju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Donghee%Kim%NULL%1,      Nia%Adeniji%NULL%1,      Nyann%Latt%NULL%1,      Sonal%Kumar%NULL%1,      Patricia P.%Bloom%NULL%1,      Elizabeth S.%Aby%NULL%1,      Ponni%Perumalswami%NULL%1,      Marina%Roytman%NULL%1,      Michael%Li%NULL%1,      Alexander S.%Vogel%NULL%1,      Andreea M.%Catana%NULL%1,      Kara%Wegermann%NULL%1,      Rotonya M.%Carr%NULL%1,      Costica%Aloman%NULL%1,      Vincent L.%Chen%NULL%1,      Atoosa%Rabiee%NULL%1,      Brett%Sadowski%NULL%1,      Veronica%Nguyen%NULL%1,      Winston%Dunn%NULL%1,      Kenneth D.%Chavin%NULL%1,      Kali%Zhou%NULL%1,      Blanca%Lizaola-Mayo%NULL%1,      Akshata%Moghe%NULL%1,      José%Debes%NULL%1,      Tzu-Hao%Lee%NULL%1,      Andrea D.%Branch%NULL%1,      Kathleen%Viveiros%NULL%0,      Walter%Chan%NULL%1,      David M.%Chascsa%NULL%1,      Paul%Kwo%NULL%1,      Renumathy%Dhanasekaran%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Jie%Zhou%NULL%1,      Kenneth I.%Zheng%NULL%3,      Xiao-Bo%Wang%NULL%0,      Hua-Dong%Yan%NULL%1,      Qing-Feng%Sun%NULL%0,      Ke-Hua%Pan%NULL%0,      Ting-Yao%Wang%NULL%0,      Hong-Lei%Ma%NULL%0,      Yong-Ping%Chen%NULL%0,      Jacob%George%NULL%0,      Ming-Hua%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu‐Jie%Zhou%NULL%1,      Kenneth I.%Zheng%NULL%0,      Kenneth I.%Zheng%NULL%0,      Xiao‐Bo%Wang%NULL%4,      Xiao‐Bo%Wang%NULL%0,      Qing‐Feng%Sun%NULL%2,      Ke‐Hua%Pan%NULL%2,      Ting‐Yao%Wang%NULL%2,      Hong‐Lei%Ma%NULL%1,      Yong‐Ping%Chen%NULL%2,      Jacob%George%jacob.george@sydney.edu.au%0,      Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Feng%Gao%NULL%1,      Kenneth I%Zheng%NULL%1,      Xiao‐Bo%Wang%NULL%0,      Xiao‐Bo%Wang%NULL%0,      Hua‐Dong%Yan%NULL%1,      Qing‐Feng%Sun%NULL%0,      Ke‐Hua%Pan%NULL%0,      Ting‐Yao%Wang%NULL%0,      Yong‐Ping%Chen%NULL%0,      Jacob%George%jacob.george@sydney.edu.au%0,      Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ivan%Lopez-Mendez%NULL%1,      Jorge%Aquino-Matus%NULL%1,      Sofia Murua-Beltrán%Gall%NULL%1,      Jose D.%Prieto-Nava%NULL%1,      Eva%Juarez-Hernandez%NULL%1,      Misael%Uribe%NULL%1,      Graciela%Castro-Narro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roberta%Forlano%NULL%1,      Benjamin H.%Mullish%NULL%2,      Benjamin H.%Mullish%NULL%0,      Sujit K.%Mukherjee%NULL%1,      Rooshi%Nathwani%NULL%1,      Cristopher%Harlow%NULL%1,      Peter%Crook%NULL%1,      Rebekah%Judge%NULL%1,      Anet%Soubieres%NULL%2,      Anet%Soubieres%NULL%0,      Paul%Middleton%NULL%1,      Anna%Daunt%NULL%1,      Pablo%Perez-Guzman%NULL%1,      Nowlan%Selvapatt%NULL%1,      Maud%Lemoine%NULL%1,      Ameet%Dhar%NULL%1,      Mark R.%Thursz%NULL%1,      Shevanthi%Nayagam%NULL%1,      Pinelopi%Manousou%NULL%1,      Wan-Long%Chuang%NULL%2,      Wan-Long%Chuang%NULL%0,      NULL%NULL%NULL%2,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mahmud%Mahamid%NULL%1,      Wiliam%Nseir%NULL%1,      Tawfik%Khoury%NULL%1,      Baker%Mahamid%NULL%1,      Adi%Nubania%NULL%1,      Kamal%Sub-Laban%NULL%1,      Joel%Schifter%NULL%1,      Amir%Mari%NULL%1,      Wisam%Sbeit%NULL%1,      Eran%Goldin%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -860,6 +911,9 @@
       <c r="H1" t="s">
         <v>26</v>
       </c>
+      <c r="I1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -875,7 +929,7 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
@@ -885,6 +939,9 @@
       </c>
       <c r="H2" t="s">
         <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="3">
@@ -901,7 +958,7 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -911,6 +968,9 @@
       </c>
       <c r="H3" t="s">
         <v>37</v>
+      </c>
+      <c r="I3" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="4">
@@ -927,16 +987,19 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="H4" t="s">
         <v>42</v>
+      </c>
+      <c r="I4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="5">
@@ -953,7 +1016,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -963,6 +1026,9 @@
       </c>
       <c r="H5" t="s">
         <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="6">
@@ -979,7 +1045,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
@@ -989,6 +1055,9 @@
       </c>
       <c r="H6" t="s">
         <v>52</v>
+      </c>
+      <c r="I6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="7">
@@ -1016,6 +1085,9 @@
       <c r="H7" t="s">
         <v>53</v>
       </c>
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -1031,7 +1103,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -1041,6 +1113,9 @@
       </c>
       <c r="H8" t="s">
         <v>53</v>
+      </c>
+      <c r="I8" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="9">
@@ -1057,7 +1132,7 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
@@ -1067,6 +1142,9 @@
       </c>
       <c r="H9" t="s">
         <v>61</v>
+      </c>
+      <c r="I9" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="10">
@@ -1083,7 +1161,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -1093,6 +1171,9 @@
       </c>
       <c r="H10" t="s">
         <v>66</v>
+      </c>
+      <c r="I10" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="11">
@@ -1109,7 +1190,7 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1119,6 +1200,9 @@
       </c>
       <c r="H11" t="s">
         <v>71</v>
+      </c>
+      <c r="I11" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="12">
@@ -1135,7 +1219,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1145,6 +1229,9 @@
       </c>
       <c r="H12" t="s">
         <v>76</v>
+      </c>
+      <c r="I12" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="13">
@@ -1161,7 +1248,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -1171,6 +1258,9 @@
       </c>
       <c r="H13" t="s">
         <v>81</v>
+      </c>
+      <c r="I13" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="14">
@@ -1187,7 +1277,7 @@
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="F14" t="s">
         <v>85</v>
@@ -1197,6 +1287,9 @@
       </c>
       <c r="H14" t="s">
         <v>86</v>
+      </c>
+      <c r="I14" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/9.xlsx
+++ b/Covid_19_Dataset_and_References/References/9.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="207">
   <si>
     <t>Doi</t>
   </si>
@@ -597,6 +597,181 @@
   </si>
   <si>
     <t>[Mahmud%Mahamid%NULL%1,      Wiliam%Nseir%NULL%1,      Tawfik%Khoury%NULL%1,      Baker%Mahamid%NULL%1,      Adi%Nubania%NULL%1,      Kamal%Sub-Laban%NULL%1,      Joel%Schifter%NULL%1,      Amir%Mari%NULL%1,      Wisam%Sbeit%NULL%1,      Eran%Goldin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nikroo%Hashemi%NULL%1,       Kathleen%Viveiros%NULL%2,       Walker D.%Redd%NULL%1,       Joyce C.%Zhou%NULL%1,       Thomas R.%McCarty%NULL%1,       Ahmad N.%Bazarbashi%NULL%1,       Kelly E.%Hathorn%NULL%1,       Danny%Wong%NULL%1,       Cheikh%Njie%NULL%1,       Lin%Shen%NULL%1,       Walter W.%Chan%wwchan@bwh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Vincent L.%Chen%vichen@med.umich.edu%1,       Fadi%Hawa%NULL%2,       Fadi%Hawa%NULL%0,       Jeffrey A.%Berinstein%NULL%1,       Chanakyaram A.%Reddy%NULL%1,       Ihab%Kassab%NULL%1,       Kevin D.%Platt%NULL%1,       Chia-Yang%Hsu%NULL%1,       Calen A.%Steiner%NULL%1,       Jeremy%Louissaint%NULL%1,       Naresh T.%Gunaratnam%NULL%1,       Pratima%Sharma%pratimas@med.umich.edu%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%NULL%2,       Christopher J.%Tignanelli%NULL%1,       Nirjhar%Dutta%NULL%1,       Emma%Jones%NULL%1,       Leonardo%Tamaritz%NULL%1,       Jeanne%Clark%NULL%1,       Genevieve%Melton-Meaux%NULL%1,       Michael%Usher%NULL%1,       Sayeed%Ikramuddin%NULL%1,        C.%Bramante%null%1,        C. J.% Tignanelli%null%1,        N.% Dutta%null%1,        E.% Jones%null%1,        L.% Tamariz%null%1,        J. M.% Clark%null%1,        M.% Usher%null%1,        G.% Metlon-Meaux%null%1,        S. % Ikramuddin%null%1,   C.%Bramante%null%1,   C. J.% Tignanelli%null%1,   N.% Dutta%null%1,   E.% Jones%null%1,   L.% Tamariz%null%1,   J. M.% Clark%null%1,   M.% Usher%null%1,   G.% Metlon-Meaux%null%1,   S. % Ikramuddin%null%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%2,       Feng%Gao%NULL%1,       Xiao-Bo%Wang%NULL%2,       Qing-Feng%Sun%NULL%2,       Ke-Hua%Pan%NULL%2,       Ting-Yao%Wang%NULL%2,       Hong-Lei%Ma%NULL%2,       Yong-Ping%Chen%NULL%2,       Wen-Yue%Liu%NULL%1,       Jacob%George%NULL%4,       Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%2,       Li%Zhu%NULL%2,       Li%Zhu%NULL%0,       Jian%Wang%NULL%1,       Leyang%Xue%NULL%1,       Longgen%Liu%NULL%1,       Xuebing%Yan%NULL%1,       Songping%Huang%NULL%1,       Yang%Li%NULL%1,       Xiaomin%Yan%NULL%1,       Biao%Zhang%NULL%1,       Tianmin%Xu%NULL%1,       Chunyang%Li%NULL%1,       Fang%Ji%NULL%1,       Fang%Ming%NULL%1,       Yun%Zhao%NULL%1,       Juan%Cheng%NULL%1,       Yinling%Wang%NULL%1,       Haiyan%Zhao%NULL%1,       Shuqin%Hong%NULL%1,       Kang%Chen%NULL%1,       Xiang‐an%Zhao%NULL%1,       Lei%Zou%NULL%1,       Dawen%Sang%NULL%1,       Huaping%Shao%NULL%1,       Xinying%Guan%NULL%1,       Xiaobing%Chen%NULL%1,       Yuxin%Chen%NULL%1,       Jie%Wei%NULL%1,       Chuanwu%Zhu%zhuchw@126.com%1,       Chao%Wu%dr.wu@nju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>Risk of severe illness from COVID-19 in patients with metabolic dysfunction-associated fatty liver disease and increased fibrosis scores</t>
+  </si>
+  <si>
+    <t>A recent study reported that patients with severe COVID-19 illness were more likely to have NAFLD compared to those with non-severe COVID-19 illness [1].
+ However, the prognosis of NAFLD (recently renamed metabolic associated fatty liver disease (MAFLD) [2]) is determined by the severity of liver fibrosis [3,4].
+ We therefore postulated that MAFLD patients with increased non-invasive liver fibrosis scores are at higher risk for severe illness from COVID-19.   We studied 310 patients with laboratory-confirmed COVID-19, who were consecutively hospitalized at four sites in Zhejiang province, China, between January and February 2020. Some of these patients have been included in a prior study [5].
+ Patients with viral hepatitis, excessive alcohol intake, chronic pulmonary diseases or active cancers were excluded.
+ Clinical and laboratory data were collected at hospital admission.
+ All patients were screened for hepatic steatosis by computed tomography and subsequently diagnosed as MAFLD [6].
+ The originally validated cut-points for Fibrosis-4 (FIB-4) index and NAFLD fibrosis score (NFS) were used to categorize liver fibrosis probability as low, intermediate, or high [7].
+ COVID-19 severity was classified as severe and non-severe [8].
+   In our cohort, 94 (30.3%) patients had MAFLD.
+ As shown in Table 1, patients with MAFLD and intermediate or high FIB-4 scores were more likely to be older, obese, have diabetes, and had higher NFS, higher liver enzymes, higher C-reactive protein, as well as lower levels of lymphocyte count, platelet count, triglycerides and HDL-cholesterol compared with their counterparts with low FIB-4 score or those without MAFLD.
+ Notably, the severity of COVID-19 illness markedly increased amongst MAFLD patients with intermediate or high FIB-4 scores</t>
+  </si>
+  <si>
+    <t>[Byrne%Christopher D%coreGivesNoEmail%1, Chen%Yong-Ping%coreGivesNoEmail%1, Eslam%Mohammed%coreGivesNoEmail%1, George%Jacob%coreGivesNoEmail%1, Mantovani%Alessandro%coreGivesNoEmail%1, Pan%Ke-Hua%coreGivesNoEmail%1, Sun%Qing-Feng%coreGivesNoEmail%1, Targher%Giovanni%coreGivesNoEmail%1, Wang%Xiao-Bo%coreGivesNoEmail%1, Yan%Hua-Dong%coreGivesNoEmail%1, Zheng%Kenneth I%coreGivesNoEmail%1, Zheng%Ming-Hua%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>CORE</t>
+  </si>
+  <si>
+    <t>[Donghee%Kim%NULL%1,       Nia%Adeniji%NULL%1,       Nyann%Latt%NULL%1,       Sonal%Kumar%NULL%1,       Patricia P.%Bloom%NULL%1,       Elizabeth S.%Aby%NULL%1,       Ponni%Perumalswami%NULL%1,       Marina%Roytman%NULL%1,       Michael%Li%NULL%1,       Alexander S.%Vogel%NULL%1,       Andreea M.%Catana%NULL%1,       Kara%Wegermann%NULL%1,       Rotonya M.%Carr%NULL%1,       Costica%Aloman%NULL%1,       Vincent L.%Chen%NULL%1,       Atoosa%Rabiee%NULL%1,       Brett%Sadowski%NULL%1,       Veronica%Nguyen%NULL%1,       Winston%Dunn%NULL%1,       Kenneth D.%Chavin%NULL%1,       Kali%Zhou%NULL%1,       Blanca%Lizaola-Mayo%NULL%1,       Akshata%Moghe%NULL%1,       José%Debes%NULL%1,       Tzu-Hao%Lee%NULL%1,       Andrea D.%Branch%NULL%1,       Kathleen%Viveiros%NULL%0,       Walter%Chan%NULL%1,       David M.%Chascsa%NULL%1,       Paul%Kwo%NULL%1,       Renumathy%Dhanasekaran%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Jie%Zhou%NULL%1,       Kenneth I.%Zheng%NULL%3,       Xiao-Bo%Wang%NULL%0,       Hua-Dong%Yan%NULL%1,       Qing-Feng%Sun%NULL%0,       Ke-Hua%Pan%NULL%0,       Ting-Yao%Wang%NULL%0,       Hong-Lei%Ma%NULL%0,       Yong-Ping%Chen%NULL%0,       Jacob%George%NULL%0,       Ming-Hua%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu‐Jie%Zhou%NULL%1,       Kenneth I.%Zheng%NULL%0,       Kenneth I.%Zheng%NULL%0,       Xiao‐Bo%Wang%NULL%4,       Xiao‐Bo%Wang%NULL%0,       Qing‐Feng%Sun%NULL%2,       Ke‐Hua%Pan%NULL%2,       Ting‐Yao%Wang%NULL%2,       Hong‐Lei%Ma%NULL%1,       Yong‐Ping%Chen%NULL%2,       Jacob%George%jacob.george@sydney.edu.au%0,       Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Feng%Gao%NULL%1,       Kenneth I%Zheng%NULL%1,       Xiao‐Bo%Wang%NULL%0,       Xiao‐Bo%Wang%NULL%0,       Hua‐Dong%Yan%NULL%1,       Qing‐Feng%Sun%NULL%0,       Ke‐Hua%Pan%NULL%0,       Ting‐Yao%Wang%NULL%0,       Yong‐Ping%Chen%NULL%0,       Jacob%George%jacob.george@sydney.edu.au%0,       Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ivan%Lopez-Mendez%NULL%1,       Jorge%Aquino-Matus%NULL%1,       Sofia Murua-Beltrán%Gall%NULL%1,       Jose D.%Prieto-Nava%NULL%1,       Eva%Juarez-Hernandez%NULL%1,       Misael%Uribe%NULL%1,       Graciela%Castro-Narro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roberta%Forlano%NULL%1,       Benjamin H.%Mullish%NULL%2,       Benjamin H.%Mullish%NULL%0,       Sujit K.%Mukherjee%NULL%1,       Rooshi%Nathwani%NULL%1,       Cristopher%Harlow%NULL%1,       Peter%Crook%NULL%1,       Rebekah%Judge%NULL%1,       Anet%Soubieres%NULL%2,       Anet%Soubieres%NULL%0,       Paul%Middleton%NULL%1,       Anna%Daunt%NULL%1,       Pablo%Perez-Guzman%NULL%1,       Nowlan%Selvapatt%NULL%1,       Maud%Lemoine%NULL%1,       Ameet%Dhar%NULL%1,       Mark R.%Thursz%NULL%1,       Shevanthi%Nayagam%NULL%1,       Pinelopi%Manousou%NULL%1,       Wan-Long%Chuang%NULL%2,       Wan-Long%Chuang%NULL%0,       NULL%NULL%NULL%2,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mahmud%Mahamid%NULL%1,       Wiliam%Nseir%NULL%1,       Tawfik%Khoury%NULL%1,       Baker%Mahamid%NULL%1,       Adi%Nubania%NULL%1,       Kamal%Sub-Laban%NULL%1,       Joel%Schifter%NULL%1,       Amir%Mari%NULL%1,       Wisam%Sbeit%NULL%1,       Eran%Goldin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nikroo%Hashemi%NULL%1,        Kathleen%Viveiros%NULL%2,        Walker D.%Redd%NULL%1,        Joyce C.%Zhou%NULL%1,        Thomas R.%McCarty%NULL%1,        Ahmad N.%Bazarbashi%NULL%1,        Kelly E.%Hathorn%NULL%1,        Danny%Wong%NULL%1,        Cheikh%Njie%NULL%1,        Lin%Shen%NULL%1,        Walter W.%Chan%wwchan@bwh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Vincent L.%Chen%vichen@med.umich.edu%1,        Fadi%Hawa%NULL%2,        Fadi%Hawa%NULL%0,        Jeffrey A.%Berinstein%NULL%1,        Chanakyaram A.%Reddy%NULL%1,        Ihab%Kassab%NULL%1,        Kevin D.%Platt%NULL%1,        Chia-Yang%Hsu%NULL%1,        Calen A.%Steiner%NULL%1,        Jeremy%Louissaint%NULL%1,        Naresh T.%Gunaratnam%NULL%1,        Pratima%Sharma%pratimas@med.umich.edu%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%NULL%2,        Christopher J.%Tignanelli%NULL%1,        Nirjhar%Dutta%NULL%1,        Emma%Jones%NULL%1,        Leonardo%Tamaritz%NULL%1,        Jeanne%Clark%NULL%1,        Genevieve%Melton-Meaux%NULL%1,        Michael%Usher%NULL%1,        Sayeed%Ikramuddin%NULL%1,         C.%Bramante%null%1,         C. J.% Tignanelli%null%1,         N.% Dutta%null%1,         E.% Jones%null%1,         L.% Tamariz%null%1,         J. M.% Clark%null%1,         M.% Usher%null%1,         G.% Metlon-Meaux%null%1,         S. % Ikramuddin%null%1,    C.%Bramante%null%1,    C. J.% Tignanelli%null%1,    N.% Dutta%null%1,    E.% Jones%null%1,    L.% Tamariz%null%1,    J. M.% Clark%null%1,    M.% Usher%null%1,    G.% Metlon-Meaux%null%1,    S. % Ikramuddin%null%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%2,        Feng%Gao%NULL%1,        Xiao-Bo%Wang%NULL%2,        Qing-Feng%Sun%NULL%2,        Ke-Hua%Pan%NULL%2,        Ting-Yao%Wang%NULL%2,        Hong-Lei%Ma%NULL%2,        Yong-Ping%Chen%NULL%2,        Wen-Yue%Liu%NULL%1,        Jacob%George%NULL%4,        Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%2,        Li%Zhu%NULL%2,        Li%Zhu%NULL%0,        Jian%Wang%NULL%1,        Leyang%Xue%NULL%1,        Longgen%Liu%NULL%1,        Xuebing%Yan%NULL%1,        Songping%Huang%NULL%1,        Yang%Li%NULL%1,        Xiaomin%Yan%NULL%1,        Biao%Zhang%NULL%1,        Tianmin%Xu%NULL%1,        Chunyang%Li%NULL%1,        Fang%Ji%NULL%1,        Fang%Ming%NULL%1,        Yun%Zhao%NULL%1,        Juan%Cheng%NULL%1,        Yinling%Wang%NULL%1,        Haiyan%Zhao%NULL%1,        Shuqin%Hong%NULL%1,        Kang%Chen%NULL%1,        Xiang‐an%Zhao%NULL%1,        Lei%Zou%NULL%1,        Dawen%Sang%NULL%1,        Huaping%Shao%NULL%1,        Xinying%Guan%NULL%1,        Xiaobing%Chen%NULL%1,        Yuxin%Chen%NULL%1,        Jie%Wei%NULL%1,        Chuanwu%Zhu%zhuchw@126.com%1,        Chao%Wu%dr.wu@nju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Byrne%Christopher D%coreGivesNoEmail%1,  Chen%Yong-Ping%coreGivesNoEmail%1,  Eslam%Mohammed%coreGivesNoEmail%1,  George%Jacob%coreGivesNoEmail%1,  Mantovani%Alessandro%coreGivesNoEmail%1,  Pan%Ke-Hua%coreGivesNoEmail%1,  Sun%Qing-Feng%coreGivesNoEmail%1,  Targher%Giovanni%coreGivesNoEmail%1,  Wang%Xiao-Bo%coreGivesNoEmail%1,  Yan%Hua-Dong%coreGivesNoEmail%1,  Zheng%Kenneth I%coreGivesNoEmail%1,  Zheng%Ming-Hua%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Donghee%Kim%NULL%1,        Nia%Adeniji%NULL%1,        Nyann%Latt%NULL%1,        Sonal%Kumar%NULL%1,        Patricia P.%Bloom%NULL%1,        Elizabeth S.%Aby%NULL%1,        Ponni%Perumalswami%NULL%1,        Marina%Roytman%NULL%1,        Michael%Li%NULL%1,        Alexander S.%Vogel%NULL%1,        Andreea M.%Catana%NULL%1,        Kara%Wegermann%NULL%1,        Rotonya M.%Carr%NULL%1,        Costica%Aloman%NULL%1,        Vincent L.%Chen%NULL%1,        Atoosa%Rabiee%NULL%1,        Brett%Sadowski%NULL%1,        Veronica%Nguyen%NULL%1,        Winston%Dunn%NULL%1,        Kenneth D.%Chavin%NULL%1,        Kali%Zhou%NULL%1,        Blanca%Lizaola-Mayo%NULL%1,        Akshata%Moghe%NULL%1,        José%Debes%NULL%1,        Tzu-Hao%Lee%NULL%1,        Andrea D.%Branch%NULL%1,        Kathleen%Viveiros%NULL%0,        Walter%Chan%NULL%1,        David M.%Chascsa%NULL%1,        Paul%Kwo%NULL%1,        Renumathy%Dhanasekaran%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Jie%Zhou%NULL%1,        Kenneth I.%Zheng%NULL%3,        Xiao-Bo%Wang%NULL%0,        Hua-Dong%Yan%NULL%1,        Qing-Feng%Sun%NULL%0,        Ke-Hua%Pan%NULL%0,        Ting-Yao%Wang%NULL%0,        Hong-Lei%Ma%NULL%0,        Yong-Ping%Chen%NULL%0,        Jacob%George%NULL%0,        Ming-Hua%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu‐Jie%Zhou%NULL%1,        Kenneth I.%Zheng%NULL%0,        Kenneth I.%Zheng%NULL%0,        Xiao‐Bo%Wang%NULL%4,        Xiao‐Bo%Wang%NULL%0,        Qing‐Feng%Sun%NULL%2,        Ke‐Hua%Pan%NULL%2,        Ting‐Yao%Wang%NULL%2,        Hong‐Lei%Ma%NULL%1,        Yong‐Ping%Chen%NULL%2,        Jacob%George%jacob.george@sydney.edu.au%0,        Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Feng%Gao%NULL%1,        Kenneth I%Zheng%NULL%1,        Xiao‐Bo%Wang%NULL%0,        Xiao‐Bo%Wang%NULL%0,        Hua‐Dong%Yan%NULL%1,        Qing‐Feng%Sun%NULL%0,        Ke‐Hua%Pan%NULL%0,        Ting‐Yao%Wang%NULL%0,        Yong‐Ping%Chen%NULL%0,        Jacob%George%jacob.george@sydney.edu.au%0,        Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ivan%Lopez-Mendez%NULL%1,        Jorge%Aquino-Matus%NULL%1,        Sofia Murua-Beltrán%Gall%NULL%1,        Jose D.%Prieto-Nava%NULL%1,        Eva%Juarez-Hernandez%NULL%1,        Misael%Uribe%NULL%1,        Graciela%Castro-Narro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roberta%Forlano%NULL%1,        Benjamin H.%Mullish%NULL%2,        Benjamin H.%Mullish%NULL%0,        Sujit K.%Mukherjee%NULL%1,        Rooshi%Nathwani%NULL%1,        Cristopher%Harlow%NULL%1,        Peter%Crook%NULL%1,        Rebekah%Judge%NULL%1,        Anet%Soubieres%NULL%2,        Anet%Soubieres%NULL%0,        Paul%Middleton%NULL%1,        Anna%Daunt%NULL%1,        Pablo%Perez-Guzman%NULL%1,        Nowlan%Selvapatt%NULL%1,        Maud%Lemoine%NULL%1,        Ameet%Dhar%NULL%1,        Mark R.%Thursz%NULL%1,        Shevanthi%Nayagam%NULL%1,        Pinelopi%Manousou%NULL%1,        Wan-Long%Chuang%NULL%2,        Wan-Long%Chuang%NULL%0,        NULL%NULL%NULL%3,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mahmud%Mahamid%NULL%1,        Wiliam%Nseir%NULL%1,        Tawfik%Khoury%NULL%1,        Baker%Mahamid%NULL%1,        Adi%Nubania%NULL%1,        Kamal%Sub-Laban%NULL%1,        Joel%Schifter%NULL%1,        Amir%Mari%NULL%1,        Wisam%Sbeit%NULL%1,        Eran%Goldin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nikroo%Hashemi%NULL%1,         Kathleen%Viveiros%NULL%2,         Walker D.%Redd%NULL%1,         Joyce C.%Zhou%NULL%1,         Thomas R.%McCarty%NULL%1,         Ahmad N.%Bazarbashi%NULL%1,         Kelly E.%Hathorn%NULL%1,         Danny%Wong%NULL%1,         Cheikh%Njie%NULL%1,         Lin%Shen%NULL%1,         Walter W.%Chan%wwchan@bwh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Vincent L.%Chen%vichen@med.umich.edu%1,         Fadi%Hawa%NULL%2,         Fadi%Hawa%NULL%0,         Jeffrey A.%Berinstein%NULL%1,         Chanakyaram A.%Reddy%NULL%1,         Ihab%Kassab%NULL%1,         Kevin D.%Platt%NULL%1,         Chia-Yang%Hsu%NULL%1,         Calen A.%Steiner%NULL%1,         Jeremy%Louissaint%NULL%1,         Naresh T.%Gunaratnam%NULL%1,         Pratima%Sharma%pratimas@med.umich.edu%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%NULL%2,         Christopher J.%Tignanelli%NULL%1,         Nirjhar%Dutta%NULL%1,         Emma%Jones%NULL%1,         Leonardo%Tamaritz%NULL%1,         Jeanne%Clark%NULL%1,         Genevieve%Melton-Meaux%NULL%1,         Michael%Usher%NULL%1,         Sayeed%Ikramuddin%NULL%1,          C.%Bramante%null%1,          C. J.% Tignanelli%null%1,          N.% Dutta%null%1,          E.% Jones%null%1,          L.% Tamariz%null%1,          J. M.% Clark%null%1,          M.% Usher%null%1,          G.% Metlon-Meaux%null%1,          S. % Ikramuddin%null%1,     C.%Bramante%null%1,     C. J.% Tignanelli%null%1,     N.% Dutta%null%1,     E.% Jones%null%1,     L.% Tamariz%null%1,     J. M.% Clark%null%1,     M.% Usher%null%1,     G.% Metlon-Meaux%null%1,     S. % Ikramuddin%null%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%2,         Feng%Gao%NULL%1,         Xiao-Bo%Wang%NULL%2,         Qing-Feng%Sun%NULL%2,         Ke-Hua%Pan%NULL%2,         Ting-Yao%Wang%NULL%2,         Hong-Lei%Ma%NULL%2,         Yong-Ping%Chen%NULL%2,         Wen-Yue%Liu%NULL%1,         Jacob%George%NULL%4,         Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%2,         Li%Zhu%NULL%2,         Li%Zhu%NULL%0,         Jian%Wang%NULL%1,         Leyang%Xue%NULL%1,         Longgen%Liu%NULL%1,         Xuebing%Yan%NULL%1,         Songping%Huang%NULL%1,         Yang%Li%NULL%1,         Xiaomin%Yan%NULL%1,         Biao%Zhang%NULL%1,         Tianmin%Xu%NULL%1,         Chunyang%Li%NULL%1,         Fang%Ji%NULL%1,         Fang%Ming%NULL%1,         Yun%Zhao%NULL%1,         Juan%Cheng%NULL%1,         Yinling%Wang%NULL%1,         Haiyan%Zhao%NULL%1,         Shuqin%Hong%NULL%1,         Kang%Chen%NULL%1,         Xiang‐an%Zhao%NULL%1,         Lei%Zou%NULL%1,         Dawen%Sang%NULL%1,         Huaping%Shao%NULL%1,         Xinying%Guan%NULL%1,         Xiaobing%Chen%NULL%1,         Yuxin%Chen%NULL%1,         Jie%Wei%NULL%1,         Chuanwu%Zhu%zhuchw@126.com%1,         Chao%Wu%dr.wu@nju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Byrne%Christopher D%coreGivesNoEmail%1,   Chen%Yong-Ping%coreGivesNoEmail%1,   Eslam%Mohammed%coreGivesNoEmail%1,   George%Jacob%coreGivesNoEmail%1,   Mantovani%Alessandro%coreGivesNoEmail%1,   Pan%Ke-Hua%coreGivesNoEmail%1,   Sun%Qing-Feng%coreGivesNoEmail%1,   Targher%Giovanni%coreGivesNoEmail%1,   Wang%Xiao-Bo%coreGivesNoEmail%1,   Yan%Hua-Dong%coreGivesNoEmail%1,   Zheng%Kenneth I%coreGivesNoEmail%1,   Zheng%Ming-Hua%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Donghee%Kim%NULL%1,         Nia%Adeniji%NULL%1,         Nyann%Latt%NULL%1,         Sonal%Kumar%NULL%1,         Patricia P.%Bloom%NULL%1,         Elizabeth S.%Aby%NULL%1,         Ponni%Perumalswami%NULL%1,         Marina%Roytman%NULL%1,         Michael%Li%NULL%1,         Alexander S.%Vogel%NULL%1,         Andreea M.%Catana%NULL%1,         Kara%Wegermann%NULL%1,         Rotonya M.%Carr%NULL%1,         Costica%Aloman%NULL%1,         Vincent L.%Chen%NULL%1,         Atoosa%Rabiee%NULL%1,         Brett%Sadowski%NULL%1,         Veronica%Nguyen%NULL%1,         Winston%Dunn%NULL%1,         Kenneth D.%Chavin%NULL%1,         Kali%Zhou%NULL%1,         Blanca%Lizaola-Mayo%NULL%1,         Akshata%Moghe%NULL%1,         José%Debes%NULL%1,         Tzu-Hao%Lee%NULL%1,         Andrea D.%Branch%NULL%1,         Kathleen%Viveiros%NULL%0,         Walter%Chan%NULL%1,         David M.%Chascsa%NULL%1,         Paul%Kwo%NULL%1,         Renumathy%Dhanasekaran%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Jie%Zhou%NULL%1,         Kenneth I.%Zheng%NULL%3,         Xiao-Bo%Wang%NULL%0,         Hua-Dong%Yan%NULL%1,         Qing-Feng%Sun%NULL%0,         Ke-Hua%Pan%NULL%0,         Ting-Yao%Wang%NULL%0,         Hong-Lei%Ma%NULL%0,         Yong-Ping%Chen%NULL%0,         Jacob%George%NULL%0,         Ming-Hua%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu‐Jie%Zhou%NULL%1,         Kenneth I.%Zheng%NULL%0,         Kenneth I.%Zheng%NULL%0,         Xiao‐Bo%Wang%NULL%4,         Xiao‐Bo%Wang%NULL%0,         Qing‐Feng%Sun%NULL%2,         Ke‐Hua%Pan%NULL%2,         Ting‐Yao%Wang%NULL%2,         Hong‐Lei%Ma%NULL%1,         Yong‐Ping%Chen%NULL%2,         Jacob%George%jacob.george@sydney.edu.au%0,         Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Feng%Gao%NULL%1,         Kenneth I%Zheng%NULL%1,         Xiao‐Bo%Wang%NULL%0,         Xiao‐Bo%Wang%NULL%0,         Hua‐Dong%Yan%NULL%1,         Qing‐Feng%Sun%NULL%0,         Ke‐Hua%Pan%NULL%0,         Ting‐Yao%Wang%NULL%0,         Yong‐Ping%Chen%NULL%0,         Jacob%George%jacob.george@sydney.edu.au%0,         Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ivan%Lopez-Mendez%NULL%1,         Jorge%Aquino-Matus%NULL%1,         Sofia Murua-Beltrán%Gall%NULL%1,         Jose D.%Prieto-Nava%NULL%1,         Eva%Juarez-Hernandez%NULL%1,         Misael%Uribe%NULL%1,         Graciela%Castro-Narro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roberta%Forlano%NULL%1,         Benjamin H.%Mullish%NULL%2,         Benjamin H.%Mullish%NULL%0,         Sujit K.%Mukherjee%NULL%1,         Rooshi%Nathwani%NULL%1,         Cristopher%Harlow%NULL%1,         Peter%Crook%NULL%1,         Rebekah%Judge%NULL%1,         Anet%Soubieres%NULL%2,         Anet%Soubieres%NULL%0,         Paul%Middleton%NULL%1,         Anna%Daunt%NULL%1,         Pablo%Perez-Guzman%NULL%1,         Nowlan%Selvapatt%NULL%1,         Maud%Lemoine%NULL%1,         Ameet%Dhar%NULL%1,         Mark R.%Thursz%NULL%1,         Shevanthi%Nayagam%NULL%1,         Pinelopi%Manousou%NULL%1,         Wan-Long%Chuang%NULL%2,         Wan-Long%Chuang%NULL%0,         NULL%NULL%NULL%3,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mahmud%Mahamid%NULL%1,         Wiliam%Nseir%NULL%1,         Tawfik%Khoury%NULL%1,         Baker%Mahamid%NULL%1,         Adi%Nubania%NULL%1,         Kamal%Sub-Laban%NULL%1,         Joel%Schifter%NULL%1,         Amir%Mari%NULL%1,         Wisam%Sbeit%NULL%1,         Eran%Goldin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nikroo%Hashemi%NULL%1,          Kathleen%Viveiros%NULL%2,          Walker D.%Redd%NULL%1,          Joyce C.%Zhou%NULL%1,          Thomas R.%McCarty%NULL%1,          Ahmad N.%Bazarbashi%NULL%1,          Kelly E.%Hathorn%NULL%1,          Danny%Wong%NULL%1,          Cheikh%Njie%NULL%1,          Lin%Shen%NULL%1,          Walter W.%Chan%wwchan@bwh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Vincent L.%Chen%vichen@med.umich.edu%1,          Fadi%Hawa%NULL%2,          Fadi%Hawa%NULL%0,          Jeffrey A.%Berinstein%NULL%1,          Chanakyaram A.%Reddy%NULL%1,          Ihab%Kassab%NULL%1,          Kevin D.%Platt%NULL%1,          Chia-Yang%Hsu%NULL%1,          Calen A.%Steiner%NULL%1,          Jeremy%Louissaint%NULL%1,          Naresh T.%Gunaratnam%NULL%1,          Pratima%Sharma%pratimas@med.umich.edu%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%NULL%2,          Christopher J.%Tignanelli%NULL%1,          Nirjhar%Dutta%NULL%1,          Emma%Jones%NULL%1,          Leonardo%Tamaritz%NULL%1,          Jeanne%Clark%NULL%1,          Genevieve%Melton-Meaux%NULL%1,          Michael%Usher%NULL%1,          Sayeed%Ikramuddin%NULL%1,           C.%Bramante%null%1,           C. J.% Tignanelli%null%1,           N.% Dutta%null%1,           E.% Jones%null%1,           L.% Tamariz%null%1,           J. M.% Clark%null%1,           M.% Usher%null%1,           G.% Metlon-Meaux%null%1,           S. % Ikramuddin%null%1,      C.%Bramante%null%1,      C. J.% Tignanelli%null%1,      N.% Dutta%null%1,      E.% Jones%null%1,      L.% Tamariz%null%1,      J. M.% Clark%null%1,      M.% Usher%null%1,      G.% Metlon-Meaux%null%1,      S. % Ikramuddin%null%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%2,          Feng%Gao%NULL%1,          Xiao-Bo%Wang%NULL%2,          Qing-Feng%Sun%NULL%2,          Ke-Hua%Pan%NULL%2,          Ting-Yao%Wang%NULL%2,          Hong-Lei%Ma%NULL%2,          Yong-Ping%Chen%NULL%2,          Wen-Yue%Liu%NULL%1,          Jacob%George%NULL%4,          Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%2,          Li%Zhu%NULL%2,          Li%Zhu%NULL%0,          Jian%Wang%NULL%1,          Leyang%Xue%NULL%1,          Longgen%Liu%NULL%1,          Xuebing%Yan%NULL%1,          Songping%Huang%NULL%1,          Yang%Li%NULL%1,          Xiaomin%Yan%NULL%1,          Biao%Zhang%NULL%1,          Tianmin%Xu%NULL%1,          Chunyang%Li%NULL%1,          Fang%Ji%NULL%1,          Fang%Ming%NULL%1,          Yun%Zhao%NULL%1,          Juan%Cheng%NULL%1,          Yinling%Wang%NULL%1,          Haiyan%Zhao%NULL%1,          Shuqin%Hong%NULL%1,          Kang%Chen%NULL%1,          Xiang‐an%Zhao%NULL%1,          Lei%Zou%NULL%1,          Dawen%Sang%NULL%1,          Huaping%Shao%NULL%1,          Xinying%Guan%NULL%1,          Xiaobing%Chen%NULL%1,          Yuxin%Chen%NULL%1,          Jie%Wei%NULL%1,          Chuanwu%Zhu%zhuchw@126.com%1,          Chao%Wu%dr.wu@nju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Byrne%Christopher D%coreGivesNoEmail%1,    Chen%Yong-Ping%coreGivesNoEmail%1,    Eslam%Mohammed%coreGivesNoEmail%1,    George%Jacob%coreGivesNoEmail%1,    Mantovani%Alessandro%coreGivesNoEmail%1,    Pan%Ke-Hua%coreGivesNoEmail%1,    Sun%Qing-Feng%coreGivesNoEmail%1,    Targher%Giovanni%coreGivesNoEmail%1,    Wang%Xiao-Bo%coreGivesNoEmail%1,    Yan%Hua-Dong%coreGivesNoEmail%1,    Zheng%Kenneth I%coreGivesNoEmail%1,    Zheng%Ming-Hua%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Donghee%Kim%NULL%1,          Nia%Adeniji%NULL%1,          Nyann%Latt%NULL%1,          Sonal%Kumar%NULL%1,          Patricia P.%Bloom%NULL%1,          Elizabeth S.%Aby%NULL%1,          Ponni%Perumalswami%NULL%1,          Marina%Roytman%NULL%1,          Michael%Li%NULL%1,          Alexander S.%Vogel%NULL%1,          Andreea M.%Catana%NULL%1,          Kara%Wegermann%NULL%1,          Rotonya M.%Carr%NULL%1,          Costica%Aloman%NULL%1,          Vincent L.%Chen%NULL%1,          Atoosa%Rabiee%NULL%1,          Brett%Sadowski%NULL%1,          Veronica%Nguyen%NULL%1,          Winston%Dunn%NULL%1,          Kenneth D.%Chavin%NULL%1,          Kali%Zhou%NULL%1,          Blanca%Lizaola-Mayo%NULL%1,          Akshata%Moghe%NULL%1,          José%Debes%NULL%1,          Tzu-Hao%Lee%NULL%1,          Andrea D.%Branch%NULL%1,          Kathleen%Viveiros%NULL%0,          Walter%Chan%NULL%1,          David M.%Chascsa%NULL%1,          Paul%Kwo%NULL%1,          Renumathy%Dhanasekaran%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Jie%Zhou%NULL%1,          Kenneth I.%Zheng%NULL%3,          Xiao-Bo%Wang%NULL%0,          Hua-Dong%Yan%NULL%1,          Qing-Feng%Sun%NULL%0,          Ke-Hua%Pan%NULL%0,          Ting-Yao%Wang%NULL%0,          Hong-Lei%Ma%NULL%0,          Yong-Ping%Chen%NULL%0,          Jacob%George%NULL%0,          Ming-Hua%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu‐Jie%Zhou%NULL%1,          Kenneth I.%Zheng%NULL%0,          Kenneth I.%Zheng%NULL%0,          Xiao‐Bo%Wang%NULL%4,          Xiao‐Bo%Wang%NULL%0,          Qing‐Feng%Sun%NULL%2,          Ke‐Hua%Pan%NULL%2,          Ting‐Yao%Wang%NULL%2,          Hong‐Lei%Ma%NULL%1,          Yong‐Ping%Chen%NULL%2,          Jacob%George%jacob.george@sydney.edu.au%0,          Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Feng%Gao%NULL%1,          Kenneth I%Zheng%NULL%1,          Xiao‐Bo%Wang%NULL%0,          Xiao‐Bo%Wang%NULL%0,          Hua‐Dong%Yan%NULL%1,          Qing‐Feng%Sun%NULL%0,          Ke‐Hua%Pan%NULL%0,          Ting‐Yao%Wang%NULL%0,          Yong‐Ping%Chen%NULL%0,          Jacob%George%jacob.george@sydney.edu.au%0,          Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ivan%Lopez-Mendez%NULL%1,          Jorge%Aquino-Matus%NULL%1,          Sofia Murua-Beltrán%Gall%NULL%1,          Jose D.%Prieto-Nava%NULL%1,          Eva%Juarez-Hernandez%NULL%1,          Misael%Uribe%NULL%1,          Graciela%Castro-Narro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roberta%Forlano%NULL%1,          Benjamin H.%Mullish%NULL%2,          Benjamin H.%Mullish%NULL%0,          Sujit K.%Mukherjee%NULL%1,          Rooshi%Nathwani%NULL%1,          Cristopher%Harlow%NULL%1,          Peter%Crook%NULL%1,          Rebekah%Judge%NULL%1,          Anet%Soubieres%NULL%2,          Anet%Soubieres%NULL%0,          Paul%Middleton%NULL%1,          Anna%Daunt%NULL%1,          Pablo%Perez-Guzman%NULL%1,          Nowlan%Selvapatt%NULL%1,          Maud%Lemoine%NULL%1,          Ameet%Dhar%NULL%1,          Mark R.%Thursz%NULL%1,          Shevanthi%Nayagam%NULL%1,          Pinelopi%Manousou%NULL%1,          Wan-Long%Chuang%NULL%2,          Wan-Long%Chuang%NULL%0,          NULL%NULL%NULL%3,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mahmud%Mahamid%NULL%1,          Wiliam%Nseir%NULL%1,          Tawfik%Khoury%NULL%1,          Baker%Mahamid%NULL%1,          Adi%Nubania%NULL%1,          Kamal%Sub-Laban%NULL%1,          Joel%Schifter%NULL%1,          Amir%Mari%NULL%1,          Wisam%Sbeit%NULL%1,          Eran%Goldin%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -929,7 +1104,7 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
@@ -958,7 +1133,7 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -987,7 +1162,7 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>140</v>
+        <v>196</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1016,7 +1191,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1045,7 +1220,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
@@ -1068,19 +1243,19 @@
         <v>43966.0</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>199</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="H7" t="s">
         <v>53</v>
@@ -1103,7 +1278,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -1132,7 +1307,7 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
@@ -1161,7 +1336,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>147</v>
+        <v>202</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -1190,7 +1365,7 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1219,7 +1394,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>149</v>
+        <v>204</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1248,7 +1423,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -1277,7 +1452,7 @@
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c r="F14" t="s">
         <v>85</v>

--- a/Covid_19_Dataset_and_References/References/9.xlsx
+++ b/Covid_19_Dataset_and_References/References/9.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="233">
   <si>
     <t>Doi</t>
   </si>
@@ -772,6 +772,84 @@
   </si>
   <si>
     <t>[Mahmud%Mahamid%NULL%1,          Wiliam%Nseir%NULL%1,          Tawfik%Khoury%NULL%1,          Baker%Mahamid%NULL%1,          Adi%Nubania%NULL%1,          Kamal%Sub-Laban%NULL%1,          Joel%Schifter%NULL%1,          Amir%Mari%NULL%1,          Wisam%Sbeit%NULL%1,          Eran%Goldin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nikroo%Hashemi%NULL%1,           Kathleen%Viveiros%NULL%2,           Walker D.%Redd%NULL%1,           Joyce C.%Zhou%NULL%1,           Thomas R.%McCarty%NULL%1,           Ahmad N.%Bazarbashi%NULL%1,           Kelly E.%Hathorn%NULL%1,           Danny%Wong%NULL%1,           Cheikh%Njie%NULL%1,           Lin%Shen%NULL%1,           Walter W.%Chan%wwchan@bwh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Vincent L.%Chen%vichen@med.umich.edu%1,           Fadi%Hawa%NULL%2,           Fadi%Hawa%NULL%0,           Jeffrey A.%Berinstein%NULL%1,           Chanakyaram A.%Reddy%NULL%1,           Ihab%Kassab%NULL%1,           Kevin D.%Platt%NULL%1,           Chia-Yang%Hsu%NULL%1,           Calen A.%Steiner%NULL%1,           Jeremy%Louissaint%NULL%1,           Naresh T.%Gunaratnam%NULL%1,           Pratima%Sharma%pratimas@med.umich.edu%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%NULL%2,           Christopher J.%Tignanelli%NULL%1,           Nirjhar%Dutta%NULL%1,           Emma%Jones%NULL%1,           Leonardo%Tamaritz%NULL%1,           Jeanne%Clark%NULL%1,           Genevieve%Melton-Meaux%NULL%1,           Michael%Usher%NULL%1,           Sayeed%Ikramuddin%NULL%1,            C.%Bramante%null%1,            C. J.% Tignanelli%null%1,            N.% Dutta%null%1,            E.% Jones%null%1,            L.% Tamariz%null%1,            J. M.% Clark%null%1,            M.% Usher%null%1,            G.% Metlon-Meaux%null%1,            S. % Ikramuddin%null%1,       C.%Bramante%null%1,       C. J.% Tignanelli%null%1,       N.% Dutta%null%1,       E.% Jones%null%1,       L.% Tamariz%null%1,       J. M.% Clark%null%1,       M.% Usher%null%1,       G.% Metlon-Meaux%null%1,       S. % Ikramuddin%null%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%2,           Feng%Gao%NULL%1,           Xiao-Bo%Wang%NULL%2,           Qing-Feng%Sun%NULL%2,           Ke-Hua%Pan%NULL%2,           Ting-Yao%Wang%NULL%2,           Hong-Lei%Ma%NULL%2,           Yong-Ping%Chen%NULL%2,           Wen-Yue%Liu%NULL%1,           Jacob%George%NULL%4,           Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%2,           Li%Zhu%NULL%2,           Li%Zhu%NULL%0,           Jian%Wang%NULL%1,           Leyang%Xue%NULL%1,           Longgen%Liu%NULL%1,           Xuebing%Yan%NULL%1,           Songping%Huang%NULL%1,           Yang%Li%NULL%1,           Xiaomin%Yan%NULL%1,           Biao%Zhang%NULL%1,           Tianmin%Xu%NULL%1,           Chunyang%Li%NULL%1,           Fang%Ji%NULL%1,           Fang%Ming%NULL%1,           Yun%Zhao%NULL%1,           Juan%Cheng%NULL%1,           Yinling%Wang%NULL%1,           Haiyan%Zhao%NULL%1,           Shuqin%Hong%NULL%1,           Kang%Chen%NULL%1,           Xiang‐an%Zhao%NULL%1,           Lei%Zou%NULL%1,           Dawen%Sang%NULL%1,           Huaping%Shao%NULL%1,           Xinying%Guan%NULL%1,           Xiaobing%Chen%NULL%1,           Yuxin%Chen%NULL%1,           Jie%Wei%NULL%1,           Chuanwu%Zhu%zhuchw@126.com%1,           Chao%Wu%dr.wu@nju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Byrne%Christopher D%coreGivesNoEmail%1,     Chen%Yong-Ping%coreGivesNoEmail%1,     Eslam%Mohammed%coreGivesNoEmail%1,     George%Jacob%coreGivesNoEmail%1,     Mantovani%Alessandro%coreGivesNoEmail%1,     Pan%Ke-Hua%coreGivesNoEmail%1,     Sun%Qing-Feng%coreGivesNoEmail%1,     Targher%Giovanni%coreGivesNoEmail%1,     Wang%Xiao-Bo%coreGivesNoEmail%1,     Yan%Hua-Dong%coreGivesNoEmail%1,     Zheng%Kenneth I%coreGivesNoEmail%1,     Zheng%Ming-Hua%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Donghee%Kim%NULL%1,           Nia%Adeniji%NULL%1,           Nyann%Latt%NULL%1,           Sonal%Kumar%NULL%1,           Patricia P.%Bloom%NULL%1,           Elizabeth S.%Aby%NULL%1,           Ponni%Perumalswami%NULL%1,           Marina%Roytman%NULL%1,           Michael%Li%NULL%1,           Alexander S.%Vogel%NULL%1,           Andreea M.%Catana%NULL%1,           Kara%Wegermann%NULL%1,           Rotonya M.%Carr%NULL%1,           Costica%Aloman%NULL%1,           Vincent L.%Chen%NULL%1,           Atoosa%Rabiee%NULL%1,           Brett%Sadowski%NULL%1,           Veronica%Nguyen%NULL%1,           Winston%Dunn%NULL%1,           Kenneth D.%Chavin%NULL%1,           Kali%Zhou%NULL%1,           Blanca%Lizaola-Mayo%NULL%1,           Akshata%Moghe%NULL%1,           José%Debes%NULL%1,           Tzu-Hao%Lee%NULL%1,           Andrea D.%Branch%NULL%1,           Kathleen%Viveiros%NULL%0,           Walter%Chan%NULL%1,           David M.%Chascsa%NULL%1,           Paul%Kwo%NULL%1,           Renumathy%Dhanasekaran%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Jie%Zhou%NULL%1,           Kenneth I.%Zheng%NULL%3,           Xiao-Bo%Wang%NULL%0,           Hua-Dong%Yan%NULL%1,           Qing-Feng%Sun%NULL%0,           Ke-Hua%Pan%NULL%0,           Ting-Yao%Wang%NULL%0,           Hong-Lei%Ma%NULL%0,           Yong-Ping%Chen%NULL%0,           Jacob%George%NULL%0,           Ming-Hua%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu‐Jie%Zhou%NULL%1,           Kenneth I.%Zheng%NULL%0,           Kenneth I.%Zheng%NULL%0,           Xiao‐Bo%Wang%NULL%4,           Xiao‐Bo%Wang%NULL%0,           Qing‐Feng%Sun%NULL%2,           Ke‐Hua%Pan%NULL%2,           Ting‐Yao%Wang%NULL%2,           Hong‐Lei%Ma%NULL%1,           Yong‐Ping%Chen%NULL%2,           Jacob%George%jacob.george@sydney.edu.au%0,           Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Feng%Gao%NULL%1,           Kenneth I%Zheng%NULL%1,           Xiao‐Bo%Wang%NULL%0,           Xiao‐Bo%Wang%NULL%0,           Hua‐Dong%Yan%NULL%1,           Qing‐Feng%Sun%NULL%0,           Ke‐Hua%Pan%NULL%0,           Ting‐Yao%Wang%NULL%0,           Yong‐Ping%Chen%NULL%0,           Jacob%George%jacob.george@sydney.edu.au%0,           Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ivan%Lopez-Mendez%NULL%1,           Jorge%Aquino-Matus%NULL%1,           Sofia Murua-Beltrán%Gall%NULL%1,           Jose D.%Prieto-Nava%NULL%1,           Eva%Juarez-Hernandez%NULL%1,           Misael%Uribe%NULL%1,           Graciela%Castro-Narro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roberta%Forlano%NULL%1,           Benjamin H.%Mullish%NULL%2,           Benjamin H.%Mullish%NULL%0,           Sujit K.%Mukherjee%NULL%1,           Rooshi%Nathwani%NULL%1,           Cristopher%Harlow%NULL%1,           Peter%Crook%NULL%1,           Rebekah%Judge%NULL%1,           Anet%Soubieres%NULL%2,           Anet%Soubieres%NULL%0,           Paul%Middleton%NULL%1,           Anna%Daunt%NULL%1,           Pablo%Perez-Guzman%NULL%1,           Nowlan%Selvapatt%NULL%1,           Maud%Lemoine%NULL%1,           Ameet%Dhar%NULL%1,           Mark R.%Thursz%NULL%1,           Shevanthi%Nayagam%NULL%1,           Pinelopi%Manousou%NULL%1,           Wan-Long%Chuang%NULL%2,           Wan-Long%Chuang%NULL%0,           NULL%NULL%NULL%3,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mahmud%Mahamid%NULL%1,           Wiliam%Nseir%NULL%1,           Tawfik%Khoury%NULL%1,           Baker%Mahamid%NULL%1,           Adi%Nubania%NULL%1,           Kamal%Sub-Laban%NULL%1,           Joel%Schifter%NULL%1,           Amir%Mari%NULL%1,           Wisam%Sbeit%NULL%1,           Eran%Goldin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nikroo%Hashemi%NULL%1,            Kathleen%Viveiros%NULL%2,            Walker D.%Redd%NULL%1,            Joyce C.%Zhou%NULL%1,            Thomas R.%McCarty%NULL%1,            Ahmad N.%Bazarbashi%NULL%1,            Kelly E.%Hathorn%NULL%1,            Danny%Wong%NULL%1,            Cheikh%Njie%NULL%1,            Lin%Shen%NULL%1,            Walter W.%Chan%wwchan@bwh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Vincent L.%Chen%vichen@med.umich.edu%1,            Fadi%Hawa%NULL%2,            Fadi%Hawa%NULL%0,            Jeffrey A.%Berinstein%NULL%1,            Chanakyaram A.%Reddy%NULL%1,            Ihab%Kassab%NULL%1,            Kevin D.%Platt%NULL%1,            Chia-Yang%Hsu%NULL%1,            Calen A.%Steiner%NULL%1,            Jeremy%Louissaint%NULL%1,            Naresh T.%Gunaratnam%NULL%1,            Pratima%Sharma%pratimas@med.umich.edu%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%NULL%2,            Christopher J.%Tignanelli%NULL%1,            Nirjhar%Dutta%NULL%1,            Emma%Jones%NULL%1,            Leonardo%Tamaritz%NULL%1,            Jeanne%Clark%NULL%1,            Genevieve%Melton-Meaux%NULL%1,            Michael%Usher%NULL%1,            Sayeed%Ikramuddin%NULL%1,             C.%Bramante%null%1,             C. J.% Tignanelli%null%1,             N.% Dutta%null%1,             E.% Jones%null%1,             L.% Tamariz%null%1,             J. M.% Clark%null%1,             M.% Usher%null%1,             G.% Metlon-Meaux%null%1,             S. % Ikramuddin%null%1,        C.%Bramante%null%1,        C. J.% Tignanelli%null%1,        N.% Dutta%null%1,        E.% Jones%null%1,        L.% Tamariz%null%1,        J. M.% Clark%null%1,        M.% Usher%null%1,        G.% Metlon-Meaux%null%1,        S. % Ikramuddin%null%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%2,            Feng%Gao%NULL%1,            Xiao-Bo%Wang%NULL%2,            Qing-Feng%Sun%NULL%2,            Ke-Hua%Pan%NULL%2,            Ting-Yao%Wang%NULL%2,            Hong-Lei%Ma%NULL%2,            Yong-Ping%Chen%NULL%2,            Wen-Yue%Liu%NULL%1,            Jacob%George%NULL%4,            Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%2,            Li%Zhu%NULL%2,            Li%Zhu%NULL%0,            Jian%Wang%NULL%1,            Leyang%Xue%NULL%1,            Longgen%Liu%NULL%1,            Xuebing%Yan%NULL%1,            Songping%Huang%NULL%1,            Yang%Li%NULL%1,            Xiaomin%Yan%NULL%1,            Biao%Zhang%NULL%1,            Tianmin%Xu%NULL%1,            Chunyang%Li%NULL%1,            Fang%Ji%NULL%1,            Fang%Ming%NULL%1,            Yun%Zhao%NULL%1,            Juan%Cheng%NULL%1,            Yinling%Wang%NULL%1,            Haiyan%Zhao%NULL%1,            Shuqin%Hong%NULL%1,            Kang%Chen%NULL%1,            Xiang‐an%Zhao%NULL%1,            Lei%Zou%NULL%1,            Dawen%Sang%NULL%1,            Huaping%Shao%NULL%1,            Xinying%Guan%NULL%1,            Xiaobing%Chen%NULL%1,            Yuxin%Chen%NULL%1,            Jie%Wei%NULL%1,            Chuanwu%Zhu%zhuchw@126.com%1,            Chao%Wu%dr.wu@nju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Byrne%Christopher D%coreGivesNoEmail%1,      Chen%Yong-Ping%coreGivesNoEmail%1,      Eslam%Mohammed%coreGivesNoEmail%1,      George%Jacob%coreGivesNoEmail%1,      Mantovani%Alessandro%coreGivesNoEmail%1,      Pan%Ke-Hua%coreGivesNoEmail%1,      Sun%Qing-Feng%coreGivesNoEmail%1,      Targher%Giovanni%coreGivesNoEmail%1,      Wang%Xiao-Bo%coreGivesNoEmail%1,      Yan%Hua-Dong%coreGivesNoEmail%1,      Zheng%Kenneth I%coreGivesNoEmail%1,      Zheng%Ming-Hua%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Donghee%Kim%NULL%1,            Nia%Adeniji%NULL%1,            Nyann%Latt%NULL%1,            Sonal%Kumar%NULL%1,            Patricia P.%Bloom%NULL%1,            Elizabeth S.%Aby%NULL%1,            Ponni%Perumalswami%NULL%1,            Marina%Roytman%NULL%1,            Michael%Li%NULL%1,            Alexander S.%Vogel%NULL%1,            Andreea M.%Catana%NULL%1,            Kara%Wegermann%NULL%1,            Rotonya M.%Carr%NULL%1,            Costica%Aloman%NULL%1,            Vincent L.%Chen%NULL%1,            Atoosa%Rabiee%NULL%1,            Brett%Sadowski%NULL%1,            Veronica%Nguyen%NULL%1,            Winston%Dunn%NULL%1,            Kenneth D.%Chavin%NULL%1,            Kali%Zhou%NULL%1,            Blanca%Lizaola-Mayo%NULL%1,            Akshata%Moghe%NULL%1,            José%Debes%NULL%1,            Tzu-Hao%Lee%NULL%1,            Andrea D.%Branch%NULL%1,            Kathleen%Viveiros%NULL%0,            Walter%Chan%NULL%1,            David M.%Chascsa%NULL%1,            Paul%Kwo%NULL%1,            Renumathy%Dhanasekaran%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Jie%Zhou%NULL%1,            Kenneth I.%Zheng%NULL%3,            Xiao-Bo%Wang%NULL%0,            Hua-Dong%Yan%NULL%1,            Qing-Feng%Sun%NULL%0,            Ke-Hua%Pan%NULL%0,            Ting-Yao%Wang%NULL%0,            Hong-Lei%Ma%NULL%0,            Yong-Ping%Chen%NULL%0,            Jacob%George%NULL%0,            Ming-Hua%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu‐Jie%Zhou%NULL%1,            Kenneth I.%Zheng%NULL%0,            Kenneth I.%Zheng%NULL%0,            Xiao‐Bo%Wang%NULL%4,            Xiao‐Bo%Wang%NULL%0,            Qing‐Feng%Sun%NULL%2,            Ke‐Hua%Pan%NULL%2,            Ting‐Yao%Wang%NULL%2,            Hong‐Lei%Ma%NULL%1,            Yong‐Ping%Chen%NULL%2,            Jacob%George%jacob.george@sydney.edu.au%0,            Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Feng%Gao%NULL%1,            Kenneth I%Zheng%NULL%1,            Xiao‐Bo%Wang%NULL%0,            Xiao‐Bo%Wang%NULL%0,            Hua‐Dong%Yan%NULL%1,            Qing‐Feng%Sun%NULL%0,            Ke‐Hua%Pan%NULL%0,            Ting‐Yao%Wang%NULL%0,            Yong‐Ping%Chen%NULL%0,            Jacob%George%jacob.george@sydney.edu.au%0,            Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ivan%Lopez-Mendez%NULL%1,            Jorge%Aquino-Matus%NULL%1,            Sofia Murua-Beltrán%Gall%NULL%1,            Jose D.%Prieto-Nava%NULL%1,            Eva%Juarez-Hernandez%NULL%1,            Misael%Uribe%NULL%1,            Graciela%Castro-Narro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roberta%Forlano%NULL%1,            Benjamin H.%Mullish%NULL%2,            Benjamin H.%Mullish%NULL%0,            Sujit K.%Mukherjee%NULL%1,            Rooshi%Nathwani%NULL%1,            Cristopher%Harlow%NULL%1,            Peter%Crook%NULL%1,            Rebekah%Judge%NULL%1,            Anet%Soubieres%NULL%2,            Anet%Soubieres%NULL%0,            Paul%Middleton%NULL%1,            Anna%Daunt%NULL%1,            Pablo%Perez-Guzman%NULL%1,            Nowlan%Selvapatt%NULL%1,            Maud%Lemoine%NULL%1,            Ameet%Dhar%NULL%1,            Mark R.%Thursz%NULL%1,            Shevanthi%Nayagam%NULL%1,            Pinelopi%Manousou%NULL%1,            Wan-Long%Chuang%NULL%2,            Wan-Long%Chuang%NULL%0,            NULL%NULL%NULL%3,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mahmud%Mahamid%NULL%1,            Wiliam%Nseir%NULL%1,            Tawfik%Khoury%NULL%1,            Baker%Mahamid%NULL%1,            Adi%Nubania%NULL%1,            Kamal%Sub-Laban%NULL%1,            Joel%Schifter%NULL%1,            Amir%Mari%NULL%1,            Wisam%Sbeit%NULL%1,            Eran%Goldin%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +1182,7 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
@@ -1133,7 +1211,7 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -1162,7 +1240,7 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1191,7 +1269,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1220,7 +1298,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
@@ -1249,7 +1327,7 @@
         <v>158</v>
       </c>
       <c r="E7" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1278,7 +1356,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -1307,7 +1385,7 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
@@ -1336,7 +1414,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -1365,7 +1443,7 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1394,7 +1472,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1423,7 +1501,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -1452,7 +1530,7 @@
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="F14" t="s">
         <v>85</v>

--- a/Covid_19_Dataset_and_References/References/9.xlsx
+++ b/Covid_19_Dataset_and_References/References/9.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="259">
   <si>
     <t>Doi</t>
   </si>
@@ -850,6 +850,84 @@
   </si>
   <si>
     <t>[Mahmud%Mahamid%NULL%1,            Wiliam%Nseir%NULL%1,            Tawfik%Khoury%NULL%1,            Baker%Mahamid%NULL%1,            Adi%Nubania%NULL%1,            Kamal%Sub-Laban%NULL%1,            Joel%Schifter%NULL%1,            Amir%Mari%NULL%1,            Wisam%Sbeit%NULL%1,            Eran%Goldin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nikroo%Hashemi%NULL%1,             Kathleen%Viveiros%NULL%2,             Walker D.%Redd%NULL%1,             Joyce C.%Zhou%NULL%1,             Thomas R.%McCarty%NULL%1,             Ahmad N.%Bazarbashi%NULL%1,             Kelly E.%Hathorn%NULL%1,             Danny%Wong%NULL%1,             Cheikh%Njie%NULL%1,             Lin%Shen%NULL%1,             Walter W.%Chan%wwchan@bwh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Vincent L.%Chen%vichen@med.umich.edu%1,             Fadi%Hawa%NULL%2,             Fadi%Hawa%NULL%0,             Jeffrey A.%Berinstein%NULL%1,             Chanakyaram A.%Reddy%NULL%1,             Ihab%Kassab%NULL%1,             Kevin D.%Platt%NULL%1,             Chia-Yang%Hsu%NULL%1,             Calen A.%Steiner%NULL%1,             Jeremy%Louissaint%NULL%1,             Naresh T.%Gunaratnam%NULL%1,             Pratima%Sharma%pratimas@med.umich.edu%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%NULL%2,             Christopher J.%Tignanelli%NULL%1,             Nirjhar%Dutta%NULL%1,             Emma%Jones%NULL%1,             Leonardo%Tamaritz%NULL%1,             Jeanne%Clark%NULL%1,             Genevieve%Melton-Meaux%NULL%1,             Michael%Usher%NULL%1,             Sayeed%Ikramuddin%NULL%1,              C.%Bramante%null%1,              C. J.% Tignanelli%null%1,              N.% Dutta%null%1,              E.% Jones%null%1,              L.% Tamariz%null%1,              J. M.% Clark%null%1,              M.% Usher%null%1,              G.% Metlon-Meaux%null%1,              S. % Ikramuddin%null%1,         C.%Bramante%null%1,         C. J.% Tignanelli%null%1,         N.% Dutta%null%1,         E.% Jones%null%1,         L.% Tamariz%null%1,         J. M.% Clark%null%1,         M.% Usher%null%1,         G.% Metlon-Meaux%null%1,         S. % Ikramuddin%null%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%2,             Feng%Gao%NULL%1,             Xiao-Bo%Wang%NULL%2,             Qing-Feng%Sun%NULL%2,             Ke-Hua%Pan%NULL%2,             Ting-Yao%Wang%NULL%2,             Hong-Lei%Ma%NULL%2,             Yong-Ping%Chen%NULL%2,             Wen-Yue%Liu%NULL%1,             Jacob%George%NULL%4,             Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%2,             Li%Zhu%NULL%2,             Li%Zhu%NULL%0,             Jian%Wang%NULL%1,             Leyang%Xue%NULL%1,             Longgen%Liu%NULL%1,             Xuebing%Yan%NULL%1,             Songping%Huang%NULL%1,             Yang%Li%NULL%1,             Xiaomin%Yan%NULL%1,             Biao%Zhang%NULL%1,             Tianmin%Xu%NULL%1,             Chunyang%Li%NULL%1,             Fang%Ji%NULL%1,             Fang%Ming%NULL%1,             Yun%Zhao%NULL%1,             Juan%Cheng%NULL%1,             Yinling%Wang%NULL%1,             Haiyan%Zhao%NULL%1,             Shuqin%Hong%NULL%1,             Kang%Chen%NULL%1,             Xiang‐an%Zhao%NULL%1,             Lei%Zou%NULL%1,             Dawen%Sang%NULL%1,             Huaping%Shao%NULL%1,             Xinying%Guan%NULL%1,             Xiaobing%Chen%NULL%1,             Yuxin%Chen%NULL%1,             Jie%Wei%NULL%1,             Chuanwu%Zhu%zhuchw@126.com%1,             Chao%Wu%dr.wu@nju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Byrne%Christopher D%coreGivesNoEmail%1,       Chen%Yong-Ping%coreGivesNoEmail%1,       Eslam%Mohammed%coreGivesNoEmail%1,       George%Jacob%coreGivesNoEmail%1,       Mantovani%Alessandro%coreGivesNoEmail%1,       Pan%Ke-Hua%coreGivesNoEmail%1,       Sun%Qing-Feng%coreGivesNoEmail%1,       Targher%Giovanni%coreGivesNoEmail%1,       Wang%Xiao-Bo%coreGivesNoEmail%1,       Yan%Hua-Dong%coreGivesNoEmail%1,       Zheng%Kenneth I%coreGivesNoEmail%1,       Zheng%Ming-Hua%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Donghee%Kim%NULL%1,             Nia%Adeniji%NULL%1,             Nyann%Latt%NULL%1,             Sonal%Kumar%NULL%1,             Patricia P.%Bloom%NULL%1,             Elizabeth S.%Aby%NULL%1,             Ponni%Perumalswami%NULL%1,             Marina%Roytman%NULL%1,             Michael%Li%NULL%1,             Alexander S.%Vogel%NULL%1,             Andreea M.%Catana%NULL%1,             Kara%Wegermann%NULL%1,             Rotonya M.%Carr%NULL%1,             Costica%Aloman%NULL%1,             Vincent L.%Chen%NULL%1,             Atoosa%Rabiee%NULL%1,             Brett%Sadowski%NULL%1,             Veronica%Nguyen%NULL%1,             Winston%Dunn%NULL%1,             Kenneth D.%Chavin%NULL%1,             Kali%Zhou%NULL%1,             Blanca%Lizaola-Mayo%NULL%1,             Akshata%Moghe%NULL%1,             José%Debes%NULL%1,             Tzu-Hao%Lee%NULL%1,             Andrea D.%Branch%NULL%1,             Kathleen%Viveiros%NULL%0,             Walter%Chan%NULL%1,             David M.%Chascsa%NULL%1,             Paul%Kwo%NULL%1,             Renumathy%Dhanasekaran%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Jie%Zhou%NULL%1,             Kenneth I.%Zheng%NULL%3,             Xiao-Bo%Wang%NULL%0,             Hua-Dong%Yan%NULL%1,             Qing-Feng%Sun%NULL%0,             Ke-Hua%Pan%NULL%0,             Ting-Yao%Wang%NULL%0,             Hong-Lei%Ma%NULL%0,             Yong-Ping%Chen%NULL%0,             Jacob%George%NULL%0,             Ming-Hua%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu‐Jie%Zhou%NULL%1,             Kenneth I.%Zheng%NULL%0,             Kenneth I.%Zheng%NULL%0,             Xiao‐Bo%Wang%NULL%4,             Xiao‐Bo%Wang%NULL%0,             Qing‐Feng%Sun%NULL%2,             Ke‐Hua%Pan%NULL%2,             Ting‐Yao%Wang%NULL%2,             Hong‐Lei%Ma%NULL%1,             Yong‐Ping%Chen%NULL%2,             Jacob%George%jacob.george@sydney.edu.au%0,             Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Feng%Gao%NULL%1,             Kenneth I%Zheng%NULL%1,             Xiao‐Bo%Wang%NULL%0,             Xiao‐Bo%Wang%NULL%0,             Hua‐Dong%Yan%NULL%1,             Qing‐Feng%Sun%NULL%0,             Ke‐Hua%Pan%NULL%0,             Ting‐Yao%Wang%NULL%0,             Yong‐Ping%Chen%NULL%0,             Jacob%George%jacob.george@sydney.edu.au%0,             Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ivan%Lopez-Mendez%NULL%1,             Jorge%Aquino-Matus%NULL%1,             Sofia Murua-Beltrán%Gall%NULL%1,             Jose D.%Prieto-Nava%NULL%1,             Eva%Juarez-Hernandez%NULL%1,             Misael%Uribe%NULL%1,             Graciela%Castro-Narro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roberta%Forlano%NULL%1,             Benjamin H.%Mullish%NULL%2,             Benjamin H.%Mullish%NULL%0,             Sujit K.%Mukherjee%NULL%1,             Rooshi%Nathwani%NULL%1,             Cristopher%Harlow%NULL%1,             Peter%Crook%NULL%1,             Rebekah%Judge%NULL%1,             Anet%Soubieres%NULL%2,             Anet%Soubieres%NULL%0,             Paul%Middleton%NULL%1,             Anna%Daunt%NULL%1,             Pablo%Perez-Guzman%NULL%1,             Nowlan%Selvapatt%NULL%1,             Maud%Lemoine%NULL%1,             Ameet%Dhar%NULL%1,             Mark R.%Thursz%NULL%1,             Shevanthi%Nayagam%NULL%1,             Pinelopi%Manousou%NULL%1,             Wan-Long%Chuang%NULL%2,             Wan-Long%Chuang%NULL%0,             NULL%NULL%NULL%3,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mahmud%Mahamid%NULL%1,             Wiliam%Nseir%NULL%1,             Tawfik%Khoury%NULL%1,             Baker%Mahamid%NULL%1,             Adi%Nubania%NULL%1,             Kamal%Sub-Laban%NULL%1,             Joel%Schifter%NULL%1,             Amir%Mari%NULL%1,             Wisam%Sbeit%NULL%1,             Eran%Goldin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nikroo%Hashemi%NULL%1,              Kathleen%Viveiros%NULL%2,              Walker D.%Redd%NULL%1,              Joyce C.%Zhou%NULL%1,              Thomas R.%McCarty%NULL%1,              Ahmad N.%Bazarbashi%NULL%1,              Kelly E.%Hathorn%NULL%1,              Danny%Wong%NULL%1,              Cheikh%Njie%NULL%1,              Lin%Shen%NULL%1,              Walter W.%Chan%wwchan@bwh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Vincent L.%Chen%vichen@med.umich.edu%1,              Fadi%Hawa%NULL%2,              Fadi%Hawa%NULL%0,              Jeffrey A.%Berinstein%NULL%1,              Chanakyaram A.%Reddy%NULL%1,              Ihab%Kassab%NULL%1,              Kevin D.%Platt%NULL%1,              Chia-Yang%Hsu%NULL%1,              Calen A.%Steiner%NULL%1,              Jeremy%Louissaint%NULL%1,              Naresh T.%Gunaratnam%NULL%1,              Pratima%Sharma%pratimas@med.umich.edu%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%NULL%2,              Christopher J.%Tignanelli%NULL%1,              Nirjhar%Dutta%NULL%1,              Emma%Jones%NULL%1,              Leonardo%Tamaritz%NULL%1,              Jeanne%Clark%NULL%1,              Genevieve%Melton-Meaux%NULL%1,              Michael%Usher%NULL%1,              Sayeed%Ikramuddin%NULL%1,               C.%Bramante%null%1,               C. J.% Tignanelli%null%1,               N.% Dutta%null%1,               E.% Jones%null%1,               L.% Tamariz%null%1,               J. M.% Clark%null%1,               M.% Usher%null%1,               G.% Metlon-Meaux%null%1,               S. % Ikramuddin%null%1,          C.%Bramante%null%1,          C. J.% Tignanelli%null%1,          N.% Dutta%null%1,          E.% Jones%null%1,          L.% Tamariz%null%1,          J. M.% Clark%null%1,          M.% Usher%null%1,          G.% Metlon-Meaux%null%1,          S. % Ikramuddin%null%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%2,              Feng%Gao%NULL%1,              Xiao-Bo%Wang%NULL%2,              Qing-Feng%Sun%NULL%2,              Ke-Hua%Pan%NULL%2,              Ting-Yao%Wang%NULL%2,              Hong-Lei%Ma%NULL%2,              Yong-Ping%Chen%NULL%2,              Wen-Yue%Liu%NULL%1,              Jacob%George%NULL%4,              Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%2,              Li%Zhu%NULL%2,              Li%Zhu%NULL%0,              Jian%Wang%NULL%1,              Leyang%Xue%NULL%1,              Longgen%Liu%NULL%1,              Xuebing%Yan%NULL%1,              Songping%Huang%NULL%1,              Yang%Li%NULL%1,              Xiaomin%Yan%NULL%1,              Biao%Zhang%NULL%1,              Tianmin%Xu%NULL%1,              Chunyang%Li%NULL%1,              Fang%Ji%NULL%1,              Fang%Ming%NULL%1,              Yun%Zhao%NULL%1,              Juan%Cheng%NULL%1,              Yinling%Wang%NULL%1,              Haiyan%Zhao%NULL%1,              Shuqin%Hong%NULL%1,              Kang%Chen%NULL%1,              Xiang‐an%Zhao%NULL%1,              Lei%Zou%NULL%1,              Dawen%Sang%NULL%1,              Huaping%Shao%NULL%1,              Xinying%Guan%NULL%1,              Xiaobing%Chen%NULL%1,              Yuxin%Chen%NULL%1,              Jie%Wei%NULL%1,              Chuanwu%Zhu%zhuchw@126.com%1,              Chao%Wu%dr.wu@nju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Byrne%Christopher D%coreGivesNoEmail%1,        Chen%Yong-Ping%coreGivesNoEmail%1,        Eslam%Mohammed%coreGivesNoEmail%1,        George%Jacob%coreGivesNoEmail%1,        Mantovani%Alessandro%coreGivesNoEmail%1,        Pan%Ke-Hua%coreGivesNoEmail%1,        Sun%Qing-Feng%coreGivesNoEmail%1,        Targher%Giovanni%coreGivesNoEmail%1,        Wang%Xiao-Bo%coreGivesNoEmail%1,        Yan%Hua-Dong%coreGivesNoEmail%1,        Zheng%Kenneth I%coreGivesNoEmail%1,        Zheng%Ming-Hua%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Donghee%Kim%NULL%1,              Nia%Adeniji%NULL%1,              Nyann%Latt%NULL%1,              Sonal%Kumar%NULL%1,              Patricia P.%Bloom%NULL%1,              Elizabeth S.%Aby%NULL%1,              Ponni%Perumalswami%NULL%1,              Marina%Roytman%NULL%1,              Michael%Li%NULL%1,              Alexander S.%Vogel%NULL%1,              Andreea M.%Catana%NULL%1,              Kara%Wegermann%NULL%1,              Rotonya M.%Carr%NULL%1,              Costica%Aloman%NULL%1,              Vincent L.%Chen%NULL%1,              Atoosa%Rabiee%NULL%1,              Brett%Sadowski%NULL%1,              Veronica%Nguyen%NULL%1,              Winston%Dunn%NULL%1,              Kenneth D.%Chavin%NULL%1,              Kali%Zhou%NULL%1,              Blanca%Lizaola-Mayo%NULL%1,              Akshata%Moghe%NULL%1,              José%Debes%NULL%1,              Tzu-Hao%Lee%NULL%1,              Andrea D.%Branch%NULL%1,              Kathleen%Viveiros%NULL%0,              Walter%Chan%NULL%1,              David M.%Chascsa%NULL%1,              Paul%Kwo%NULL%1,              Renumathy%Dhanasekaran%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Jie%Zhou%NULL%1,              Kenneth I.%Zheng%NULL%3,              Xiao-Bo%Wang%NULL%0,              Hua-Dong%Yan%NULL%1,              Qing-Feng%Sun%NULL%0,              Ke-Hua%Pan%NULL%0,              Ting-Yao%Wang%NULL%0,              Hong-Lei%Ma%NULL%0,              Yong-Ping%Chen%NULL%0,              Jacob%George%NULL%0,              Ming-Hua%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu‐Jie%Zhou%NULL%1,              Kenneth I.%Zheng%NULL%0,              Kenneth I.%Zheng%NULL%0,              Xiao‐Bo%Wang%NULL%4,              Xiao‐Bo%Wang%NULL%0,              Qing‐Feng%Sun%NULL%2,              Ke‐Hua%Pan%NULL%2,              Ting‐Yao%Wang%NULL%2,              Hong‐Lei%Ma%NULL%1,              Yong‐Ping%Chen%NULL%2,              Jacob%George%jacob.george@sydney.edu.au%0,              Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Feng%Gao%NULL%1,              Kenneth I%Zheng%NULL%1,              Xiao‐Bo%Wang%NULL%0,              Xiao‐Bo%Wang%NULL%0,              Hua‐Dong%Yan%NULL%1,              Qing‐Feng%Sun%NULL%0,              Ke‐Hua%Pan%NULL%0,              Ting‐Yao%Wang%NULL%0,              Yong‐Ping%Chen%NULL%0,              Jacob%George%jacob.george@sydney.edu.au%0,              Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ivan%Lopez-Mendez%NULL%1,              Jorge%Aquino-Matus%NULL%1,              Sofia Murua-Beltrán%Gall%NULL%1,              Jose D.%Prieto-Nava%NULL%1,              Eva%Juarez-Hernandez%NULL%1,              Misael%Uribe%NULL%1,              Graciela%Castro-Narro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roberta%Forlano%NULL%1,              Benjamin H.%Mullish%NULL%2,              Benjamin H.%Mullish%NULL%0,              Sujit K.%Mukherjee%NULL%1,              Rooshi%Nathwani%NULL%1,              Cristopher%Harlow%NULL%1,              Peter%Crook%NULL%1,              Rebekah%Judge%NULL%1,              Anet%Soubieres%NULL%2,              Anet%Soubieres%NULL%0,              Paul%Middleton%NULL%1,              Anna%Daunt%NULL%1,              Pablo%Perez-Guzman%NULL%1,              Nowlan%Selvapatt%NULL%1,              Maud%Lemoine%NULL%1,              Ameet%Dhar%NULL%1,              Mark R.%Thursz%NULL%1,              Shevanthi%Nayagam%NULL%1,              Pinelopi%Manousou%NULL%1,              Wan-Long%Chuang%NULL%2,              Wan-Long%Chuang%NULL%0,              NULL%NULL%NULL%3,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mahmud%Mahamid%NULL%1,              Wiliam%Nseir%NULL%1,              Tawfik%Khoury%NULL%1,              Baker%Mahamid%NULL%1,              Adi%Nubania%NULL%1,              Kamal%Sub-Laban%NULL%1,              Joel%Schifter%NULL%1,              Amir%Mari%NULL%1,              Wisam%Sbeit%NULL%1,              Eran%Goldin%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1260,7 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
@@ -1211,7 +1289,7 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -1240,7 +1318,7 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1269,7 +1347,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1298,7 +1376,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
@@ -1327,7 +1405,7 @@
         <v>158</v>
       </c>
       <c r="E7" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1356,7 +1434,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -1385,7 +1463,7 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
@@ -1414,7 +1492,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -1443,7 +1521,7 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1472,7 +1550,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1501,7 +1579,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -1530,7 +1608,7 @@
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="F14" t="s">
         <v>85</v>

--- a/Covid_19_Dataset_and_References/References/9.xlsx
+++ b/Covid_19_Dataset_and_References/References/9.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="286">
   <si>
     <t>Doi</t>
   </si>
@@ -928,6 +928,104 @@
   </si>
   <si>
     <t>[Mahmud%Mahamid%NULL%1,              Wiliam%Nseir%NULL%1,              Tawfik%Khoury%NULL%1,              Baker%Mahamid%NULL%1,              Adi%Nubania%NULL%1,              Kamal%Sub-Laban%NULL%1,              Joel%Schifter%NULL%1,              Amir%Mari%NULL%1,              Wisam%Sbeit%NULL%1,              Eran%Goldin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nikroo%Hashemi%NULL%1,               Kathleen%Viveiros%NULL%2,               Walker D.%Redd%NULL%1,               Joyce C.%Zhou%NULL%1,               Thomas R.%McCarty%NULL%1,               Ahmad N.%Bazarbashi%NULL%1,               Kelly E.%Hathorn%NULL%1,               Danny%Wong%NULL%1,               Cheikh%Njie%NULL%1,               Lin%Shen%NULL%1,               Walter W.%Chan%wwchan@bwh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Coronavirus disease-2019 (COVID-19) is a global pandemic.
+ Obesity has been associated with increased disease severity in COVID-19, and obesity is strongly associated with hepatic steatosis (HS).
+ However, how HS alters the natural history of COVID-19 is not well characterized, especially in Western populations.
+Aims
+To characterize the impact of HS on disease severity and liver injury in COVID-19.
+Methods
+We examined the association between HS and disease severity in a single-center cohort study of hospitalized COVID-19 patients at Michigan Medicine.
+ HS was defined by either hepatic steatosis index &amp;gt; 36 (for Asians) or &amp;gt; 39 (for non-Asians) or liver imaging demonstrating steatosis &amp;gt; 30 days before onset of COVID-19. The primary predictor was HS.
+ The primary outcomes were severity of cardiopulmonary disease, transaminitis, jaundice, and portal hypertensive complications.
+Results
+In a cohort of 342 patients, metabolic disease was highly prevalent including nearly 90% overweight.
+ HS was associated with increased transaminitis and need for intubation, dialysis, and vasopressors.
+ There was no association between HS and jaundice or portal hypertensive complications.
+ In a sensitivity analysis including only patients with liver imaging &amp;gt; 30 days before onset of COVID-19, imaging evidence of hepatic steatosis remained associated with disease severity and risk of transaminitis.
+Conclusions
+HS was associated with increased disease severity and transaminitis in COVID-19. HS may be relevant in predicting risk of complications related to COVID-19.
+</t>
+  </si>
+  <si>
+    <t>[Vincent L.%Chen%vichen@med.umich.edu%1,               Fadi%Hawa%NULL%2,               Fadi%Hawa%NULL%0,               Jeffrey A.%Berinstein%NULL%1,               Chanakyaram A.%Reddy%NULL%1,               Ihab%Kassab%NULL%1,               Kevin D.%Platt%NULL%1,               Chia-Yang%Hsu%NULL%1,               Calen A.%Steiner%NULL%1,               Jeremy%Louissaint%NULL%1,               Naresh T.%Gunaratnam%NULL%1,               Pratima%Sharma%pratimas@med.umich.edu%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%NULL%2,               Christopher J.%Tignanelli%NULL%1,               Nirjhar%Dutta%NULL%1,               Emma%Jones%NULL%1,               Leonardo%Tamaritz%NULL%1,               Jeanne%Clark%NULL%1,               Genevieve%Melton-Meaux%NULL%1,               Michael%Usher%NULL%1,               Sayeed%Ikramuddin%NULL%1,                C.%Bramante%null%1,                C. J.% Tignanelli%null%1,                N.% Dutta%null%1,                E.% Jones%null%1,                L.% Tamariz%null%1,                J. M.% Clark%null%1,                M.% Usher%null%1,                G.% Metlon-Meaux%null%1,                S. % Ikramuddin%null%1,           C.%Bramante%null%1,           C. J.% Tignanelli%null%1,           N.% Dutta%null%1,           E.% Jones%null%1,           L.% Tamariz%null%1,           J. M.% Clark%null%1,           M.% Usher%null%1,           G.% Metlon-Meaux%null%1,           S. % Ikramuddin%null%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%2,               Feng%Gao%NULL%1,               Xiao-Bo%Wang%NULL%2,               Qing-Feng%Sun%NULL%2,               Ke-Hua%Pan%NULL%2,               Ting-Yao%Wang%NULL%2,               Hong-Lei%Ma%NULL%2,               Yong-Ping%Chen%NULL%2,               Wen-Yue%Liu%NULL%1,               Jacob%George%NULL%4,               Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%2,               Li%Zhu%NULL%2,               Li%Zhu%NULL%0,               Jian%Wang%NULL%1,               Leyang%Xue%NULL%1,               Longgen%Liu%NULL%1,               Xuebing%Yan%NULL%1,               Songping%Huang%NULL%1,               Yang%Li%NULL%1,               Xiaomin%Yan%NULL%1,               Biao%Zhang%NULL%1,               Tianmin%Xu%NULL%1,               Chunyang%Li%NULL%1,               Fang%Ji%NULL%1,               Fang%Ming%NULL%1,               Yun%Zhao%NULL%1,               Juan%Cheng%NULL%1,               Yinling%Wang%NULL%1,               Haiyan%Zhao%NULL%1,               Shuqin%Hong%NULL%1,               Kang%Chen%NULL%1,               Xiang‐an%Zhao%NULL%1,               Lei%Zou%NULL%1,               Dawen%Sang%NULL%1,               Huaping%Shao%NULL%1,               Xinying%Guan%NULL%1,               Xiaobing%Chen%NULL%1,               Yuxin%Chen%NULL%1,               Jie%Wei%NULL%1,               Chuanwu%Zhu%zhuchw@126.com%1,               Chao%Wu%dr.wu@nju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Byrne%Christopher D%coreGivesNoEmail%1,         Chen%Yong-Ping%coreGivesNoEmail%1,         Eslam%Mohammed%coreGivesNoEmail%1,         George%Jacob%coreGivesNoEmail%1,         Mantovani%Alessandro%coreGivesNoEmail%1,         Pan%Ke-Hua%coreGivesNoEmail%1,         Sun%Qing-Feng%coreGivesNoEmail%1,         Targher%Giovanni%coreGivesNoEmail%1,         Wang%Xiao-Bo%coreGivesNoEmail%1,         Yan%Hua-Dong%coreGivesNoEmail%1,         Zheng%Kenneth I%coreGivesNoEmail%1,         Zheng%Ming-Hua%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Donghee%Kim%NULL%1,               Nia%Adeniji%NULL%1,               Nyann%Latt%NULL%1,               Sonal%Kumar%NULL%1,               Patricia P.%Bloom%NULL%1,               Elizabeth S.%Aby%NULL%1,               Ponni%Perumalswami%NULL%1,               Marina%Roytman%NULL%1,               Michael%Li%NULL%1,               Alexander S.%Vogel%NULL%1,               Andreea M.%Catana%NULL%1,               Kara%Wegermann%NULL%1,               Rotonya M.%Carr%NULL%1,               Costica%Aloman%NULL%1,               Vincent L.%Chen%NULL%1,               Atoosa%Rabiee%NULL%1,               Brett%Sadowski%NULL%1,               Veronica%Nguyen%NULL%1,               Winston%Dunn%NULL%1,               Kenneth D.%Chavin%NULL%1,               Kali%Zhou%NULL%1,               Blanca%Lizaola-Mayo%NULL%1,               Akshata%Moghe%NULL%1,               José%Debes%NULL%1,               Tzu-Hao%Lee%NULL%1,               Andrea D.%Branch%NULL%1,               Kathleen%Viveiros%NULL%0,               Walter%Chan%NULL%1,               David M.%Chascsa%NULL%1,               Paul%Kwo%NULL%1,               Renumathy%Dhanasekaran%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Jie%Zhou%NULL%1,               Kenneth I.%Zheng%NULL%3,               Xiao-Bo%Wang%NULL%0,               Hua-Dong%Yan%NULL%1,               Qing-Feng%Sun%NULL%0,               Ke-Hua%Pan%NULL%0,               Ting-Yao%Wang%NULL%0,               Hong-Lei%Ma%NULL%0,               Yong-Ping%Chen%NULL%0,               Jacob%George%NULL%0,               Ming-Hua%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu‐Jie%Zhou%NULL%1,               Kenneth I.%Zheng%NULL%0,               Kenneth I.%Zheng%NULL%0,               Xiao‐Bo%Wang%NULL%4,               Xiao‐Bo%Wang%NULL%0,               Qing‐Feng%Sun%NULL%2,               Ke‐Hua%Pan%NULL%2,               Ting‐Yao%Wang%NULL%2,               Hong‐Lei%Ma%NULL%1,               Yong‐Ping%Chen%NULL%2,               Jacob%George%jacob.george@sydney.edu.au%0,               Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Feng%Gao%NULL%1,               Kenneth I%Zheng%NULL%1,               Xiao‐Bo%Wang%NULL%0,               Xiao‐Bo%Wang%NULL%0,               Hua‐Dong%Yan%NULL%1,               Qing‐Feng%Sun%NULL%0,               Ke‐Hua%Pan%NULL%0,               Ting‐Yao%Wang%NULL%0,               Yong‐Ping%Chen%NULL%0,               Jacob%George%jacob.george@sydney.edu.au%0,               Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ivan%Lopez-Mendez%NULL%1,               Jorge%Aquino-Matus%NULL%1,               Sofia Murua-Beltrán%Gall%NULL%1,               Jose D.%Prieto-Nava%NULL%1,               Eva%Juarez-Hernandez%NULL%1,               Misael%Uribe%NULL%1,               Graciela%Castro-Narro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roberta%Forlano%NULL%1,               Benjamin H.%Mullish%NULL%2,               Benjamin H.%Mullish%NULL%0,               Sujit K.%Mukherjee%NULL%1,               Rooshi%Nathwani%NULL%1,               Cristopher%Harlow%NULL%1,               Peter%Crook%NULL%1,               Rebekah%Judge%NULL%1,               Anet%Soubieres%NULL%2,               Anet%Soubieres%NULL%0,               Paul%Middleton%NULL%1,               Anna%Daunt%NULL%1,               Pablo%Perez-Guzman%NULL%1,               Nowlan%Selvapatt%NULL%1,               Maud%Lemoine%NULL%1,               Ameet%Dhar%NULL%1,               Mark R.%Thursz%NULL%1,               Shevanthi%Nayagam%NULL%1,               Pinelopi%Manousou%NULL%1,               Wan-Long%Chuang%NULL%2,               Wan-Long%Chuang%NULL%0,               NULL%NULL%NULL%3,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mahmud%Mahamid%NULL%1,               Wiliam%Nseir%NULL%1,               Tawfik%Khoury%NULL%1,               Baker%Mahamid%NULL%1,               Adi%Nubania%NULL%1,               Kamal%Sub-Laban%NULL%1,               Joel%Schifter%NULL%1,               Amir%Mari%NULL%1,               Wisam%Sbeit%NULL%1,               Eran%Goldin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nikroo%Hashemi%NULL%1,                Kathleen%Viveiros%NULL%2,                Walker D.%Redd%NULL%1,                Joyce C.%Zhou%NULL%1,                Thomas R.%McCarty%NULL%1,                Ahmad N.%Bazarbashi%NULL%1,                Kelly E.%Hathorn%NULL%1,                Danny%Wong%NULL%1,                Cheikh%Njie%NULL%1,                Lin%Shen%NULL%1,                Walter W.%Chan%wwchan@bwh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Vincent L.%Chen%vichen@med.umich.edu%1,                Fadi%Hawa%NULL%2,                Fadi%Hawa%NULL%0,                Jeffrey A.%Berinstein%NULL%1,                Chanakyaram A.%Reddy%NULL%1,                Ihab%Kassab%NULL%1,                Kevin D.%Platt%NULL%1,                Chia-Yang%Hsu%NULL%1,                Calen A.%Steiner%NULL%1,                Jeremy%Louissaint%NULL%1,                Naresh T.%Gunaratnam%NULL%1,                Pratima%Sharma%pratimas@med.umich.edu%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%NULL%2,                Christopher J.%Tignanelli%NULL%1,                Nirjhar%Dutta%NULL%1,                Emma%Jones%NULL%1,                Leonardo%Tamaritz%NULL%1,                Jeanne%Clark%NULL%1,                Genevieve%Melton-Meaux%NULL%1,                Michael%Usher%NULL%1,                Sayeed%Ikramuddin%NULL%1,                 C.%Bramante%null%1,                 C. J.% Tignanelli%null%1,                 N.% Dutta%null%1,                 E.% Jones%null%1,                 L.% Tamariz%null%1,                 J. M.% Clark%null%1,                 M.% Usher%null%1,                 G.% Metlon-Meaux%null%1,                 S. % Ikramuddin%null%1,            C.%Bramante%null%1,            C. J.% Tignanelli%null%1,            N.% Dutta%null%1,            E.% Jones%null%1,            L.% Tamariz%null%1,            J. M.% Clark%null%1,            M.% Usher%null%1,            G.% Metlon-Meaux%null%1,            S. % Ikramuddin%null%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%2,                Feng%Gao%NULL%1,                Xiao-Bo%Wang%NULL%2,                Qing-Feng%Sun%NULL%2,                Ke-Hua%Pan%NULL%2,                Ting-Yao%Wang%NULL%2,                Hong-Lei%Ma%NULL%2,                Yong-Ping%Chen%NULL%2,                Wen-Yue%Liu%NULL%1,                Jacob%George%NULL%4,                Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%2,                Li%Zhu%NULL%2,                Li%Zhu%NULL%0,                Jian%Wang%NULL%1,                Leyang%Xue%NULL%1,                Longgen%Liu%NULL%1,                Xuebing%Yan%NULL%1,                Songping%Huang%NULL%1,                Yang%Li%NULL%1,                Xiaomin%Yan%NULL%1,                Biao%Zhang%NULL%1,                Tianmin%Xu%NULL%1,                Chunyang%Li%NULL%1,                Fang%Ji%NULL%1,                Fang%Ming%NULL%1,                Yun%Zhao%NULL%1,                Juan%Cheng%NULL%1,                Yinling%Wang%NULL%1,                Haiyan%Zhao%NULL%1,                Shuqin%Hong%NULL%1,                Kang%Chen%NULL%1,                Xiang‐an%Zhao%NULL%1,                Lei%Zou%NULL%1,                Dawen%Sang%NULL%1,                Huaping%Shao%NULL%1,                Xinying%Guan%NULL%1,                Xiaobing%Chen%NULL%1,                Yuxin%Chen%NULL%1,                Jie%Wei%NULL%1,                Chuanwu%Zhu%zhuchw@126.com%1,                Chao%Wu%dr.wu@nju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Byrne%Christopher D%coreGivesNoEmail%1,          Chen%Yong-Ping%coreGivesNoEmail%1,          Eslam%Mohammed%coreGivesNoEmail%1,          George%Jacob%coreGivesNoEmail%1,          Mantovani%Alessandro%coreGivesNoEmail%1,          Pan%Ke-Hua%coreGivesNoEmail%1,          Sun%Qing-Feng%coreGivesNoEmail%1,          Targher%Giovanni%coreGivesNoEmail%1,          Wang%Xiao-Bo%coreGivesNoEmail%1,          Yan%Hua-Dong%coreGivesNoEmail%1,          Zheng%Kenneth I%coreGivesNoEmail%1,          Zheng%Ming-Hua%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Donghee%Kim%NULL%1,                Nia%Adeniji%NULL%1,                Nyann%Latt%NULL%1,                Sonal%Kumar%NULL%1,                Patricia P.%Bloom%NULL%1,                Elizabeth S.%Aby%NULL%1,                Ponni%Perumalswami%NULL%1,                Marina%Roytman%NULL%1,                Michael%Li%NULL%1,                Alexander S.%Vogel%NULL%1,                Andreea M.%Catana%NULL%1,                Kara%Wegermann%NULL%1,                Rotonya M.%Carr%NULL%1,                Costica%Aloman%NULL%1,                Vincent L.%Chen%NULL%1,                Atoosa%Rabiee%NULL%1,                Brett%Sadowski%NULL%1,                Veronica%Nguyen%NULL%1,                Winston%Dunn%NULL%1,                Kenneth D.%Chavin%NULL%1,                Kali%Zhou%NULL%1,                Blanca%Lizaola-Mayo%NULL%1,                Akshata%Moghe%NULL%1,                José%Debes%NULL%1,                Tzu-Hao%Lee%NULL%1,                Andrea D.%Branch%NULL%1,                Kathleen%Viveiros%NULL%0,                Walter%Chan%NULL%1,                David M.%Chascsa%NULL%1,                Paul%Kwo%NULL%1,                Renumathy%Dhanasekaran%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Jie%Zhou%NULL%1,                Kenneth I.%Zheng%NULL%3,                Xiao-Bo%Wang%NULL%0,                Hua-Dong%Yan%NULL%1,                Qing-Feng%Sun%NULL%0,                Ke-Hua%Pan%NULL%0,                Ting-Yao%Wang%NULL%0,                Hong-Lei%Ma%NULL%0,                Yong-Ping%Chen%NULL%0,                Jacob%George%NULL%0,                Ming-Hua%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu‐Jie%Zhou%NULL%1,                Kenneth I.%Zheng%NULL%0,                Kenneth I.%Zheng%NULL%0,                Xiao‐Bo%Wang%NULL%4,                Xiao‐Bo%Wang%NULL%0,                Qing‐Feng%Sun%NULL%2,                Ke‐Hua%Pan%NULL%2,                Ting‐Yao%Wang%NULL%2,                Hong‐Lei%Ma%NULL%1,                Yong‐Ping%Chen%NULL%2,                Jacob%George%jacob.george@sydney.edu.au%0,                Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Feng%Gao%NULL%1,                Kenneth I%Zheng%NULL%1,                Xiao‐Bo%Wang%NULL%0,                Xiao‐Bo%Wang%NULL%0,                Hua‐Dong%Yan%NULL%1,                Qing‐Feng%Sun%NULL%0,                Ke‐Hua%Pan%NULL%0,                Ting‐Yao%Wang%NULL%0,                Yong‐Ping%Chen%NULL%0,                Jacob%George%jacob.george@sydney.edu.au%0,                Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ivan%Lopez-Mendez%NULL%1,                Jorge%Aquino-Matus%NULL%1,                Sofia Murua-Beltrán%Gall%NULL%1,                Jose D.%Prieto-Nava%NULL%1,                Eva%Juarez-Hernandez%NULL%1,                Misael%Uribe%NULL%1,                Graciela%Castro-Narro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roberta%Forlano%NULL%1,                Benjamin H.%Mullish%NULL%2,                Benjamin H.%Mullish%NULL%0,                Sujit K.%Mukherjee%NULL%1,                Rooshi%Nathwani%NULL%1,                Cristopher%Harlow%NULL%1,                Peter%Crook%NULL%1,                Rebekah%Judge%NULL%1,                Anet%Soubieres%NULL%2,                Anet%Soubieres%NULL%0,                Paul%Middleton%NULL%1,                Anna%Daunt%NULL%1,                Pablo%Perez-Guzman%NULL%1,                Nowlan%Selvapatt%NULL%1,                Maud%Lemoine%NULL%1,                Ameet%Dhar%NULL%1,                Mark R.%Thursz%NULL%1,                Shevanthi%Nayagam%NULL%1,                Pinelopi%Manousou%NULL%1,                Wan-Long%Chuang%NULL%2,                Wan-Long%Chuang%NULL%0,                NULL%NULL%NULL%3,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mahmud%Mahamid%NULL%1,                Wiliam%Nseir%NULL%1,                Tawfik%Khoury%NULL%1,                Baker%Mahamid%NULL%1,                Adi%Nubania%NULL%1,                Kamal%Sub-Laban%NULL%1,                Joel%Schifter%NULL%1,                Amir%Mari%NULL%1,                Wisam%Sbeit%NULL%1,                Eran%Goldin%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1260,7 +1358,7 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
@@ -1286,10 +1384,10 @@
         <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>260</v>
       </c>
       <c r="E3" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -1318,7 +1416,7 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1347,7 +1445,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1376,7 +1474,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
@@ -1405,7 +1503,7 @@
         <v>158</v>
       </c>
       <c r="E7" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1434,7 +1532,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -1463,7 +1561,7 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
@@ -1492,7 +1590,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -1521,7 +1619,7 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1550,7 +1648,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1579,7 +1677,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -1608,7 +1706,7 @@
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="F14" t="s">
         <v>85</v>

--- a/Covid_19_Dataset_and_References/References/9.xlsx
+++ b/Covid_19_Dataset_and_References/References/9.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="299">
   <si>
     <t>Doi</t>
   </si>
@@ -1026,6 +1026,45 @@
   </si>
   <si>
     <t>[Mahmud%Mahamid%NULL%1,                Wiliam%Nseir%NULL%1,                Tawfik%Khoury%NULL%1,                Baker%Mahamid%NULL%1,                Adi%Nubania%NULL%1,                Kamal%Sub-Laban%NULL%1,                Joel%Schifter%NULL%1,                Amir%Mari%NULL%1,                Wisam%Sbeit%NULL%1,                Eran%Goldin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nikroo%Hashemi%NULL%1,                 Kathleen%Viveiros%NULL%2,                 Walker D.%Redd%NULL%1,                 Joyce C.%Zhou%NULL%1,                 Thomas R.%McCarty%NULL%1,                 Ahmad N.%Bazarbashi%NULL%1,                 Kelly E.%Hathorn%NULL%1,                 Danny%Wong%NULL%1,                 Cheikh%Njie%NULL%1,                 Lin%Shen%NULL%1,                 Walter W.%Chan%wwchan@bwh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Vincent L.%Chen%vichen@med.umich.edu%1,                 Fadi%Hawa%NULL%2,                 Fadi%Hawa%NULL%0,                 Jeffrey A.%Berinstein%NULL%1,                 Chanakyaram A.%Reddy%NULL%1,                 Ihab%Kassab%NULL%1,                 Kevin D.%Platt%NULL%1,                 Chia-Yang%Hsu%NULL%1,                 Calen A.%Steiner%NULL%1,                 Jeremy%Louissaint%NULL%1,                 Naresh T.%Gunaratnam%NULL%1,                 Pratima%Sharma%pratimas@med.umich.edu%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%NULL%2,                 Christopher J.%Tignanelli%NULL%1,                 Nirjhar%Dutta%NULL%1,                 Emma%Jones%NULL%1,                 Leonardo%Tamaritz%NULL%1,                 Jeanne%Clark%NULL%1,                 Genevieve%Melton-Meaux%NULL%1,                 Michael%Usher%NULL%1,                 Sayeed%Ikramuddin%NULL%1,                  C.%Bramante%null%1,                  C. J.% Tignanelli%null%1,                  N.% Dutta%null%1,                  E.% Jones%null%1,                  L.% Tamariz%null%1,                  J. M.% Clark%null%1,                  M.% Usher%null%1,                  G.% Metlon-Meaux%null%1,                  S. % Ikramuddin%null%1,             C.%Bramante%null%1,             C. J.% Tignanelli%null%1,             N.% Dutta%null%1,             E.% Jones%null%1,             L.% Tamariz%null%1,             J. M.% Clark%null%1,             M.% Usher%null%1,             G.% Metlon-Meaux%null%1,             S. % Ikramuddin%null%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%2,                 Feng%Gao%NULL%1,                 Xiao-Bo%Wang%NULL%2,                 Qing-Feng%Sun%NULL%2,                 Ke-Hua%Pan%NULL%2,                 Ting-Yao%Wang%NULL%2,                 Hong-Lei%Ma%NULL%2,                 Yong-Ping%Chen%NULL%2,                 Wen-Yue%Liu%NULL%1,                 Jacob%George%NULL%4,                 Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%2,                 Li%Zhu%NULL%2,                 Li%Zhu%NULL%0,                 Jian%Wang%NULL%1,                 Leyang%Xue%NULL%1,                 Longgen%Liu%NULL%1,                 Xuebing%Yan%NULL%1,                 Songping%Huang%NULL%1,                 Yang%Li%NULL%1,                 Xiaomin%Yan%NULL%1,                 Biao%Zhang%NULL%1,                 Tianmin%Xu%NULL%1,                 Chunyang%Li%NULL%1,                 Fang%Ji%NULL%1,                 Fang%Ming%NULL%1,                 Yun%Zhao%NULL%1,                 Juan%Cheng%NULL%1,                 Yinling%Wang%NULL%1,                 Haiyan%Zhao%NULL%1,                 Shuqin%Hong%NULL%1,                 Kang%Chen%NULL%1,                 Xiang‐an%Zhao%NULL%1,                 Lei%Zou%NULL%1,                 Dawen%Sang%NULL%1,                 Huaping%Shao%NULL%1,                 Xinying%Guan%NULL%1,                 Xiaobing%Chen%NULL%1,                 Yuxin%Chen%NULL%1,                 Jie%Wei%NULL%1,                 Chuanwu%Zhu%zhuchw@126.com%1,                 Chao%Wu%dr.wu@nju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Byrne%Christopher D%coreGivesNoEmail%1,           Chen%Yong-Ping%coreGivesNoEmail%1,           Eslam%Mohammed%coreGivesNoEmail%1,           George%Jacob%coreGivesNoEmail%1,           Mantovani%Alessandro%coreGivesNoEmail%1,           Pan%Ke-Hua%coreGivesNoEmail%1,           Sun%Qing-Feng%coreGivesNoEmail%1,           Targher%Giovanni%coreGivesNoEmail%1,           Wang%Xiao-Bo%coreGivesNoEmail%1,           Yan%Hua-Dong%coreGivesNoEmail%1,           Zheng%Kenneth I%coreGivesNoEmail%1,           Zheng%Ming-Hua%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Donghee%Kim%NULL%1,                 Nia%Adeniji%NULL%1,                 Nyann%Latt%NULL%1,                 Sonal%Kumar%NULL%1,                 Patricia P.%Bloom%NULL%1,                 Elizabeth S.%Aby%NULL%1,                 Ponni%Perumalswami%NULL%1,                 Marina%Roytman%NULL%1,                 Michael%Li%NULL%1,                 Alexander S.%Vogel%NULL%1,                 Andreea M.%Catana%NULL%1,                 Kara%Wegermann%NULL%1,                 Rotonya M.%Carr%NULL%1,                 Costica%Aloman%NULL%1,                 Vincent L.%Chen%NULL%1,                 Atoosa%Rabiee%NULL%1,                 Brett%Sadowski%NULL%1,                 Veronica%Nguyen%NULL%1,                 Winston%Dunn%NULL%1,                 Kenneth D.%Chavin%NULL%1,                 Kali%Zhou%NULL%1,                 Blanca%Lizaola-Mayo%NULL%1,                 Akshata%Moghe%NULL%1,                 José%Debes%NULL%1,                 Tzu-Hao%Lee%NULL%1,                 Andrea D.%Branch%NULL%1,                 Kathleen%Viveiros%NULL%0,                 Walter%Chan%NULL%1,                 David M.%Chascsa%NULL%1,                 Paul%Kwo%NULL%1,                 Renumathy%Dhanasekaran%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Jie%Zhou%NULL%1,                 Kenneth I.%Zheng%NULL%3,                 Xiao-Bo%Wang%NULL%0,                 Hua-Dong%Yan%NULL%1,                 Qing-Feng%Sun%NULL%0,                 Ke-Hua%Pan%NULL%0,                 Ting-Yao%Wang%NULL%0,                 Hong-Lei%Ma%NULL%0,                 Yong-Ping%Chen%NULL%0,                 Jacob%George%NULL%0,                 Ming-Hua%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu‐Jie%Zhou%NULL%1,                 Kenneth I.%Zheng%NULL%0,                 Kenneth I.%Zheng%NULL%0,                 Xiao‐Bo%Wang%NULL%4,                 Xiao‐Bo%Wang%NULL%0,                 Qing‐Feng%Sun%NULL%2,                 Ke‐Hua%Pan%NULL%2,                 Ting‐Yao%Wang%NULL%2,                 Hong‐Lei%Ma%NULL%1,                 Yong‐Ping%Chen%NULL%2,                 Jacob%George%jacob.george@sydney.edu.au%0,                 Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Feng%Gao%NULL%1,                 Kenneth I%Zheng%NULL%1,                 Xiao‐Bo%Wang%NULL%0,                 Xiao‐Bo%Wang%NULL%0,                 Hua‐Dong%Yan%NULL%1,                 Qing‐Feng%Sun%NULL%0,                 Ke‐Hua%Pan%NULL%0,                 Ting‐Yao%Wang%NULL%0,                 Yong‐Ping%Chen%NULL%0,                 Jacob%George%jacob.george@sydney.edu.au%0,                 Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ivan%Lopez-Mendez%NULL%1,                 Jorge%Aquino-Matus%NULL%1,                 Sofia Murua-Beltrán%Gall%NULL%1,                 Jose D.%Prieto-Nava%NULL%1,                 Eva%Juarez-Hernandez%NULL%1,                 Misael%Uribe%NULL%1,                 Graciela%Castro-Narro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roberta%Forlano%NULL%1,                 Benjamin H.%Mullish%NULL%2,                 Benjamin H.%Mullish%NULL%0,                 Sujit K.%Mukherjee%NULL%1,                 Rooshi%Nathwani%NULL%1,                 Cristopher%Harlow%NULL%1,                 Peter%Crook%NULL%1,                 Rebekah%Judge%NULL%1,                 Anet%Soubieres%NULL%2,                 Anet%Soubieres%NULL%0,                 Paul%Middleton%NULL%1,                 Anna%Daunt%NULL%1,                 Pablo%Perez-Guzman%NULL%1,                 Nowlan%Selvapatt%NULL%1,                 Maud%Lemoine%NULL%1,                 Ameet%Dhar%NULL%1,                 Mark R.%Thursz%NULL%1,                 Shevanthi%Nayagam%NULL%1,                 Pinelopi%Manousou%NULL%1,                 Wan-Long%Chuang%NULL%2,                 Wan-Long%Chuang%NULL%0,                 NULL%NULL%NULL%3,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mahmud%Mahamid%NULL%1,                 Wiliam%Nseir%NULL%1,                 Tawfik%Khoury%NULL%1,                 Baker%Mahamid%NULL%1,                 Adi%Nubania%NULL%1,                 Kamal%Sub-Laban%NULL%1,                 Joel%Schifter%NULL%1,                 Amir%Mari%NULL%1,                 Wisam%Sbeit%NULL%1,                 Eran%Goldin%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1358,7 +1397,7 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
@@ -1387,7 +1426,7 @@
         <v>260</v>
       </c>
       <c r="E3" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -1416,7 +1455,7 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1445,7 +1484,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1474,7 +1513,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
@@ -1503,7 +1542,7 @@
         <v>158</v>
       </c>
       <c r="E7" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1532,7 +1571,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -1561,7 +1600,7 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
@@ -1590,7 +1629,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -1619,7 +1658,7 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1648,7 +1687,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1677,7 +1716,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -1706,7 +1745,7 @@
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="F14" t="s">
         <v>85</v>

--- a/Covid_19_Dataset_and_References/References/9.xlsx
+++ b/Covid_19_Dataset_and_References/References/9.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="312">
   <si>
     <t>Doi</t>
   </si>
@@ -1065,6 +1065,45 @@
   </si>
   <si>
     <t>[Mahmud%Mahamid%NULL%1,                 Wiliam%Nseir%NULL%1,                 Tawfik%Khoury%NULL%1,                 Baker%Mahamid%NULL%1,                 Adi%Nubania%NULL%1,                 Kamal%Sub-Laban%NULL%1,                 Joel%Schifter%NULL%1,                 Amir%Mari%NULL%1,                 Wisam%Sbeit%NULL%1,                 Eran%Goldin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nikroo%Hashemi%NULL%1,                  Kathleen%Viveiros%NULL%2,                  Walker D.%Redd%NULL%1,                  Joyce C.%Zhou%NULL%1,                  Thomas R.%McCarty%NULL%1,                  Ahmad N.%Bazarbashi%NULL%1,                  Kelly E.%Hathorn%NULL%1,                  Danny%Wong%NULL%1,                  Cheikh%Njie%NULL%1,                  Lin%Shen%NULL%1,                  Walter W.%Chan%wwchan@bwh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Vincent L.%Chen%vichen@med.umich.edu%1,                  Fadi%Hawa%NULL%2,                  Fadi%Hawa%NULL%0,                  Jeffrey A.%Berinstein%NULL%1,                  Chanakyaram A.%Reddy%NULL%1,                  Ihab%Kassab%NULL%1,                  Kevin D.%Platt%NULL%1,                  Chia-Yang%Hsu%NULL%1,                  Calen A.%Steiner%NULL%1,                  Jeremy%Louissaint%NULL%1,                  Naresh T.%Gunaratnam%NULL%1,                  Pratima%Sharma%pratimas@med.umich.edu%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%NULL%2,                  Christopher J.%Tignanelli%NULL%1,                  Nirjhar%Dutta%NULL%1,                  Emma%Jones%NULL%1,                  Leonardo%Tamaritz%NULL%1,                  Jeanne%Clark%NULL%1,                  Genevieve%Melton-Meaux%NULL%1,                  Michael%Usher%NULL%1,                  Sayeed%Ikramuddin%NULL%1,                   C.%Bramante%null%1,                   C. J.% Tignanelli%null%1,                   N.% Dutta%null%1,                   E.% Jones%null%1,                   L.% Tamariz%null%1,                   J. M.% Clark%null%1,                   M.% Usher%null%1,                   G.% Metlon-Meaux%null%1,                   S. % Ikramuddin%null%1,              C.%Bramante%null%1,              C. J.% Tignanelli%null%1,              N.% Dutta%null%1,              E.% Jones%null%1,              L.% Tamariz%null%1,              J. M.% Clark%null%1,              M.% Usher%null%1,              G.% Metlon-Meaux%null%1,              S. % Ikramuddin%null%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%2,                  Feng%Gao%NULL%1,                  Xiao-Bo%Wang%NULL%2,                  Qing-Feng%Sun%NULL%2,                  Ke-Hua%Pan%NULL%2,                  Ting-Yao%Wang%NULL%2,                  Hong-Lei%Ma%NULL%2,                  Yong-Ping%Chen%NULL%2,                  Wen-Yue%Liu%NULL%1,                  Jacob%George%NULL%4,                  Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%2,                  Li%Zhu%NULL%2,                  Li%Zhu%NULL%0,                  Jian%Wang%NULL%1,                  Leyang%Xue%NULL%1,                  Longgen%Liu%NULL%1,                  Xuebing%Yan%NULL%1,                  Songping%Huang%NULL%1,                  Yang%Li%NULL%1,                  Xiaomin%Yan%NULL%1,                  Biao%Zhang%NULL%1,                  Tianmin%Xu%NULL%1,                  Chunyang%Li%NULL%1,                  Fang%Ji%NULL%1,                  Fang%Ming%NULL%1,                  Yun%Zhao%NULL%1,                  Juan%Cheng%NULL%1,                  Yinling%Wang%NULL%1,                  Haiyan%Zhao%NULL%1,                  Shuqin%Hong%NULL%1,                  Kang%Chen%NULL%1,                  Xiang‐an%Zhao%NULL%1,                  Lei%Zou%NULL%1,                  Dawen%Sang%NULL%1,                  Huaping%Shao%NULL%1,                  Xinying%Guan%NULL%1,                  Xiaobing%Chen%NULL%1,                  Yuxin%Chen%NULL%1,                  Jie%Wei%NULL%1,                  Chuanwu%Zhu%zhuchw@126.com%1,                  Chao%Wu%dr.wu@nju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Byrne%Christopher D%coreGivesNoEmail%1,            Chen%Yong-Ping%coreGivesNoEmail%1,            Eslam%Mohammed%coreGivesNoEmail%1,            George%Jacob%coreGivesNoEmail%1,            Mantovani%Alessandro%coreGivesNoEmail%1,            Pan%Ke-Hua%coreGivesNoEmail%1,            Sun%Qing-Feng%coreGivesNoEmail%1,            Targher%Giovanni%coreGivesNoEmail%1,            Wang%Xiao-Bo%coreGivesNoEmail%1,            Yan%Hua-Dong%coreGivesNoEmail%1,            Zheng%Kenneth I%coreGivesNoEmail%1,            Zheng%Ming-Hua%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Donghee%Kim%NULL%1,                  Nia%Adeniji%NULL%1,                  Nyann%Latt%NULL%1,                  Sonal%Kumar%NULL%1,                  Patricia P.%Bloom%NULL%1,                  Elizabeth S.%Aby%NULL%1,                  Ponni%Perumalswami%NULL%1,                  Marina%Roytman%NULL%1,                  Michael%Li%NULL%1,                  Alexander S.%Vogel%NULL%1,                  Andreea M.%Catana%NULL%1,                  Kara%Wegermann%NULL%1,                  Rotonya M.%Carr%NULL%1,                  Costica%Aloman%NULL%1,                  Vincent L.%Chen%NULL%1,                  Atoosa%Rabiee%NULL%1,                  Brett%Sadowski%NULL%1,                  Veronica%Nguyen%NULL%1,                  Winston%Dunn%NULL%1,                  Kenneth D.%Chavin%NULL%1,                  Kali%Zhou%NULL%1,                  Blanca%Lizaola-Mayo%NULL%1,                  Akshata%Moghe%NULL%1,                  José%Debes%NULL%1,                  Tzu-Hao%Lee%NULL%1,                  Andrea D.%Branch%NULL%1,                  Kathleen%Viveiros%NULL%0,                  Walter%Chan%NULL%1,                  David M.%Chascsa%NULL%1,                  Paul%Kwo%NULL%1,                  Renumathy%Dhanasekaran%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Jie%Zhou%NULL%1,                  Kenneth I.%Zheng%NULL%3,                  Xiao-Bo%Wang%NULL%0,                  Hua-Dong%Yan%NULL%1,                  Qing-Feng%Sun%NULL%0,                  Ke-Hua%Pan%NULL%0,                  Ting-Yao%Wang%NULL%0,                  Hong-Lei%Ma%NULL%0,                  Yong-Ping%Chen%NULL%0,                  Jacob%George%NULL%0,                  Ming-Hua%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu‐Jie%Zhou%NULL%1,                  Kenneth I.%Zheng%NULL%0,                  Kenneth I.%Zheng%NULL%0,                  Xiao‐Bo%Wang%NULL%4,                  Xiao‐Bo%Wang%NULL%0,                  Qing‐Feng%Sun%NULL%2,                  Ke‐Hua%Pan%NULL%2,                  Ting‐Yao%Wang%NULL%2,                  Hong‐Lei%Ma%NULL%1,                  Yong‐Ping%Chen%NULL%2,                  Jacob%George%jacob.george@sydney.edu.au%0,                  Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Feng%Gao%NULL%1,                  Kenneth I%Zheng%NULL%1,                  Xiao‐Bo%Wang%NULL%0,                  Xiao‐Bo%Wang%NULL%0,                  Hua‐Dong%Yan%NULL%1,                  Qing‐Feng%Sun%NULL%0,                  Ke‐Hua%Pan%NULL%0,                  Ting‐Yao%Wang%NULL%0,                  Yong‐Ping%Chen%NULL%0,                  Jacob%George%jacob.george@sydney.edu.au%0,                  Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ivan%Lopez-Mendez%NULL%1,                  Jorge%Aquino-Matus%NULL%1,                  Sofia Murua-Beltrán%Gall%NULL%1,                  Jose D.%Prieto-Nava%NULL%1,                  Eva%Juarez-Hernandez%NULL%1,                  Misael%Uribe%NULL%1,                  Graciela%Castro-Narro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roberta%Forlano%NULL%1,                  Benjamin H.%Mullish%NULL%2,                  Benjamin H.%Mullish%NULL%0,                  Sujit K.%Mukherjee%NULL%1,                  Rooshi%Nathwani%NULL%1,                  Cristopher%Harlow%NULL%1,                  Peter%Crook%NULL%1,                  Rebekah%Judge%NULL%1,                  Anet%Soubieres%NULL%2,                  Anet%Soubieres%NULL%0,                  Paul%Middleton%NULL%1,                  Anna%Daunt%NULL%1,                  Pablo%Perez-Guzman%NULL%1,                  Nowlan%Selvapatt%NULL%1,                  Maud%Lemoine%NULL%1,                  Ameet%Dhar%NULL%1,                  Mark R.%Thursz%NULL%1,                  Shevanthi%Nayagam%NULL%1,                  Pinelopi%Manousou%NULL%1,                  Wan-Long%Chuang%NULL%2,                  Wan-Long%Chuang%NULL%0,                  NULL%NULL%NULL%3,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mahmud%Mahamid%NULL%1,                  Wiliam%Nseir%NULL%1,                  Tawfik%Khoury%NULL%1,                  Baker%Mahamid%NULL%1,                  Adi%Nubania%NULL%1,                  Kamal%Sub-Laban%NULL%1,                  Joel%Schifter%NULL%1,                  Amir%Mari%NULL%1,                  Wisam%Sbeit%NULL%1,                  Eran%Goldin%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1397,7 +1436,7 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
@@ -1426,7 +1465,7 @@
         <v>260</v>
       </c>
       <c r="E3" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -1455,7 +1494,7 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1484,7 +1523,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1513,7 +1552,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
@@ -1542,7 +1581,7 @@
         <v>158</v>
       </c>
       <c r="E7" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1571,7 +1610,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -1600,7 +1639,7 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
@@ -1629,7 +1668,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -1658,7 +1697,7 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1687,7 +1726,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1716,7 +1755,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -1745,7 +1784,7 @@
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="F14" t="s">
         <v>85</v>

--- a/Covid_19_Dataset_and_References/References/9.xlsx
+++ b/Covid_19_Dataset_and_References/References/9.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="338">
   <si>
     <t>Doi</t>
   </si>
@@ -1104,6 +1104,84 @@
   </si>
   <si>
     <t>[Mahmud%Mahamid%NULL%1,                  Wiliam%Nseir%NULL%1,                  Tawfik%Khoury%NULL%1,                  Baker%Mahamid%NULL%1,                  Adi%Nubania%NULL%1,                  Kamal%Sub-Laban%NULL%1,                  Joel%Schifter%NULL%1,                  Amir%Mari%NULL%1,                  Wisam%Sbeit%NULL%1,                  Eran%Goldin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nikroo%Hashemi%NULL%1,                   Kathleen%Viveiros%NULL%2,                   Walker D.%Redd%NULL%1,                   Joyce C.%Zhou%NULL%1,                   Thomas R.%McCarty%NULL%1,                   Ahmad N.%Bazarbashi%NULL%1,                   Kelly E.%Hathorn%NULL%1,                   Danny%Wong%NULL%1,                   Cheikh%Njie%NULL%1,                   Lin%Shen%NULL%1,                   Walter W.%Chan%wwchan@bwh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Vincent L.%Chen%vichen@med.umich.edu%1,                   Fadi%Hawa%NULL%2,                   Fadi%Hawa%NULL%0,                   Jeffrey A.%Berinstein%NULL%1,                   Chanakyaram A.%Reddy%NULL%1,                   Ihab%Kassab%NULL%1,                   Kevin D.%Platt%NULL%1,                   Chia-Yang%Hsu%NULL%1,                   Calen A.%Steiner%NULL%1,                   Jeremy%Louissaint%NULL%1,                   Naresh T.%Gunaratnam%NULL%1,                   Pratima%Sharma%pratimas@med.umich.edu%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%NULL%2,                   Christopher J.%Tignanelli%NULL%1,                   Nirjhar%Dutta%NULL%1,                   Emma%Jones%NULL%1,                   Leonardo%Tamaritz%NULL%1,                   Jeanne%Clark%NULL%1,                   Genevieve%Melton-Meaux%NULL%1,                   Michael%Usher%NULL%1,                   Sayeed%Ikramuddin%NULL%1,                    C.%Bramante%null%1,                    C. J.% Tignanelli%null%1,                    N.% Dutta%null%1,                    E.% Jones%null%1,                    L.% Tamariz%null%1,                    J. M.% Clark%null%1,                    M.% Usher%null%1,                    G.% Metlon-Meaux%null%1,                    S. % Ikramuddin%null%1,               C.%Bramante%null%1,               C. J.% Tignanelli%null%1,               N.% Dutta%null%1,               E.% Jones%null%1,               L.% Tamariz%null%1,               J. M.% Clark%null%1,               M.% Usher%null%1,               G.% Metlon-Meaux%null%1,               S. % Ikramuddin%null%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%2,                   Feng%Gao%NULL%1,                   Xiao-Bo%Wang%NULL%2,                   Qing-Feng%Sun%NULL%2,                   Ke-Hua%Pan%NULL%2,                   Ting-Yao%Wang%NULL%2,                   Hong-Lei%Ma%NULL%2,                   Yong-Ping%Chen%NULL%2,                   Wen-Yue%Liu%NULL%1,                   Jacob%George%NULL%4,                   Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%2,                   Li%Zhu%NULL%2,                   Li%Zhu%NULL%0,                   Jian%Wang%NULL%1,                   Leyang%Xue%NULL%1,                   Longgen%Liu%NULL%1,                   Xuebing%Yan%NULL%1,                   Songping%Huang%NULL%1,                   Yang%Li%NULL%1,                   Xiaomin%Yan%NULL%1,                   Biao%Zhang%NULL%1,                   Tianmin%Xu%NULL%1,                   Chunyang%Li%NULL%1,                   Fang%Ji%NULL%1,                   Fang%Ming%NULL%1,                   Yun%Zhao%NULL%1,                   Juan%Cheng%NULL%1,                   Yinling%Wang%NULL%1,                   Haiyan%Zhao%NULL%1,                   Shuqin%Hong%NULL%1,                   Kang%Chen%NULL%1,                   Xiang‐an%Zhao%NULL%1,                   Lei%Zou%NULL%1,                   Dawen%Sang%NULL%1,                   Huaping%Shao%NULL%1,                   Xinying%Guan%NULL%1,                   Xiaobing%Chen%NULL%1,                   Yuxin%Chen%NULL%1,                   Jie%Wei%NULL%1,                   Chuanwu%Zhu%zhuchw@126.com%1,                   Chao%Wu%dr.wu@nju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Byrne%Christopher D%coreGivesNoEmail%1,             Chen%Yong-Ping%coreGivesNoEmail%1,             Eslam%Mohammed%coreGivesNoEmail%1,             George%Jacob%coreGivesNoEmail%1,             Mantovani%Alessandro%coreGivesNoEmail%1,             Pan%Ke-Hua%coreGivesNoEmail%1,             Sun%Qing-Feng%coreGivesNoEmail%1,             Targher%Giovanni%coreGivesNoEmail%1,             Wang%Xiao-Bo%coreGivesNoEmail%1,             Yan%Hua-Dong%coreGivesNoEmail%1,             Zheng%Kenneth I%coreGivesNoEmail%1,             Zheng%Ming-Hua%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Donghee%Kim%NULL%1,                   Nia%Adeniji%NULL%1,                   Nyann%Latt%NULL%1,                   Sonal%Kumar%NULL%1,                   Patricia P.%Bloom%NULL%1,                   Elizabeth S.%Aby%NULL%1,                   Ponni%Perumalswami%NULL%1,                   Marina%Roytman%NULL%1,                   Michael%Li%NULL%1,                   Alexander S.%Vogel%NULL%1,                   Andreea M.%Catana%NULL%1,                   Kara%Wegermann%NULL%1,                   Rotonya M.%Carr%NULL%1,                   Costica%Aloman%NULL%1,                   Vincent L.%Chen%NULL%1,                   Atoosa%Rabiee%NULL%1,                   Brett%Sadowski%NULL%1,                   Veronica%Nguyen%NULL%1,                   Winston%Dunn%NULL%1,                   Kenneth D.%Chavin%NULL%1,                   Kali%Zhou%NULL%1,                   Blanca%Lizaola-Mayo%NULL%1,                   Akshata%Moghe%NULL%1,                   José%Debes%NULL%1,                   Tzu-Hao%Lee%NULL%1,                   Andrea D.%Branch%NULL%1,                   Kathleen%Viveiros%NULL%0,                   Walter%Chan%NULL%1,                   David M.%Chascsa%NULL%1,                   Paul%Kwo%NULL%1,                   Renumathy%Dhanasekaran%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Jie%Zhou%NULL%1,                   Kenneth I.%Zheng%NULL%3,                   Xiao-Bo%Wang%NULL%0,                   Hua-Dong%Yan%NULL%1,                   Qing-Feng%Sun%NULL%0,                   Ke-Hua%Pan%NULL%0,                   Ting-Yao%Wang%NULL%0,                   Hong-Lei%Ma%NULL%0,                   Yong-Ping%Chen%NULL%0,                   Jacob%George%NULL%0,                   Ming-Hua%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu‐Jie%Zhou%NULL%1,                   Kenneth I.%Zheng%NULL%0,                   Kenneth I.%Zheng%NULL%0,                   Xiao‐Bo%Wang%NULL%4,                   Xiao‐Bo%Wang%NULL%0,                   Qing‐Feng%Sun%NULL%2,                   Ke‐Hua%Pan%NULL%2,                   Ting‐Yao%Wang%NULL%2,                   Hong‐Lei%Ma%NULL%1,                   Yong‐Ping%Chen%NULL%2,                   Jacob%George%jacob.george@sydney.edu.au%0,                   Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Feng%Gao%NULL%1,                   Kenneth I%Zheng%NULL%1,                   Xiao‐Bo%Wang%NULL%0,                   Xiao‐Bo%Wang%NULL%0,                   Hua‐Dong%Yan%NULL%1,                   Qing‐Feng%Sun%NULL%0,                   Ke‐Hua%Pan%NULL%0,                   Ting‐Yao%Wang%NULL%0,                   Yong‐Ping%Chen%NULL%0,                   Jacob%George%jacob.george@sydney.edu.au%0,                   Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ivan%Lopez-Mendez%NULL%1,                   Jorge%Aquino-Matus%NULL%1,                   Sofia Murua-Beltrán%Gall%NULL%1,                   Jose D.%Prieto-Nava%NULL%1,                   Eva%Juarez-Hernandez%NULL%1,                   Misael%Uribe%NULL%1,                   Graciela%Castro-Narro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roberta%Forlano%NULL%1,                   Benjamin H.%Mullish%NULL%2,                   Benjamin H.%Mullish%NULL%0,                   Sujit K.%Mukherjee%NULL%1,                   Rooshi%Nathwani%NULL%1,                   Cristopher%Harlow%NULL%1,                   Peter%Crook%NULL%1,                   Rebekah%Judge%NULL%1,                   Anet%Soubieres%NULL%2,                   Anet%Soubieres%NULL%0,                   Paul%Middleton%NULL%1,                   Anna%Daunt%NULL%1,                   Pablo%Perez-Guzman%NULL%1,                   Nowlan%Selvapatt%NULL%1,                   Maud%Lemoine%NULL%1,                   Ameet%Dhar%NULL%1,                   Mark R.%Thursz%NULL%1,                   Shevanthi%Nayagam%NULL%1,                   Pinelopi%Manousou%NULL%1,                   Wan-Long%Chuang%NULL%2,                   Wan-Long%Chuang%NULL%0,                   NULL%NULL%NULL%3,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mahmud%Mahamid%NULL%1,                   Wiliam%Nseir%NULL%1,                   Tawfik%Khoury%NULL%1,                   Baker%Mahamid%NULL%1,                   Adi%Nubania%NULL%1,                   Kamal%Sub-Laban%NULL%1,                   Joel%Schifter%NULL%1,                   Amir%Mari%NULL%1,                   Wisam%Sbeit%NULL%1,                   Eran%Goldin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nikroo%Hashemi%NULL%1,                    Kathleen%Viveiros%NULL%2,                    Walker D.%Redd%NULL%1,                    Joyce C.%Zhou%NULL%1,                    Thomas R.%McCarty%NULL%1,                    Ahmad N.%Bazarbashi%NULL%1,                    Kelly E.%Hathorn%NULL%1,                    Danny%Wong%NULL%1,                    Cheikh%Njie%NULL%1,                    Lin%Shen%NULL%1,                    Walter W.%Chan%wwchan@bwh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Vincent L.%Chen%vichen@med.umich.edu%1,                    Fadi%Hawa%NULL%2,                    Fadi%Hawa%NULL%0,                    Jeffrey A.%Berinstein%NULL%1,                    Chanakyaram A.%Reddy%NULL%1,                    Ihab%Kassab%NULL%1,                    Kevin D.%Platt%NULL%1,                    Chia-Yang%Hsu%NULL%1,                    Calen A.%Steiner%NULL%1,                    Jeremy%Louissaint%NULL%1,                    Naresh T.%Gunaratnam%NULL%1,                    Pratima%Sharma%pratimas@med.umich.edu%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%NULL%2,                    Christopher J.%Tignanelli%NULL%1,                    Nirjhar%Dutta%NULL%1,                    Emma%Jones%NULL%1,                    Leonardo%Tamaritz%NULL%1,                    Jeanne%Clark%NULL%1,                    Genevieve%Melton-Meaux%NULL%1,                    Michael%Usher%NULL%1,                    Sayeed%Ikramuddin%NULL%1,                     C.%Bramante%null%1,                     C. J.% Tignanelli%null%1,                     N.% Dutta%null%1,                     E.% Jones%null%1,                     L.% Tamariz%null%1,                     J. M.% Clark%null%1,                     M.% Usher%null%1,                     G.% Metlon-Meaux%null%1,                     S. % Ikramuddin%null%1,                C.%Bramante%null%1,                C. J.% Tignanelli%null%1,                N.% Dutta%null%1,                E.% Jones%null%1,                L.% Tamariz%null%1,                J. M.% Clark%null%1,                M.% Usher%null%1,                G.% Metlon-Meaux%null%1,                S. % Ikramuddin%null%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%2,                    Feng%Gao%NULL%1,                    Xiao-Bo%Wang%NULL%2,                    Qing-Feng%Sun%NULL%2,                    Ke-Hua%Pan%NULL%2,                    Ting-Yao%Wang%NULL%2,                    Hong-Lei%Ma%NULL%2,                    Yong-Ping%Chen%NULL%2,                    Wen-Yue%Liu%NULL%1,                    Jacob%George%NULL%4,                    Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%2,                    Li%Zhu%NULL%2,                    Li%Zhu%NULL%0,                    Jian%Wang%NULL%1,                    Leyang%Xue%NULL%1,                    Longgen%Liu%NULL%1,                    Xuebing%Yan%NULL%1,                    Songping%Huang%NULL%1,                    Yang%Li%NULL%1,                    Xiaomin%Yan%NULL%1,                    Biao%Zhang%NULL%1,                    Tianmin%Xu%NULL%1,                    Chunyang%Li%NULL%1,                    Fang%Ji%NULL%1,                    Fang%Ming%NULL%1,                    Yun%Zhao%NULL%1,                    Juan%Cheng%NULL%1,                    Yinling%Wang%NULL%1,                    Haiyan%Zhao%NULL%1,                    Shuqin%Hong%NULL%1,                    Kang%Chen%NULL%1,                    Xiang‐an%Zhao%NULL%1,                    Lei%Zou%NULL%1,                    Dawen%Sang%NULL%1,                    Huaping%Shao%NULL%1,                    Xinying%Guan%NULL%1,                    Xiaobing%Chen%NULL%1,                    Yuxin%Chen%NULL%1,                    Jie%Wei%NULL%1,                    Chuanwu%Zhu%zhuchw@126.com%1,                    Chao%Wu%dr.wu@nju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Byrne%Christopher D%coreGivesNoEmail%1,              Chen%Yong-Ping%coreGivesNoEmail%1,              Eslam%Mohammed%coreGivesNoEmail%1,              George%Jacob%coreGivesNoEmail%1,              Mantovani%Alessandro%coreGivesNoEmail%1,              Pan%Ke-Hua%coreGivesNoEmail%1,              Sun%Qing-Feng%coreGivesNoEmail%1,              Targher%Giovanni%coreGivesNoEmail%1,              Wang%Xiao-Bo%coreGivesNoEmail%1,              Yan%Hua-Dong%coreGivesNoEmail%1,              Zheng%Kenneth I%coreGivesNoEmail%1,              Zheng%Ming-Hua%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Donghee%Kim%NULL%1,                    Nia%Adeniji%NULL%1,                    Nyann%Latt%NULL%1,                    Sonal%Kumar%NULL%1,                    Patricia P.%Bloom%NULL%1,                    Elizabeth S.%Aby%NULL%1,                    Ponni%Perumalswami%NULL%1,                    Marina%Roytman%NULL%1,                    Michael%Li%NULL%1,                    Alexander S.%Vogel%NULL%1,                    Andreea M.%Catana%NULL%1,                    Kara%Wegermann%NULL%1,                    Rotonya M.%Carr%NULL%1,                    Costica%Aloman%NULL%1,                    Vincent L.%Chen%NULL%1,                    Atoosa%Rabiee%NULL%1,                    Brett%Sadowski%NULL%1,                    Veronica%Nguyen%NULL%1,                    Winston%Dunn%NULL%1,                    Kenneth D.%Chavin%NULL%1,                    Kali%Zhou%NULL%1,                    Blanca%Lizaola-Mayo%NULL%1,                    Akshata%Moghe%NULL%1,                    José%Debes%NULL%1,                    Tzu-Hao%Lee%NULL%1,                    Andrea D.%Branch%NULL%1,                    Kathleen%Viveiros%NULL%0,                    Walter%Chan%NULL%1,                    David M.%Chascsa%NULL%1,                    Paul%Kwo%NULL%1,                    Renumathy%Dhanasekaran%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Jie%Zhou%NULL%1,                    Kenneth I.%Zheng%NULL%3,                    Xiao-Bo%Wang%NULL%0,                    Hua-Dong%Yan%NULL%1,                    Qing-Feng%Sun%NULL%0,                    Ke-Hua%Pan%NULL%0,                    Ting-Yao%Wang%NULL%0,                    Hong-Lei%Ma%NULL%0,                    Yong-Ping%Chen%NULL%0,                    Jacob%George%NULL%0,                    Ming-Hua%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu‐Jie%Zhou%NULL%1,                    Kenneth I.%Zheng%NULL%0,                    Kenneth I.%Zheng%NULL%0,                    Xiao‐Bo%Wang%NULL%4,                    Xiao‐Bo%Wang%NULL%0,                    Qing‐Feng%Sun%NULL%2,                    Ke‐Hua%Pan%NULL%2,                    Ting‐Yao%Wang%NULL%2,                    Hong‐Lei%Ma%NULL%1,                    Yong‐Ping%Chen%NULL%2,                    Jacob%George%jacob.george@sydney.edu.au%0,                    Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Feng%Gao%NULL%1,                    Kenneth I%Zheng%NULL%1,                    Xiao‐Bo%Wang%NULL%0,                    Xiao‐Bo%Wang%NULL%0,                    Hua‐Dong%Yan%NULL%1,                    Qing‐Feng%Sun%NULL%0,                    Ke‐Hua%Pan%NULL%0,                    Ting‐Yao%Wang%NULL%0,                    Yong‐Ping%Chen%NULL%0,                    Jacob%George%jacob.george@sydney.edu.au%0,                    Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ivan%Lopez-Mendez%NULL%1,                    Jorge%Aquino-Matus%NULL%1,                    Sofia Murua-Beltrán%Gall%NULL%1,                    Jose D.%Prieto-Nava%NULL%1,                    Eva%Juarez-Hernandez%NULL%1,                    Misael%Uribe%NULL%1,                    Graciela%Castro-Narro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roberta%Forlano%NULL%1,                    Benjamin H.%Mullish%NULL%2,                    Benjamin H.%Mullish%NULL%0,                    Sujit K.%Mukherjee%NULL%1,                    Rooshi%Nathwani%NULL%1,                    Cristopher%Harlow%NULL%1,                    Peter%Crook%NULL%1,                    Rebekah%Judge%NULL%1,                    Anet%Soubieres%NULL%2,                    Anet%Soubieres%NULL%0,                    Paul%Middleton%NULL%1,                    Anna%Daunt%NULL%1,                    Pablo%Perez-Guzman%NULL%1,                    Nowlan%Selvapatt%NULL%1,                    Maud%Lemoine%NULL%1,                    Ameet%Dhar%NULL%1,                    Mark R.%Thursz%NULL%1,                    Shevanthi%Nayagam%NULL%1,                    Pinelopi%Manousou%NULL%1,                    Wan-Long%Chuang%NULL%2,                    Wan-Long%Chuang%NULL%0,                    NULL%NULL%NULL%3,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mahmud%Mahamid%NULL%1,                    Wiliam%Nseir%NULL%1,                    Tawfik%Khoury%NULL%1,                    Baker%Mahamid%NULL%1,                    Adi%Nubania%NULL%1,                    Kamal%Sub-Laban%NULL%1,                    Joel%Schifter%NULL%1,                    Amir%Mari%NULL%1,                    Wisam%Sbeit%NULL%1,                    Eran%Goldin%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1436,7 +1514,7 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
@@ -1465,7 +1543,7 @@
         <v>260</v>
       </c>
       <c r="E3" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -1494,7 +1572,7 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1523,7 +1601,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1552,7 +1630,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
@@ -1581,7 +1659,7 @@
         <v>158</v>
       </c>
       <c r="E7" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1610,7 +1688,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -1639,7 +1717,7 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
@@ -1668,7 +1746,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -1697,7 +1775,7 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1726,7 +1804,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1755,7 +1833,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -1784,7 +1862,7 @@
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="F14" t="s">
         <v>85</v>

--- a/Covid_19_Dataset_and_References/References/9.xlsx
+++ b/Covid_19_Dataset_and_References/References/9.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="351">
   <si>
     <t>Doi</t>
   </si>
@@ -1182,6 +1182,45 @@
   </si>
   <si>
     <t>[Mahmud%Mahamid%NULL%1,                    Wiliam%Nseir%NULL%1,                    Tawfik%Khoury%NULL%1,                    Baker%Mahamid%NULL%1,                    Adi%Nubania%NULL%1,                    Kamal%Sub-Laban%NULL%1,                    Joel%Schifter%NULL%1,                    Amir%Mari%NULL%1,                    Wisam%Sbeit%NULL%1,                    Eran%Goldin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nikroo%Hashemi%NULL%1,                     Kathleen%Viveiros%NULL%2,                     Walker D.%Redd%NULL%1,                     Joyce C.%Zhou%NULL%1,                     Thomas R.%McCarty%NULL%1,                     Ahmad N.%Bazarbashi%NULL%1,                     Kelly E.%Hathorn%NULL%1,                     Danny%Wong%NULL%1,                     Cheikh%Njie%NULL%1,                     Lin%Shen%NULL%1,                     Walter W.%Chan%wwchan@bwh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Vincent L.%Chen%vichen@med.umich.edu%1,                     Fadi%Hawa%NULL%2,                     Fadi%Hawa%NULL%0,                     Jeffrey A.%Berinstein%NULL%1,                     Chanakyaram A.%Reddy%NULL%1,                     Ihab%Kassab%NULL%1,                     Kevin D.%Platt%NULL%1,                     Chia-Yang%Hsu%NULL%1,                     Calen A.%Steiner%NULL%1,                     Jeremy%Louissaint%NULL%1,                     Naresh T.%Gunaratnam%NULL%1,                     Pratima%Sharma%pratimas@med.umich.edu%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%NULL%2,                     Christopher J.%Tignanelli%NULL%1,                     Nirjhar%Dutta%NULL%1,                     Emma%Jones%NULL%1,                     Leonardo%Tamaritz%NULL%1,                     Jeanne%Clark%NULL%1,                     Genevieve%Melton-Meaux%NULL%1,                     Michael%Usher%NULL%1,                     Sayeed%Ikramuddin%NULL%1,                      C.%Bramante%null%1,                      C. J.% Tignanelli%null%1,                      N.% Dutta%null%1,                      E.% Jones%null%1,                      L.% Tamariz%null%1,                      J. M.% Clark%null%1,                      M.% Usher%null%1,                      G.% Metlon-Meaux%null%1,                      S. % Ikramuddin%null%1,                 C.%Bramante%null%1,                 C. J.% Tignanelli%null%1,                 N.% Dutta%null%1,                 E.% Jones%null%1,                 L.% Tamariz%null%1,                 J. M.% Clark%null%1,                 M.% Usher%null%1,                 G.% Metlon-Meaux%null%1,                 S. % Ikramuddin%null%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%2,                     Feng%Gao%NULL%1,                     Xiao-Bo%Wang%NULL%2,                     Qing-Feng%Sun%NULL%2,                     Ke-Hua%Pan%NULL%2,                     Ting-Yao%Wang%NULL%2,                     Hong-Lei%Ma%NULL%2,                     Yong-Ping%Chen%NULL%2,                     Wen-Yue%Liu%NULL%1,                     Jacob%George%NULL%4,                     Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%2,                     Li%Zhu%NULL%2,                     Li%Zhu%NULL%0,                     Jian%Wang%NULL%1,                     Leyang%Xue%NULL%1,                     Longgen%Liu%NULL%1,                     Xuebing%Yan%NULL%1,                     Songping%Huang%NULL%1,                     Yang%Li%NULL%1,                     Xiaomin%Yan%NULL%1,                     Biao%Zhang%NULL%1,                     Tianmin%Xu%NULL%1,                     Chunyang%Li%NULL%1,                     Fang%Ji%NULL%1,                     Fang%Ming%NULL%1,                     Yun%Zhao%NULL%1,                     Juan%Cheng%NULL%1,                     Yinling%Wang%NULL%1,                     Haiyan%Zhao%NULL%1,                     Shuqin%Hong%NULL%1,                     Kang%Chen%NULL%1,                     Xiang‐an%Zhao%NULL%1,                     Lei%Zou%NULL%1,                     Dawen%Sang%NULL%1,                     Huaping%Shao%NULL%1,                     Xinying%Guan%NULL%1,                     Xiaobing%Chen%NULL%1,                     Yuxin%Chen%NULL%1,                     Jie%Wei%NULL%1,                     Chuanwu%Zhu%zhuchw@126.com%1,                     Chao%Wu%dr.wu@nju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Byrne%Christopher D%coreGivesNoEmail%1,               Chen%Yong-Ping%coreGivesNoEmail%1,               Eslam%Mohammed%coreGivesNoEmail%1,               George%Jacob%coreGivesNoEmail%1,               Mantovani%Alessandro%coreGivesNoEmail%1,               Pan%Ke-Hua%coreGivesNoEmail%1,               Sun%Qing-Feng%coreGivesNoEmail%1,               Targher%Giovanni%coreGivesNoEmail%1,               Wang%Xiao-Bo%coreGivesNoEmail%1,               Yan%Hua-Dong%coreGivesNoEmail%1,               Zheng%Kenneth I%coreGivesNoEmail%1,               Zheng%Ming-Hua%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Donghee%Kim%NULL%1,                     Nia%Adeniji%NULL%1,                     Nyann%Latt%NULL%1,                     Sonal%Kumar%NULL%1,                     Patricia P.%Bloom%NULL%1,                     Elizabeth S.%Aby%NULL%1,                     Ponni%Perumalswami%NULL%1,                     Marina%Roytman%NULL%1,                     Michael%Li%NULL%1,                     Alexander S.%Vogel%NULL%1,                     Andreea M.%Catana%NULL%1,                     Kara%Wegermann%NULL%1,                     Rotonya M.%Carr%NULL%1,                     Costica%Aloman%NULL%1,                     Vincent L.%Chen%NULL%1,                     Atoosa%Rabiee%NULL%1,                     Brett%Sadowski%NULL%1,                     Veronica%Nguyen%NULL%1,                     Winston%Dunn%NULL%1,                     Kenneth D.%Chavin%NULL%1,                     Kali%Zhou%NULL%1,                     Blanca%Lizaola-Mayo%NULL%1,                     Akshata%Moghe%NULL%1,                     José%Debes%NULL%1,                     Tzu-Hao%Lee%NULL%1,                     Andrea D.%Branch%NULL%1,                     Kathleen%Viveiros%NULL%0,                     Walter%Chan%NULL%1,                     David M.%Chascsa%NULL%1,                     Paul%Kwo%NULL%1,                     Renumathy%Dhanasekaran%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Jie%Zhou%NULL%1,                     Kenneth I.%Zheng%NULL%3,                     Xiao-Bo%Wang%NULL%0,                     Hua-Dong%Yan%NULL%1,                     Qing-Feng%Sun%NULL%0,                     Ke-Hua%Pan%NULL%0,                     Ting-Yao%Wang%NULL%0,                     Hong-Lei%Ma%NULL%0,                     Yong-Ping%Chen%NULL%0,                     Jacob%George%NULL%0,                     Ming-Hua%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu‐Jie%Zhou%NULL%1,                     Kenneth I.%Zheng%NULL%0,                     Kenneth I.%Zheng%NULL%0,                     Xiao‐Bo%Wang%NULL%4,                     Xiao‐Bo%Wang%NULL%0,                     Qing‐Feng%Sun%NULL%2,                     Ke‐Hua%Pan%NULL%2,                     Ting‐Yao%Wang%NULL%2,                     Hong‐Lei%Ma%NULL%1,                     Yong‐Ping%Chen%NULL%2,                     Jacob%George%jacob.george@sydney.edu.au%0,                     Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Feng%Gao%NULL%1,                     Kenneth I%Zheng%NULL%1,                     Xiao‐Bo%Wang%NULL%0,                     Xiao‐Bo%Wang%NULL%0,                     Hua‐Dong%Yan%NULL%1,                     Qing‐Feng%Sun%NULL%0,                     Ke‐Hua%Pan%NULL%0,                     Ting‐Yao%Wang%NULL%0,                     Yong‐Ping%Chen%NULL%0,                     Jacob%George%jacob.george@sydney.edu.au%0,                     Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ivan%Lopez-Mendez%NULL%1,                     Jorge%Aquino-Matus%NULL%1,                     Sofia Murua-Beltrán%Gall%NULL%1,                     Jose D.%Prieto-Nava%NULL%1,                     Eva%Juarez-Hernandez%NULL%1,                     Misael%Uribe%NULL%1,                     Graciela%Castro-Narro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roberta%Forlano%NULL%1,                     Benjamin H.%Mullish%NULL%2,                     Benjamin H.%Mullish%NULL%0,                     Sujit K.%Mukherjee%NULL%1,                     Rooshi%Nathwani%NULL%1,                     Cristopher%Harlow%NULL%1,                     Peter%Crook%NULL%1,                     Rebekah%Judge%NULL%1,                     Anet%Soubieres%NULL%2,                     Anet%Soubieres%NULL%0,                     Paul%Middleton%NULL%1,                     Anna%Daunt%NULL%1,                     Pablo%Perez-Guzman%NULL%1,                     Nowlan%Selvapatt%NULL%1,                     Maud%Lemoine%NULL%1,                     Ameet%Dhar%NULL%1,                     Mark R.%Thursz%NULL%1,                     Shevanthi%Nayagam%NULL%1,                     Pinelopi%Manousou%NULL%1,                     Wan-Long%Chuang%NULL%2,                     Wan-Long%Chuang%NULL%0,                     NULL%NULL%NULL%2,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mahmud%Mahamid%NULL%1,                     Wiliam%Nseir%NULL%1,                     Tawfik%Khoury%NULL%1,                     Baker%Mahamid%NULL%1,                     Adi%Nubania%NULL%1,                     Kamal%Sub-Laban%NULL%1,                     Joel%Schifter%NULL%1,                     Amir%Mari%NULL%1,                     Wisam%Sbeit%NULL%1,                     Eran%Goldin%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1514,7 +1553,7 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
@@ -1543,7 +1582,7 @@
         <v>260</v>
       </c>
       <c r="E3" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -1572,7 +1611,7 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1601,7 +1640,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1630,7 +1669,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
@@ -1659,7 +1698,7 @@
         <v>158</v>
       </c>
       <c r="E7" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1688,7 +1727,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -1717,7 +1756,7 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
@@ -1746,7 +1785,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -1775,7 +1814,7 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1804,7 +1843,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1833,7 +1872,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -1862,7 +1901,7 @@
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="F14" t="s">
         <v>85</v>

--- a/Covid_19_Dataset_and_References/References/9.xlsx
+++ b/Covid_19_Dataset_and_References/References/9.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2214" uniqueCount="368">
   <si>
     <t>Doi</t>
   </si>
@@ -1221,6 +1221,57 @@
   </si>
   <si>
     <t>[Mahmud%Mahamid%NULL%1,                     Wiliam%Nseir%NULL%1,                     Tawfik%Khoury%NULL%1,                     Baker%Mahamid%NULL%1,                     Adi%Nubania%NULL%1,                     Kamal%Sub-Laban%NULL%1,                     Joel%Schifter%NULL%1,                     Amir%Mari%NULL%1,                     Wisam%Sbeit%NULL%1,                     Eran%Goldin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nikroo%Hashemi%NULL%1,                      Kathleen%Viveiros%NULL%2,                      Walker D.%Redd%NULL%1,                      Joyce C.%Zhou%NULL%1,                      Thomas R.%McCarty%NULL%1,                      Ahmad N.%Bazarbashi%NULL%1,                      Kelly E.%Hathorn%NULL%1,                      Danny%Wong%NULL%1,                      Cheikh%Njie%NULL%1,                      Lin%Shen%NULL%1,                      Walter W.%Chan%wwchan@bwh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Vincent L.%Chen%vichen@med.umich.edu%1,                      Fadi%Hawa%NULL%2,                      Fadi%Hawa%NULL%0,                      Jeffrey A.%Berinstein%NULL%1,                      Chanakyaram A.%Reddy%NULL%1,                      Ihab%Kassab%NULL%1,                      Kevin D.%Platt%NULL%1,                      Chia-Yang%Hsu%NULL%1,                      Calen A.%Steiner%NULL%1,                      Jeremy%Louissaint%NULL%1,                      Naresh T.%Gunaratnam%NULL%1,                      Pratima%Sharma%pratimas@med.umich.edu%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%NULL%2,                      Christopher J.%Tignanelli%NULL%1,                      Nirjhar%Dutta%NULL%1,                      Emma%Jones%NULL%1,                      Leonardo%Tamaritz%NULL%1,                      Jeanne%Clark%NULL%1,                      Genevieve%Melton-Meaux%NULL%1,                      Michael%Usher%NULL%1,                      Sayeed%Ikramuddin%NULL%1,                       C.%Bramante%null%1,                       C. J.% Tignanelli%null%1,                       N.% Dutta%null%1,                       E.% Jones%null%1,                       L.% Tamariz%null%1,                       J. M.% Clark%null%1,                       M.% Usher%null%1,                       G.% Metlon-Meaux%null%1,                       S. % Ikramuddin%null%1,                  C.%Bramante%null%1,                  C. J.% Tignanelli%null%1,                  N.% Dutta%null%1,                  E.% Jones%null%1,                  L.% Tamariz%null%1,                  J. M.% Clark%null%1,                  M.% Usher%null%1,                  G.% Metlon-Meaux%null%1,                  S. % Ikramuddin%null%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%2,                      Feng%Gao%NULL%1,                      Xiao-Bo%Wang%NULL%2,                      Qing-Feng%Sun%NULL%2,                      Ke-Hua%Pan%NULL%2,                      Ting-Yao%Wang%NULL%2,                      Hong-Lei%Ma%NULL%2,                      Yong-Ping%Chen%NULL%2,                      Wen-Yue%Liu%NULL%1,                      Jacob%George%NULL%4,                      Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%2,                      Li%Zhu%NULL%2,                      Li%Zhu%NULL%0,                      Jian%Wang%NULL%1,                      Leyang%Xue%NULL%1,                      Longgen%Liu%NULL%1,                      Xuebing%Yan%NULL%1,                      Songping%Huang%NULL%1,                      Yang%Li%NULL%1,                      Xiaomin%Yan%NULL%1,                      Biao%Zhang%NULL%1,                      Tianmin%Xu%NULL%1,                      Chunyang%Li%NULL%1,                      Fang%Ji%NULL%1,                      Fang%Ming%NULL%1,                      Yun%Zhao%NULL%1,                      Juan%Cheng%NULL%1,                      Yinling%Wang%NULL%1,                      Haiyan%Zhao%NULL%1,                      Shuqin%Hong%NULL%1,                      Kang%Chen%NULL%1,                      Xiang‐an%Zhao%NULL%1,                      Lei%Zou%NULL%1,                      Dawen%Sang%NULL%1,                      Huaping%Shao%NULL%1,                      Xinying%Guan%NULL%1,                      Xiaobing%Chen%NULL%1,                      Yuxin%Chen%NULL%1,                      Jie%Wei%NULL%1,                      Chuanwu%Zhu%zhuchw@126.com%1,                      Chao%Wu%dr.wu@nju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Byrne%Christopher D%coreGivesNoEmail%1,                Chen%Yong-Ping%coreGivesNoEmail%1,                Eslam%Mohammed%coreGivesNoEmail%1,                George%Jacob%coreGivesNoEmail%1,                Mantovani%Alessandro%coreGivesNoEmail%1,                Pan%Ke-Hua%coreGivesNoEmail%1,                Sun%Qing-Feng%coreGivesNoEmail%1,                Targher%Giovanni%coreGivesNoEmail%1,                Wang%Xiao-Bo%coreGivesNoEmail%1,                Yan%Hua-Dong%coreGivesNoEmail%1,                Zheng%Kenneth I%coreGivesNoEmail%1,                Zheng%Ming-Hua%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Donghee%Kim%NULL%1,                      Nia%Adeniji%NULL%1,                      Nyann%Latt%NULL%1,                      Sonal%Kumar%NULL%1,                      Patricia P.%Bloom%NULL%1,                      Elizabeth S.%Aby%NULL%1,                      Ponni%Perumalswami%NULL%1,                      Marina%Roytman%NULL%1,                      Michael%Li%NULL%1,                      Alexander S.%Vogel%NULL%1,                      Andreea M.%Catana%NULL%1,                      Kara%Wegermann%NULL%1,                      Rotonya M.%Carr%NULL%1,                      Costica%Aloman%NULL%1,                      Vincent L.%Chen%NULL%1,                      Atoosa%Rabiee%NULL%1,                      Brett%Sadowski%NULL%1,                      Veronica%Nguyen%NULL%1,                      Winston%Dunn%NULL%1,                      Kenneth D.%Chavin%NULL%1,                      Kali%Zhou%NULL%1,                      Blanca%Lizaola-Mayo%NULL%1,                      Akshata%Moghe%NULL%1,                      José%Debes%NULL%1,                      Tzu-Hao%Lee%NULL%1,                      Andrea D.%Branch%NULL%1,                      Kathleen%Viveiros%NULL%0,                      Walter%Chan%NULL%1,                      David M.%Chascsa%NULL%1,                      Paul%Kwo%NULL%1,                      Renumathy%Dhanasekaran%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Jie%Zhou%NULL%1,                      Kenneth I.%Zheng%NULL%3,                      Xiao-Bo%Wang%NULL%0,                      Hua-Dong%Yan%NULL%1,                      Qing-Feng%Sun%NULL%0,                      Ke-Hua%Pan%NULL%0,                      Ting-Yao%Wang%NULL%0,                      Hong-Lei%Ma%NULL%0,                      Yong-Ping%Chen%NULL%0,                      Jacob%George%NULL%0,                      Ming-Hua%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu‐Jie%Zhou%NULL%1,                      Kenneth I.%Zheng%NULL%0,                      Kenneth I.%Zheng%NULL%0,                      Xiao‐Bo%Wang%NULL%4,                      Xiao‐Bo%Wang%NULL%0,                      Qing‐Feng%Sun%NULL%2,                      Ke‐Hua%Pan%NULL%2,                      Ting‐Yao%Wang%NULL%2,                      Hong‐Lei%Ma%NULL%1,                      Yong‐Ping%Chen%NULL%2,                      Jacob%George%jacob.george@sydney.edu.au%0,                      Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Feng%Gao%NULL%1,                      Kenneth I%Zheng%NULL%1,                      Xiao‐Bo%Wang%NULL%0,                      Xiao‐Bo%Wang%NULL%0,                      Hua‐Dong%Yan%NULL%1,                      Qing‐Feng%Sun%NULL%0,                      Ke‐Hua%Pan%NULL%0,                      Ting‐Yao%Wang%NULL%0,                      Yong‐Ping%Chen%NULL%0,                      Jacob%George%jacob.george@sydney.edu.au%0,                      Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ivan%Lopez-Mendez%NULL%1,                      Jorge%Aquino-Matus%NULL%1,                      Sofia Murua-Beltrán%Gall%NULL%1,                      Jose D.%Prieto-Nava%NULL%1,                      Eva%Juarez-Hernandez%NULL%1,                      Misael%Uribe%NULL%1,                      Graciela%Castro-Narro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roberta%Forlano%NULL%1,                      Benjamin H.%Mullish%NULL%2,                      Benjamin H.%Mullish%NULL%0,                      Sujit K.%Mukherjee%NULL%1,                      Rooshi%Nathwani%NULL%1,                      Cristopher%Harlow%NULL%1,                      Peter%Crook%NULL%1,                      Rebekah%Judge%NULL%1,                      Anet%Soubieres%NULL%2,                      Anet%Soubieres%NULL%0,                      Paul%Middleton%NULL%1,                      Anna%Daunt%NULL%1,                      Pablo%Perez-Guzman%NULL%1,                      Nowlan%Selvapatt%NULL%1,                      Maud%Lemoine%NULL%1,                      Ameet%Dhar%NULL%1,                      Mark R.%Thursz%NULL%1,                      Shevanthi%Nayagam%NULL%1,                      Pinelopi%Manousou%NULL%1,                      Wan-Long%Chuang%NULL%2,                      Wan-Long%Chuang%NULL%0,                      NULL%NULL%NULL%2,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mahmud%Mahamid%NULL%1,                      Wiliam%Nseir%NULL%1,                      Tawfik%Khoury%NULL%1,                      Baker%Mahamid%NULL%1,                      Adi%Nubania%NULL%1,                      Kamal%Sub-Laban%NULL%1,                      Joel%Schifter%NULL%1,                      Amir%Mari%NULL%1,                      Wisam%Sbeit%NULL%1,                      Eran%Goldin%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1553,7 +1604,7 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
@@ -1565,7 +1616,7 @@
         <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>137</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3">
@@ -1582,7 +1633,7 @@
         <v>260</v>
       </c>
       <c r="E3" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -1594,7 +1645,7 @@
         <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>139</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4">
@@ -1611,7 +1662,7 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1623,7 +1674,7 @@
         <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>137</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5">
@@ -1640,7 +1691,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1652,7 +1703,7 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>143</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6">
@@ -1669,7 +1720,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
@@ -1681,7 +1732,7 @@
         <v>52</v>
       </c>
       <c r="I6" t="s">
-        <v>137</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7">
@@ -1698,7 +1749,7 @@
         <v>158</v>
       </c>
       <c r="E7" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1710,7 +1761,7 @@
         <v>53</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8">
@@ -1727,7 +1778,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -1739,7 +1790,7 @@
         <v>53</v>
       </c>
       <c r="I8" t="s">
-        <v>143</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9">
@@ -1756,7 +1807,7 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
@@ -1768,7 +1819,7 @@
         <v>61</v>
       </c>
       <c r="I9" t="s">
-        <v>143</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10">
@@ -1785,7 +1836,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -1797,7 +1848,7 @@
         <v>66</v>
       </c>
       <c r="I10" t="s">
-        <v>137</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11">
@@ -1814,7 +1865,7 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1826,7 +1877,7 @@
         <v>71</v>
       </c>
       <c r="I11" t="s">
-        <v>137</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12">
@@ -1843,7 +1894,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1855,7 +1906,7 @@
         <v>76</v>
       </c>
       <c r="I12" t="s">
-        <v>143</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13">
@@ -1872,7 +1923,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -1884,7 +1935,7 @@
         <v>81</v>
       </c>
       <c r="I13" t="s">
-        <v>137</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14">
@@ -1901,7 +1952,7 @@
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="F14" t="s">
         <v>85</v>
@@ -1913,7 +1964,7 @@
         <v>86</v>
       </c>
       <c r="I14" t="s">
-        <v>137</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/9.xlsx
+++ b/Covid_19_Dataset_and_References/References/9.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2214" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="381">
   <si>
     <t>Doi</t>
   </si>
@@ -1272,6 +1272,45 @@
   </si>
   <si>
     <t>[Mahmud%Mahamid%NULL%1,                      Wiliam%Nseir%NULL%1,                      Tawfik%Khoury%NULL%1,                      Baker%Mahamid%NULL%1,                      Adi%Nubania%NULL%1,                      Kamal%Sub-Laban%NULL%1,                      Joel%Schifter%NULL%1,                      Amir%Mari%NULL%1,                      Wisam%Sbeit%NULL%1,                      Eran%Goldin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nikroo%Hashemi%NULL%1,                       Kathleen%Viveiros%NULL%2,                       Walker D.%Redd%NULL%1,                       Joyce C.%Zhou%NULL%1,                       Thomas R.%McCarty%NULL%1,                       Ahmad N.%Bazarbashi%NULL%1,                       Kelly E.%Hathorn%NULL%1,                       Danny%Wong%NULL%1,                       Cheikh%Njie%NULL%1,                       Lin%Shen%NULL%1,                       Walter W.%Chan%wwchan@bwh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Vincent L.%Chen%vichen@med.umich.edu%1,                       Fadi%Hawa%NULL%2,                       Fadi%Hawa%NULL%0,                       Jeffrey A.%Berinstein%NULL%1,                       Chanakyaram A.%Reddy%NULL%1,                       Ihab%Kassab%NULL%1,                       Kevin D.%Platt%NULL%1,                       Chia-Yang%Hsu%NULL%1,                       Calen A.%Steiner%NULL%1,                       Jeremy%Louissaint%NULL%1,                       Naresh T.%Gunaratnam%NULL%1,                       Pratima%Sharma%pratimas@med.umich.edu%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%NULL%2,                       Christopher J.%Tignanelli%NULL%1,                       Nirjhar%Dutta%NULL%1,                       Emma%Jones%NULL%1,                       Leonardo%Tamaritz%NULL%1,                       Jeanne%Clark%NULL%1,                       Genevieve%Melton-Meaux%NULL%1,                       Michael%Usher%NULL%1,                       Sayeed%Ikramuddin%NULL%1,                        C.%Bramante%null%1,                        C. J.% Tignanelli%null%1,                        N.% Dutta%null%1,                        E.% Jones%null%1,                        L.% Tamariz%null%1,                        J. M.% Clark%null%1,                        M.% Usher%null%1,                        G.% Metlon-Meaux%null%1,                        S. % Ikramuddin%null%1,                   C.%Bramante%null%1,                   C. J.% Tignanelli%null%1,                   N.% Dutta%null%1,                   E.% Jones%null%1,                   L.% Tamariz%null%1,                   J. M.% Clark%null%1,                   M.% Usher%null%1,                   G.% Metlon-Meaux%null%1,                   S. % Ikramuddin%null%1,  C.%Bramante%null%1,  C. J.% Tignanelli%null%1,  N.% Dutta%null%1,  E.% Jones%null%1,  L.% Tamariz%null%1,  J. M.% Clark%null%1,  M.% Usher%null%1,  G.% Metlon-Meaux%null%1,  S. % Ikramuddin%null%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%2,                       Feng%Gao%NULL%1,                       Xiao-Bo%Wang%NULL%2,                       Qing-Feng%Sun%NULL%2,                       Ke-Hua%Pan%NULL%2,                       Ting-Yao%Wang%NULL%2,                       Hong-Lei%Ma%NULL%2,                       Yong-Ping%Chen%NULL%2,                       Wen-Yue%Liu%NULL%1,                       Jacob%George%NULL%4,                       Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%2,                       Li%Zhu%NULL%2,                       Li%Zhu%NULL%0,                       Jian%Wang%NULL%1,                       Leyang%Xue%NULL%1,                       Longgen%Liu%NULL%1,                       Xuebing%Yan%NULL%1,                       Songping%Huang%NULL%1,                       Yang%Li%NULL%1,                       Xiaomin%Yan%NULL%1,                       Biao%Zhang%NULL%1,                       Tianmin%Xu%NULL%1,                       Chunyang%Li%NULL%1,                       Fang%Ji%NULL%1,                       Fang%Ming%NULL%1,                       Yun%Zhao%NULL%1,                       Juan%Cheng%NULL%1,                       Yinling%Wang%NULL%1,                       Haiyan%Zhao%NULL%1,                       Shuqin%Hong%NULL%1,                       Kang%Chen%NULL%1,                       Xiang‐an%Zhao%NULL%1,                       Lei%Zou%NULL%1,                       Dawen%Sang%NULL%1,                       Huaping%Shao%NULL%1,                       Xinying%Guan%NULL%1,                       Xiaobing%Chen%NULL%1,                       Yuxin%Chen%NULL%1,                       Jie%Wei%NULL%1,                       Chuanwu%Zhu%zhuchw@126.com%1,                       Chao%Wu%dr.wu@nju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Byrne%Christopher D%coreGivesNoEmail%1,                 Chen%Yong-Ping%coreGivesNoEmail%1,                 Eslam%Mohammed%coreGivesNoEmail%1,                 George%Jacob%coreGivesNoEmail%1,                 Mantovani%Alessandro%coreGivesNoEmail%1,                 Pan%Ke-Hua%coreGivesNoEmail%1,                 Sun%Qing-Feng%coreGivesNoEmail%1,                 Targher%Giovanni%coreGivesNoEmail%1,                 Wang%Xiao-Bo%coreGivesNoEmail%1,                 Yan%Hua-Dong%coreGivesNoEmail%1,                 Zheng%Kenneth I%coreGivesNoEmail%1,                 Zheng%Ming-Hua%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Donghee%Kim%NULL%1,                       Nia%Adeniji%NULL%1,                       Nyann%Latt%NULL%1,                       Sonal%Kumar%NULL%1,                       Patricia P.%Bloom%NULL%1,                       Elizabeth S.%Aby%NULL%1,                       Ponni%Perumalswami%NULL%1,                       Marina%Roytman%NULL%1,                       Michael%Li%NULL%1,                       Alexander S.%Vogel%NULL%1,                       Andreea M.%Catana%NULL%1,                       Kara%Wegermann%NULL%1,                       Rotonya M.%Carr%NULL%1,                       Costica%Aloman%NULL%1,                       Vincent L.%Chen%NULL%1,                       Atoosa%Rabiee%NULL%1,                       Brett%Sadowski%NULL%1,                       Veronica%Nguyen%NULL%1,                       Winston%Dunn%NULL%1,                       Kenneth D.%Chavin%NULL%1,                       Kali%Zhou%NULL%1,                       Blanca%Lizaola-Mayo%NULL%1,                       Akshata%Moghe%NULL%1,                       José%Debes%NULL%1,                       Tzu-Hao%Lee%NULL%1,                       Andrea D.%Branch%NULL%1,                       Kathleen%Viveiros%NULL%0,                       Walter%Chan%NULL%1,                       David M.%Chascsa%NULL%1,                       Paul%Kwo%NULL%1,                       Renumathy%Dhanasekaran%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Jie%Zhou%NULL%1,                       Kenneth I.%Zheng%NULL%3,                       Xiao-Bo%Wang%NULL%0,                       Hua-Dong%Yan%NULL%1,                       Qing-Feng%Sun%NULL%0,                       Ke-Hua%Pan%NULL%0,                       Ting-Yao%Wang%NULL%0,                       Hong-Lei%Ma%NULL%0,                       Yong-Ping%Chen%NULL%0,                       Jacob%George%NULL%0,                       Ming-Hua%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu‐Jie%Zhou%NULL%1,                       Kenneth I.%Zheng%NULL%0,                       Kenneth I.%Zheng%NULL%0,                       Xiao‐Bo%Wang%NULL%4,                       Xiao‐Bo%Wang%NULL%0,                       Qing‐Feng%Sun%NULL%2,                       Ke‐Hua%Pan%NULL%2,                       Ting‐Yao%Wang%NULL%2,                       Hong‐Lei%Ma%NULL%1,                       Yong‐Ping%Chen%NULL%2,                       Jacob%George%jacob.george@sydney.edu.au%0,                       Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Feng%Gao%NULL%1,                       Kenneth I%Zheng%NULL%1,                       Xiao‐Bo%Wang%NULL%0,                       Xiao‐Bo%Wang%NULL%0,                       Hua‐Dong%Yan%NULL%1,                       Qing‐Feng%Sun%NULL%0,                       Ke‐Hua%Pan%NULL%0,                       Ting‐Yao%Wang%NULL%0,                       Yong‐Ping%Chen%NULL%0,                       Jacob%George%jacob.george@sydney.edu.au%0,                       Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ivan%Lopez-Mendez%NULL%1,                       Jorge%Aquino-Matus%NULL%1,                       Sofia Murua-Beltrán%Gall%NULL%1,                       Jose D.%Prieto-Nava%NULL%1,                       Eva%Juarez-Hernandez%NULL%1,                       Misael%Uribe%NULL%1,                       Graciela%Castro-Narro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roberta%Forlano%NULL%1,                       Benjamin H.%Mullish%NULL%2,                       Benjamin H.%Mullish%NULL%0,                       Sujit K.%Mukherjee%NULL%1,                       Rooshi%Nathwani%NULL%1,                       Cristopher%Harlow%NULL%1,                       Peter%Crook%NULL%1,                       Rebekah%Judge%NULL%1,                       Anet%Soubieres%NULL%2,                       Anet%Soubieres%NULL%0,                       Paul%Middleton%NULL%1,                       Anna%Daunt%NULL%1,                       Pablo%Perez-Guzman%NULL%1,                       Nowlan%Selvapatt%NULL%1,                       Maud%Lemoine%NULL%1,                       Ameet%Dhar%NULL%1,                       Mark R.%Thursz%NULL%1,                       Shevanthi%Nayagam%NULL%1,                       Pinelopi%Manousou%NULL%1,                       Wan-Long%Chuang%NULL%2,                       Wan-Long%Chuang%NULL%0,                       NULL%NULL%NULL%2,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mahmud%Mahamid%NULL%1,                       Wiliam%Nseir%NULL%1,                       Tawfik%Khoury%NULL%1,                       Baker%Mahamid%NULL%1,                       Adi%Nubania%NULL%1,                       Kamal%Sub-Laban%NULL%1,                       Joel%Schifter%NULL%1,                       Amir%Mari%NULL%1,                       Wisam%Sbeit%NULL%1,                       Eran%Goldin%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1604,7 +1643,7 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
@@ -1633,7 +1672,7 @@
         <v>260</v>
       </c>
       <c r="E3" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -1662,7 +1701,7 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1691,7 +1730,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1720,7 +1759,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
@@ -1749,7 +1788,7 @@
         <v>158</v>
       </c>
       <c r="E7" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1778,7 +1817,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -1807,7 +1846,7 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
@@ -1836,7 +1875,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -1865,7 +1904,7 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1894,7 +1933,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1923,7 +1962,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -1952,7 +1991,7 @@
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="F14" t="s">
         <v>85</v>

--- a/Covid_19_Dataset_and_References/References/9.xlsx
+++ b/Covid_19_Dataset_and_References/References/9.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2872" uniqueCount="447">
   <si>
     <t>Doi</t>
   </si>
@@ -1311,6 +1311,204 @@
   </si>
   <si>
     <t>[Mahmud%Mahamid%NULL%1,                       Wiliam%Nseir%NULL%1,                       Tawfik%Khoury%NULL%1,                       Baker%Mahamid%NULL%1,                       Adi%Nubania%NULL%1,                       Kamal%Sub-Laban%NULL%1,                       Joel%Schifter%NULL%1,                       Amir%Mari%NULL%1,                       Wisam%Sbeit%NULL%1,                       Eran%Goldin%NULL%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Nikroo%Hashemi%NULL%1,                        Kathleen%Viveiros%NULL%2,                        Walker D.%Redd%NULL%1,                        Joyce C.%Zhou%NULL%1,                        Thomas R.%McCarty%NULL%1,                        Ahmad N.%Bazarbashi%NULL%1,                        Kelly E.%Hathorn%NULL%1,                        Danny%Wong%NULL%1,                        Cheikh%Njie%NULL%1,                        Lin%Shen%NULL%1,                        Walter W.%Chan%wwchan@bwh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Vincent L.%Chen%vichen@med.umich.edu%1,                        Fadi%Hawa%NULL%2,                        Fadi%Hawa%NULL%0,                        Jeffrey A.%Berinstein%NULL%1,                        Chanakyaram A.%Reddy%NULL%1,                        Ihab%Kassab%NULL%1,                        Kevin D.%Platt%NULL%1,                        Chia-Yang%Hsu%NULL%1,                        Calen A.%Steiner%NULL%1,                        Jeremy%Louissaint%NULL%1,                        Naresh T.%Gunaratnam%NULL%1,                        Pratima%Sharma%pratimas@med.umich.edu%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%NULL%2,                        Christopher J.%Tignanelli%NULL%1,                        Nirjhar%Dutta%NULL%1,                        Emma%Jones%NULL%1,                        Leonardo%Tamaritz%NULL%1,                        Jeanne%Clark%NULL%1,                        Genevieve%Melton-Meaux%NULL%1,                        Michael%Usher%NULL%1,                        Sayeed%Ikramuddin%NULL%1,                         C.%Bramante%null%1,                         C. J.% Tignanelli%null%1,                         N.% Dutta%null%1,                         E.% Jones%null%1,                         L.% Tamariz%null%1,                         J. M.% Clark%null%1,                         M.% Usher%null%1,                         G.% Metlon-Meaux%null%1,                         S. % Ikramuddin%null%1,                    C.%Bramante%null%1,                    C. J.% Tignanelli%null%1,                    N.% Dutta%null%1,                    E.% Jones%null%1,                    L.% Tamariz%null%1,                    J. M.% Clark%null%1,                    M.% Usher%null%1,                    G.% Metlon-Meaux%null%1,                    S. % Ikramuddin%null%1,   C.%Bramante%null%1,   C. J.% Tignanelli%null%1,   N.% Dutta%null%1,   E.% Jones%null%1,   L.% Tamariz%null%1,   J. M.% Clark%null%1,   M.% Usher%null%1,   G.% Metlon-Meaux%null%1,   S. % Ikramuddin%null%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%2,                        Feng%Gao%NULL%1,                        Xiao-Bo%Wang%NULL%2,                        Qing-Feng%Sun%NULL%2,                        Ke-Hua%Pan%NULL%2,                        Ting-Yao%Wang%NULL%2,                        Hong-Lei%Ma%NULL%2,                        Yong-Ping%Chen%NULL%2,                        Wen-Yue%Liu%NULL%1,                        Jacob%George%NULL%4,                        Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%2,                        Li%Zhu%NULL%2,                        Li%Zhu%NULL%0,                        Jian%Wang%NULL%1,                        Leyang%Xue%NULL%1,                        Longgen%Liu%NULL%1,                        Xuebing%Yan%NULL%1,                        Songping%Huang%NULL%1,                        Yang%Li%NULL%1,                        Xiaomin%Yan%NULL%1,                        Biao%Zhang%NULL%1,                        Tianmin%Xu%NULL%1,                        Chunyang%Li%NULL%1,                        Fang%Ji%NULL%1,                        Fang%Ming%NULL%1,                        Yun%Zhao%NULL%1,                        Juan%Cheng%NULL%1,                        Yinling%Wang%NULL%1,                        Haiyan%Zhao%NULL%1,                        Shuqin%Hong%NULL%1,                        Kang%Chen%NULL%1,                        Xiang‐an%Zhao%NULL%1,                        Lei%Zou%NULL%1,                        Dawen%Sang%NULL%1,                        Huaping%Shao%NULL%1,                        Xinying%Guan%NULL%1,                        Xiaobing%Chen%NULL%1,                        Yuxin%Chen%NULL%1,                        Jie%Wei%NULL%1,                        Chuanwu%Zhu%zhuchw@126.com%1,                        Chao%Wu%dr.wu@nju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Byrne%Christopher D%coreGivesNoEmail%1,                  Chen%Yong-Ping%coreGivesNoEmail%1,                  Eslam%Mohammed%coreGivesNoEmail%1,                  George%Jacob%coreGivesNoEmail%1,                  Mantovani%Alessandro%coreGivesNoEmail%1,                  Pan%Ke-Hua%coreGivesNoEmail%1,                  Sun%Qing-Feng%coreGivesNoEmail%1,                  Targher%Giovanni%coreGivesNoEmail%1,                  Wang%Xiao-Bo%coreGivesNoEmail%1,                  Yan%Hua-Dong%coreGivesNoEmail%1,                  Zheng%Kenneth I%coreGivesNoEmail%1,                  Zheng%Ming-Hua%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Donghee%Kim%NULL%1,                        Nia%Adeniji%NULL%1,                        Nyann%Latt%NULL%1,                        Sonal%Kumar%NULL%1,                        Patricia P.%Bloom%NULL%1,                        Elizabeth S.%Aby%NULL%1,                        Ponni%Perumalswami%NULL%1,                        Marina%Roytman%NULL%1,                        Michael%Li%NULL%1,                        Alexander S.%Vogel%NULL%1,                        Andreea M.%Catana%NULL%1,                        Kara%Wegermann%NULL%1,                        Rotonya M.%Carr%NULL%1,                        Costica%Aloman%NULL%1,                        Vincent L.%Chen%NULL%1,                        Atoosa%Rabiee%NULL%1,                        Brett%Sadowski%NULL%1,                        Veronica%Nguyen%NULL%1,                        Winston%Dunn%NULL%1,                        Kenneth D.%Chavin%NULL%1,                        Kali%Zhou%NULL%1,                        Blanca%Lizaola-Mayo%NULL%1,                        Akshata%Moghe%NULL%1,                        José%Debes%NULL%1,                        Tzu-Hao%Lee%NULL%1,                        Andrea D.%Branch%NULL%1,                        Kathleen%Viveiros%NULL%0,                        Walter%Chan%NULL%1,                        David M.%Chascsa%NULL%1,                        Paul%Kwo%NULL%1,                        Renumathy%Dhanasekaran%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Jie%Zhou%NULL%1,                        Kenneth I.%Zheng%NULL%3,                        Xiao-Bo%Wang%NULL%0,                        Hua-Dong%Yan%NULL%1,                        Qing-Feng%Sun%NULL%0,                        Ke-Hua%Pan%NULL%0,                        Ting-Yao%Wang%NULL%0,                        Hong-Lei%Ma%NULL%0,                        Yong-Ping%Chen%NULL%0,                        Jacob%George%NULL%0,                        Ming-Hua%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu‐Jie%Zhou%NULL%1,                        Kenneth I.%Zheng%NULL%0,                        Kenneth I.%Zheng%NULL%0,                        Xiao‐Bo%Wang%NULL%4,                        Xiao‐Bo%Wang%NULL%0,                        Qing‐Feng%Sun%NULL%2,                        Ke‐Hua%Pan%NULL%2,                        Ting‐Yao%Wang%NULL%2,                        Hong‐Lei%Ma%NULL%1,                        Yong‐Ping%Chen%NULL%2,                        Jacob%George%jacob.george@sydney.edu.au%0,                        Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Feng%Gao%NULL%1,                        Kenneth I%Zheng%NULL%1,                        Xiao‐Bo%Wang%NULL%0,                        Xiao‐Bo%Wang%NULL%0,                        Hua‐Dong%Yan%NULL%1,                        Qing‐Feng%Sun%NULL%0,                        Ke‐Hua%Pan%NULL%0,                        Ting‐Yao%Wang%NULL%0,                        Yong‐Ping%Chen%NULL%0,                        Jacob%George%jacob.george@sydney.edu.au%0,                        Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ivan%Lopez-Mendez%NULL%1,                        Jorge%Aquino-Matus%NULL%1,                        Sofia Murua-Beltrán%Gall%NULL%1,                        Jose D.%Prieto-Nava%NULL%1,                        Eva%Juarez-Hernandez%NULL%1,                        Misael%Uribe%NULL%1,                        Graciela%Castro-Narro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roberta%Forlano%NULL%1,                        Benjamin H.%Mullish%NULL%2,                        Benjamin H.%Mullish%NULL%0,                        Sujit K.%Mukherjee%NULL%1,                        Rooshi%Nathwani%NULL%1,                        Cristopher%Harlow%NULL%1,                        Peter%Crook%NULL%1,                        Rebekah%Judge%NULL%1,                        Anet%Soubieres%NULL%2,                        Anet%Soubieres%NULL%0,                        Paul%Middleton%NULL%1,                        Anna%Daunt%NULL%1,                        Pablo%Perez-Guzman%NULL%1,                        Nowlan%Selvapatt%NULL%1,                        Maud%Lemoine%NULL%1,                        Ameet%Dhar%NULL%1,                        Mark R.%Thursz%NULL%1,                        Shevanthi%Nayagam%NULL%1,                        Pinelopi%Manousou%NULL%1,                        Wan-Long%Chuang%NULL%2,                        Wan-Long%Chuang%NULL%0,                        NULL%NULL%NULL%2,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mahmud%Mahamid%NULL%1,                        Wiliam%Nseir%NULL%1,                        Tawfik%Khoury%NULL%1,                        Baker%Mahamid%NULL%1,                        Adi%Nubania%NULL%1,                        Kamal%Sub-Laban%NULL%1,                        Joel%Schifter%NULL%1,                        Amir%Mari%NULL%1,                        Wisam%Sbeit%NULL%1,                        Eran%Goldin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nikroo%Hashemi%NULL%1,                         Kathleen%Viveiros%NULL%2,                         Walker D.%Redd%NULL%1,                         Joyce C.%Zhou%NULL%1,                         Thomas R.%McCarty%NULL%1,                         Ahmad N.%Bazarbashi%NULL%1,                         Kelly E.%Hathorn%NULL%1,                         Danny%Wong%NULL%1,                         Cheikh%Njie%NULL%1,                         Lin%Shen%NULL%1,                         Walter W.%Chan%wwchan@bwh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Vincent L.%Chen%vichen@med.umich.edu%1,                         Fadi%Hawa%NULL%2,                         Fadi%Hawa%NULL%0,                         Jeffrey A.%Berinstein%NULL%1,                         Chanakyaram A.%Reddy%NULL%1,                         Ihab%Kassab%NULL%1,                         Kevin D.%Platt%NULL%1,                         Chia-Yang%Hsu%NULL%1,                         Calen A.%Steiner%NULL%1,                         Jeremy%Louissaint%NULL%1,                         Naresh T.%Gunaratnam%NULL%1,                         Pratima%Sharma%pratimas@med.umich.edu%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%NULL%2,                         Christopher J.%Tignanelli%NULL%1,                         Nirjhar%Dutta%NULL%1,                         Emma%Jones%NULL%1,                         Leonardo%Tamaritz%NULL%1,                         Jeanne%Clark%NULL%1,                         Genevieve%Melton-Meaux%NULL%1,                         Michael%Usher%NULL%1,                         Sayeed%Ikramuddin%NULL%1,                          C.%Bramante%null%1,                          C. J.% Tignanelli%null%1,                          N.% Dutta%null%1,                          E.% Jones%null%1,                          L.% Tamariz%null%1,                          J. M.% Clark%null%1,                          M.% Usher%null%1,                          G.% Metlon-Meaux%null%1,                          S. % Ikramuddin%null%1,                     C.%Bramante%null%1,                     C. J.% Tignanelli%null%1,                     N.% Dutta%null%1,                     E.% Jones%null%1,                     L.% Tamariz%null%1,                     J. M.% Clark%null%1,                     M.% Usher%null%1,                     G.% Metlon-Meaux%null%1,                     S. % Ikramuddin%null%1,    C.%Bramante%null%1,    C. J.% Tignanelli%null%1,    N.% Dutta%null%1,    E.% Jones%null%1,    L.% Tamariz%null%1,    J. M.% Clark%null%1,    M.% Usher%null%1,    G.% Metlon-Meaux%null%1,    S. % Ikramuddin%null%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%2,                         Feng%Gao%NULL%1,                         Xiao-Bo%Wang%NULL%2,                         Qing-Feng%Sun%NULL%2,                         Ke-Hua%Pan%NULL%2,                         Ting-Yao%Wang%NULL%2,                         Hong-Lei%Ma%NULL%2,                         Yong-Ping%Chen%NULL%2,                         Wen-Yue%Liu%NULL%1,                         Jacob%George%NULL%4,                         Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%2,                         Li%Zhu%NULL%2,                         Li%Zhu%NULL%0,                         Jian%Wang%NULL%1,                         Leyang%Xue%NULL%1,                         Longgen%Liu%NULL%1,                         Xuebing%Yan%NULL%1,                         Songping%Huang%NULL%1,                         Yang%Li%NULL%1,                         Xiaomin%Yan%NULL%1,                         Biao%Zhang%NULL%1,                         Tianmin%Xu%NULL%1,                         Chunyang%Li%NULL%1,                         Fang%Ji%NULL%1,                         Fang%Ming%NULL%1,                         Yun%Zhao%NULL%1,                         Juan%Cheng%NULL%1,                         Yinling%Wang%NULL%1,                         Haiyan%Zhao%NULL%1,                         Shuqin%Hong%NULL%1,                         Kang%Chen%NULL%1,                         Xiang‐an%Zhao%NULL%1,                         Lei%Zou%NULL%1,                         Dawen%Sang%NULL%1,                         Huaping%Shao%NULL%1,                         Xinying%Guan%NULL%1,                         Xiaobing%Chen%NULL%1,                         Yuxin%Chen%NULL%1,                         Jie%Wei%NULL%1,                         Chuanwu%Zhu%zhuchw@126.com%1,                         Chao%Wu%dr.wu@nju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Byrne%Christopher D%coreGivesNoEmail%1,                   Chen%Yong-Ping%coreGivesNoEmail%1,                   Eslam%Mohammed%coreGivesNoEmail%1,                   George%Jacob%coreGivesNoEmail%1,                   Mantovani%Alessandro%coreGivesNoEmail%1,                   Pan%Ke-Hua%coreGivesNoEmail%1,                   Sun%Qing-Feng%coreGivesNoEmail%1,                   Targher%Giovanni%coreGivesNoEmail%1,                   Wang%Xiao-Bo%coreGivesNoEmail%1,                   Yan%Hua-Dong%coreGivesNoEmail%1,                   Zheng%Kenneth I%coreGivesNoEmail%1,                   Zheng%Ming-Hua%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Donghee%Kim%NULL%1,                         Nia%Adeniji%NULL%1,                         Nyann%Latt%NULL%1,                         Sonal%Kumar%NULL%1,                         Patricia P.%Bloom%NULL%1,                         Elizabeth S.%Aby%NULL%1,                         Ponni%Perumalswami%NULL%1,                         Marina%Roytman%NULL%1,                         Michael%Li%NULL%1,                         Alexander S.%Vogel%NULL%1,                         Andreea M.%Catana%NULL%1,                         Kara%Wegermann%NULL%1,                         Rotonya M.%Carr%NULL%1,                         Costica%Aloman%NULL%1,                         Vincent L.%Chen%NULL%1,                         Atoosa%Rabiee%NULL%1,                         Brett%Sadowski%NULL%1,                         Veronica%Nguyen%NULL%1,                         Winston%Dunn%NULL%1,                         Kenneth D.%Chavin%NULL%1,                         Kali%Zhou%NULL%1,                         Blanca%Lizaola-Mayo%NULL%1,                         Akshata%Moghe%NULL%1,                         José%Debes%NULL%1,                         Tzu-Hao%Lee%NULL%1,                         Andrea D.%Branch%NULL%1,                         Kathleen%Viveiros%NULL%0,                         Walter%Chan%NULL%1,                         David M.%Chascsa%NULL%1,                         Paul%Kwo%NULL%1,                         Renumathy%Dhanasekaran%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Jie%Zhou%NULL%1,                         Kenneth I.%Zheng%NULL%3,                         Xiao-Bo%Wang%NULL%0,                         Hua-Dong%Yan%NULL%1,                         Qing-Feng%Sun%NULL%0,                         Ke-Hua%Pan%NULL%0,                         Ting-Yao%Wang%NULL%0,                         Hong-Lei%Ma%NULL%0,                         Yong-Ping%Chen%NULL%0,                         Jacob%George%NULL%0,                         Ming-Hua%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu‐Jie%Zhou%NULL%1,                         Kenneth I.%Zheng%NULL%0,                         Kenneth I.%Zheng%NULL%0,                         Xiao‐Bo%Wang%NULL%4,                         Xiao‐Bo%Wang%NULL%0,                         Qing‐Feng%Sun%NULL%2,                         Ke‐Hua%Pan%NULL%2,                         Ting‐Yao%Wang%NULL%2,                         Hong‐Lei%Ma%NULL%1,                         Yong‐Ping%Chen%NULL%2,                         Jacob%George%jacob.george@sydney.edu.au%0,                         Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Feng%Gao%NULL%1,                         Kenneth I%Zheng%NULL%1,                         Xiao‐Bo%Wang%NULL%0,                         Xiao‐Bo%Wang%NULL%0,                         Hua‐Dong%Yan%NULL%1,                         Qing‐Feng%Sun%NULL%0,                         Ke‐Hua%Pan%NULL%0,                         Ting‐Yao%Wang%NULL%0,                         Yong‐Ping%Chen%NULL%0,                         Jacob%George%jacob.george@sydney.edu.au%0,                         Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ivan%Lopez-Mendez%NULL%1,                         Jorge%Aquino-Matus%NULL%1,                         Sofia Murua-Beltrán%Gall%NULL%1,                         Jose D.%Prieto-Nava%NULL%1,                         Eva%Juarez-Hernandez%NULL%1,                         Misael%Uribe%NULL%1,                         Graciela%Castro-Narro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roberta%Forlano%NULL%1,                         Benjamin H.%Mullish%NULL%2,                         Benjamin H.%Mullish%NULL%0,                         Sujit K.%Mukherjee%NULL%1,                         Rooshi%Nathwani%NULL%1,                         Cristopher%Harlow%NULL%1,                         Peter%Crook%NULL%1,                         Rebekah%Judge%NULL%1,                         Anet%Soubieres%NULL%2,                         Anet%Soubieres%NULL%0,                         Paul%Middleton%NULL%1,                         Anna%Daunt%NULL%1,                         Pablo%Perez-Guzman%NULL%1,                         Nowlan%Selvapatt%NULL%1,                         Maud%Lemoine%NULL%1,                         Ameet%Dhar%NULL%1,                         Mark R.%Thursz%NULL%1,                         Shevanthi%Nayagam%NULL%1,                         Pinelopi%Manousou%NULL%1,                         Wan-Long%Chuang%NULL%2,                         Wan-Long%Chuang%NULL%0,                         NULL%NULL%NULL%2,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mahmud%Mahamid%NULL%1,                         Wiliam%Nseir%NULL%1,                         Tawfik%Khoury%NULL%1,                         Baker%Mahamid%NULL%1,                         Adi%Nubania%NULL%1,                         Kamal%Sub-Laban%NULL%1,                         Joel%Schifter%NULL%1,                         Amir%Mari%NULL%1,                         Wisam%Sbeit%NULL%1,                         Eran%Goldin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nikroo%Hashemi%NULL%1,                          Kathleen%Viveiros%NULL%2,                          Walker D.%Redd%NULL%1,                          Joyce C.%Zhou%NULL%1,                          Thomas R.%McCarty%NULL%1,                          Ahmad N.%Bazarbashi%NULL%1,                          Kelly E.%Hathorn%NULL%1,                          Danny%Wong%NULL%1,                          Cheikh%Njie%NULL%1,                          Lin%Shen%NULL%1,                          Walter W.%Chan%wwchan@bwh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Vincent L.%Chen%vichen@med.umich.edu%1,                          Fadi%Hawa%NULL%2,                          Fadi%Hawa%NULL%0,                          Jeffrey A.%Berinstein%NULL%1,                          Chanakyaram A.%Reddy%NULL%1,                          Ihab%Kassab%NULL%1,                          Kevin D.%Platt%NULL%1,                          Chia-Yang%Hsu%NULL%1,                          Calen A.%Steiner%NULL%1,                          Jeremy%Louissaint%NULL%1,                          Naresh T.%Gunaratnam%NULL%1,                          Pratima%Sharma%pratimas@med.umich.edu%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%NULL%2,                          Christopher J.%Tignanelli%NULL%1,                          Nirjhar%Dutta%NULL%1,                          Emma%Jones%NULL%1,                          Leonardo%Tamaritz%NULL%1,                          Jeanne%Clark%NULL%1,                          Genevieve%Melton-Meaux%NULL%1,                          Michael%Usher%NULL%1,                          Sayeed%Ikramuddin%NULL%1,                           C.%Bramante%null%1,                           C. J.% Tignanelli%null%1,                           N.% Dutta%null%1,                           E.% Jones%null%1,                           L.% Tamariz%null%1,                           J. M.% Clark%null%1,                           M.% Usher%null%1,                           G.% Metlon-Meaux%null%1,                           S. % Ikramuddin%null%1,                      C.%Bramante%null%1,                      C. J.% Tignanelli%null%1,                      N.% Dutta%null%1,                      E.% Jones%null%1,                      L.% Tamariz%null%1,                      J. M.% Clark%null%1,                      M.% Usher%null%1,                      G.% Metlon-Meaux%null%1,                      S. % Ikramuddin%null%1,     C.%Bramante%null%1,     C. J.% Tignanelli%null%1,     N.% Dutta%null%1,     E.% Jones%null%1,     L.% Tamariz%null%1,     J. M.% Clark%null%1,     M.% Usher%null%1,     G.% Metlon-Meaux%null%1,     S. % Ikramuddin%null%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%2,                          Feng%Gao%NULL%1,                          Xiao-Bo%Wang%NULL%2,                          Qing-Feng%Sun%NULL%2,                          Ke-Hua%Pan%NULL%2,                          Ting-Yao%Wang%NULL%2,                          Hong-Lei%Ma%NULL%2,                          Yong-Ping%Chen%NULL%2,                          Wen-Yue%Liu%NULL%1,                          Jacob%George%NULL%4,                          Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%2,                          Li%Zhu%NULL%2,                          Li%Zhu%NULL%0,                          Jian%Wang%NULL%1,                          Leyang%Xue%NULL%1,                          Longgen%Liu%NULL%1,                          Xuebing%Yan%NULL%1,                          Songping%Huang%NULL%1,                          Yang%Li%NULL%1,                          Xiaomin%Yan%NULL%1,                          Biao%Zhang%NULL%1,                          Tianmin%Xu%NULL%1,                          Chunyang%Li%NULL%1,                          Fang%Ji%NULL%1,                          Fang%Ming%NULL%1,                          Yun%Zhao%NULL%1,                          Juan%Cheng%NULL%1,                          Yinling%Wang%NULL%1,                          Haiyan%Zhao%NULL%1,                          Shuqin%Hong%NULL%1,                          Kang%Chen%NULL%1,                          Xiang‐an%Zhao%NULL%1,                          Lei%Zou%NULL%1,                          Dawen%Sang%NULL%1,                          Huaping%Shao%NULL%1,                          Xinying%Guan%NULL%1,                          Xiaobing%Chen%NULL%1,                          Yuxin%Chen%NULL%1,                          Jie%Wei%NULL%1,                          Chuanwu%Zhu%zhuchw@126.com%1,                          Chao%Wu%dr.wu@nju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Byrne%Christopher D%coreGivesNoEmail%1,                    Chen%Yong-Ping%coreGivesNoEmail%1,                    Eslam%Mohammed%coreGivesNoEmail%1,                    George%Jacob%coreGivesNoEmail%1,                    Mantovani%Alessandro%coreGivesNoEmail%1,                    Pan%Ke-Hua%coreGivesNoEmail%1,                    Sun%Qing-Feng%coreGivesNoEmail%1,                    Targher%Giovanni%coreGivesNoEmail%1,                    Wang%Xiao-Bo%coreGivesNoEmail%1,                    Yan%Hua-Dong%coreGivesNoEmail%1,                    Zheng%Kenneth I%coreGivesNoEmail%1,                    Zheng%Ming-Hua%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Donghee%Kim%NULL%1,                          Nia%Adeniji%NULL%1,                          Nyann%Latt%NULL%1,                          Sonal%Kumar%NULL%1,                          Patricia P.%Bloom%NULL%1,                          Elizabeth S.%Aby%NULL%1,                          Ponni%Perumalswami%NULL%1,                          Marina%Roytman%NULL%1,                          Michael%Li%NULL%1,                          Alexander S.%Vogel%NULL%1,                          Andreea M.%Catana%NULL%1,                          Kara%Wegermann%NULL%1,                          Rotonya M.%Carr%NULL%1,                          Costica%Aloman%NULL%1,                          Vincent L.%Chen%NULL%1,                          Atoosa%Rabiee%NULL%1,                          Brett%Sadowski%NULL%1,                          Veronica%Nguyen%NULL%1,                          Winston%Dunn%NULL%1,                          Kenneth D.%Chavin%NULL%1,                          Kali%Zhou%NULL%1,                          Blanca%Lizaola-Mayo%NULL%1,                          Akshata%Moghe%NULL%1,                          José%Debes%NULL%1,                          Tzu-Hao%Lee%NULL%1,                          Andrea D.%Branch%NULL%1,                          Kathleen%Viveiros%NULL%0,                          Walter%Chan%NULL%1,                          David M.%Chascsa%NULL%1,                          Paul%Kwo%NULL%1,                          Renumathy%Dhanasekaran%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Jie%Zhou%NULL%1,                          Kenneth I.%Zheng%NULL%3,                          Xiao-Bo%Wang%NULL%0,                          Hua-Dong%Yan%NULL%1,                          Qing-Feng%Sun%NULL%0,                          Ke-Hua%Pan%NULL%0,                          Ting-Yao%Wang%NULL%0,                          Hong-Lei%Ma%NULL%0,                          Yong-Ping%Chen%NULL%0,                          Jacob%George%NULL%0,                          Ming-Hua%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu‐Jie%Zhou%NULL%1,                          Kenneth I.%Zheng%NULL%0,                          Kenneth I.%Zheng%NULL%0,                          Xiao‐Bo%Wang%NULL%4,                          Xiao‐Bo%Wang%NULL%0,                          Qing‐Feng%Sun%NULL%2,                          Ke‐Hua%Pan%NULL%2,                          Ting‐Yao%Wang%NULL%2,                          Hong‐Lei%Ma%NULL%1,                          Yong‐Ping%Chen%NULL%2,                          Jacob%George%jacob.george@sydney.edu.au%0,                          Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Feng%Gao%NULL%1,                          Kenneth I%Zheng%NULL%1,                          Xiao‐Bo%Wang%NULL%0,                          Xiao‐Bo%Wang%NULL%0,                          Hua‐Dong%Yan%NULL%1,                          Qing‐Feng%Sun%NULL%0,                          Ke‐Hua%Pan%NULL%0,                          Ting‐Yao%Wang%NULL%0,                          Yong‐Ping%Chen%NULL%0,                          Jacob%George%jacob.george@sydney.edu.au%0,                          Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ivan%Lopez-Mendez%NULL%1,                          Jorge%Aquino-Matus%NULL%1,                          Sofia Murua-Beltrán%Gall%NULL%1,                          Jose D.%Prieto-Nava%NULL%1,                          Eva%Juarez-Hernandez%NULL%1,                          Misael%Uribe%NULL%1,                          Graciela%Castro-Narro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roberta%Forlano%NULL%1,                          Benjamin H.%Mullish%NULL%2,                          Benjamin H.%Mullish%NULL%0,                          Sujit K.%Mukherjee%NULL%1,                          Rooshi%Nathwani%NULL%1,                          Cristopher%Harlow%NULL%1,                          Peter%Crook%NULL%1,                          Rebekah%Judge%NULL%1,                          Anet%Soubieres%NULL%2,                          Anet%Soubieres%NULL%0,                          Paul%Middleton%NULL%1,                          Anna%Daunt%NULL%1,                          Pablo%Perez-Guzman%NULL%1,                          Nowlan%Selvapatt%NULL%1,                          Maud%Lemoine%NULL%1,                          Ameet%Dhar%NULL%1,                          Mark R.%Thursz%NULL%1,                          Shevanthi%Nayagam%NULL%1,                          Pinelopi%Manousou%NULL%1,                          Wan-Long%Chuang%NULL%2,                          Wan-Long%Chuang%NULL%0,                          NULL%NULL%NULL%2,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mahmud%Mahamid%NULL%1,                          Wiliam%Nseir%NULL%1,                          Tawfik%Khoury%NULL%1,                          Baker%Mahamid%NULL%1,                          Adi%Nubania%NULL%1,                          Kamal%Sub-Laban%NULL%1,                          Joel%Schifter%NULL%1,                          Amir%Mari%NULL%1,                          Wisam%Sbeit%NULL%1,                          Eran%Goldin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nikroo%Hashemi%NULL%1,                           Kathleen%Viveiros%NULL%2,                           Walker D.%Redd%NULL%1,                           Joyce C.%Zhou%NULL%1,                           Thomas R.%McCarty%NULL%1,                           Ahmad N.%Bazarbashi%NULL%1,                           Kelly E.%Hathorn%NULL%1,                           Danny%Wong%NULL%1,                           Cheikh%Njie%NULL%1,                           Lin%Shen%NULL%1,                           Walter W.%Chan%wwchan@bwh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Vincent L.%Chen%vichen@med.umich.edu%1,                           Fadi%Hawa%NULL%2,                           Fadi%Hawa%NULL%0,                           Jeffrey A.%Berinstein%NULL%1,                           Chanakyaram A.%Reddy%NULL%1,                           Ihab%Kassab%NULL%1,                           Kevin D.%Platt%NULL%1,                           Chia-Yang%Hsu%NULL%1,                           Calen A.%Steiner%NULL%1,                           Jeremy%Louissaint%NULL%1,                           Naresh T.%Gunaratnam%NULL%1,                           Pratima%Sharma%pratimas@med.umich.edu%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%NULL%2,                           Christopher J.%Tignanelli%NULL%1,                           Nirjhar%Dutta%NULL%1,                           Emma%Jones%NULL%1,                           Leonardo%Tamaritz%NULL%1,                           Jeanne%Clark%NULL%1,                           Genevieve%Melton-Meaux%NULL%1,                           Michael%Usher%NULL%1,                           Sayeed%Ikramuddin%NULL%1,                            C.%Bramante%null%1,                            C. J.% Tignanelli%null%1,                            N.% Dutta%null%1,                            E.% Jones%null%1,                            L.% Tamariz%null%1,                            J. M.% Clark%null%1,                            M.% Usher%null%1,                            G.% Metlon-Meaux%null%1,                            S. % Ikramuddin%null%1,                       C.%Bramante%null%1,                       C. J.% Tignanelli%null%1,                       N.% Dutta%null%1,                       E.% Jones%null%1,                       L.% Tamariz%null%1,                       J. M.% Clark%null%1,                       M.% Usher%null%1,                       G.% Metlon-Meaux%null%1,                       S. % Ikramuddin%null%1,      C.%Bramante%null%1,      C. J.% Tignanelli%null%1,      N.% Dutta%null%1,      E.% Jones%null%1,      L.% Tamariz%null%1,      J. M.% Clark%null%1,      M.% Usher%null%1,      G.% Metlon-Meaux%null%1,      S. % Ikramuddin%null%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%2,                           Feng%Gao%NULL%1,                           Xiao-Bo%Wang%NULL%2,                           Qing-Feng%Sun%NULL%2,                           Ke-Hua%Pan%NULL%2,                           Ting-Yao%Wang%NULL%2,                           Hong-Lei%Ma%NULL%2,                           Yong-Ping%Chen%NULL%2,                           Wen-Yue%Liu%NULL%1,                           Jacob%George%NULL%4,                           Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%2,                           Li%Zhu%NULL%2,                           Li%Zhu%NULL%0,                           Jian%Wang%NULL%1,                           Leyang%Xue%NULL%1,                           Longgen%Liu%NULL%1,                           Xuebing%Yan%NULL%1,                           Songping%Huang%NULL%1,                           Yang%Li%NULL%1,                           Xiaomin%Yan%NULL%1,                           Biao%Zhang%NULL%1,                           Tianmin%Xu%NULL%1,                           Chunyang%Li%NULL%1,                           Fang%Ji%NULL%1,                           Fang%Ming%NULL%1,                           Yun%Zhao%NULL%1,                           Juan%Cheng%NULL%1,                           Yinling%Wang%NULL%1,                           Haiyan%Zhao%NULL%1,                           Shuqin%Hong%NULL%1,                           Kang%Chen%NULL%1,                           Xiang‐an%Zhao%NULL%1,                           Lei%Zou%NULL%1,                           Dawen%Sang%NULL%1,                           Huaping%Shao%NULL%1,                           Xinying%Guan%NULL%1,                           Xiaobing%Chen%NULL%1,                           Yuxin%Chen%NULL%1,                           Jie%Wei%NULL%1,                           Chuanwu%Zhu%zhuchw@126.com%1,                           Chao%Wu%dr.wu@nju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Byrne%Christopher D%coreGivesNoEmail%1,                     Chen%Yong-Ping%coreGivesNoEmail%1,                     Eslam%Mohammed%coreGivesNoEmail%1,                     George%Jacob%coreGivesNoEmail%1,                     Mantovani%Alessandro%coreGivesNoEmail%1,                     Pan%Ke-Hua%coreGivesNoEmail%1,                     Sun%Qing-Feng%coreGivesNoEmail%1,                     Targher%Giovanni%coreGivesNoEmail%1,                     Wang%Xiao-Bo%coreGivesNoEmail%1,                     Yan%Hua-Dong%coreGivesNoEmail%1,                     Zheng%Kenneth I%coreGivesNoEmail%1,                     Zheng%Ming-Hua%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Donghee%Kim%NULL%1,                           Nia%Adeniji%NULL%1,                           Nyann%Latt%NULL%1,                           Sonal%Kumar%NULL%1,                           Patricia P.%Bloom%NULL%1,                           Elizabeth S.%Aby%NULL%1,                           Ponni%Perumalswami%NULL%1,                           Marina%Roytman%NULL%1,                           Michael%Li%NULL%1,                           Alexander S.%Vogel%NULL%1,                           Andreea M.%Catana%NULL%1,                           Kara%Wegermann%NULL%1,                           Rotonya M.%Carr%NULL%1,                           Costica%Aloman%NULL%1,                           Vincent L.%Chen%NULL%1,                           Atoosa%Rabiee%NULL%1,                           Brett%Sadowski%NULL%1,                           Veronica%Nguyen%NULL%1,                           Winston%Dunn%NULL%1,                           Kenneth D.%Chavin%NULL%1,                           Kali%Zhou%NULL%1,                           Blanca%Lizaola-Mayo%NULL%1,                           Akshata%Moghe%NULL%1,                           José%Debes%NULL%1,                           Tzu-Hao%Lee%NULL%1,                           Andrea D.%Branch%NULL%1,                           Kathleen%Viveiros%NULL%0,                           Walter%Chan%NULL%1,                           David M.%Chascsa%NULL%1,                           Paul%Kwo%NULL%1,                           Renumathy%Dhanasekaran%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Jie%Zhou%NULL%1,                           Kenneth I.%Zheng%NULL%3,                           Xiao-Bo%Wang%NULL%0,                           Hua-Dong%Yan%NULL%1,                           Qing-Feng%Sun%NULL%0,                           Ke-Hua%Pan%NULL%0,                           Ting-Yao%Wang%NULL%0,                           Hong-Lei%Ma%NULL%0,                           Yong-Ping%Chen%NULL%0,                           Jacob%George%NULL%0,                           Ming-Hua%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu‐Jie%Zhou%NULL%1,                           Kenneth I.%Zheng%NULL%0,                           Kenneth I.%Zheng%NULL%0,                           Xiao‐Bo%Wang%NULL%4,                           Xiao‐Bo%Wang%NULL%0,                           Qing‐Feng%Sun%NULL%2,                           Ke‐Hua%Pan%NULL%2,                           Ting‐Yao%Wang%NULL%2,                           Hong‐Lei%Ma%NULL%1,                           Yong‐Ping%Chen%NULL%2,                           Jacob%George%jacob.george@sydney.edu.au%0,                           Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Feng%Gao%NULL%1,                           Kenneth I%Zheng%NULL%1,                           Xiao‐Bo%Wang%NULL%0,                           Xiao‐Bo%Wang%NULL%0,                           Hua‐Dong%Yan%NULL%1,                           Qing‐Feng%Sun%NULL%0,                           Ke‐Hua%Pan%NULL%0,                           Ting‐Yao%Wang%NULL%0,                           Yong‐Ping%Chen%NULL%0,                           Jacob%George%jacob.george@sydney.edu.au%0,                           Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ivan%Lopez-Mendez%NULL%1,                           Jorge%Aquino-Matus%NULL%1,                           Sofia Murua-Beltrán%Gall%NULL%1,                           Jose D.%Prieto-Nava%NULL%1,                           Eva%Juarez-Hernandez%NULL%1,                           Misael%Uribe%NULL%1,                           Graciela%Castro-Narro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roberta%Forlano%NULL%1,                           Benjamin H.%Mullish%NULL%2,                           Benjamin H.%Mullish%NULL%0,                           Sujit K.%Mukherjee%NULL%1,                           Rooshi%Nathwani%NULL%1,                           Cristopher%Harlow%NULL%1,                           Peter%Crook%NULL%1,                           Rebekah%Judge%NULL%1,                           Anet%Soubieres%NULL%2,                           Anet%Soubieres%NULL%0,                           Paul%Middleton%NULL%1,                           Anna%Daunt%NULL%1,                           Pablo%Perez-Guzman%NULL%1,                           Nowlan%Selvapatt%NULL%1,                           Maud%Lemoine%NULL%1,                           Ameet%Dhar%NULL%1,                           Mark R.%Thursz%NULL%1,                           Shevanthi%Nayagam%NULL%1,                           Pinelopi%Manousou%NULL%1,                           Wan-Long%Chuang%NULL%2,                           Wan-Long%Chuang%NULL%0,                           NULL%NULL%NULL%2,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mahmud%Mahamid%NULL%1,                           Wiliam%Nseir%NULL%1,                           Tawfik%Khoury%NULL%1,                           Baker%Mahamid%NULL%1,                           Adi%Nubania%NULL%1,                           Kamal%Sub-Laban%NULL%1,                           Joel%Schifter%NULL%1,                           Amir%Mari%NULL%1,                           Wisam%Sbeit%NULL%1,                           Eran%Goldin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nikroo%Hashemi%NULL%1,                            Kathleen%Viveiros%NULL%2,                            Walker D.%Redd%NULL%1,                            Joyce C.%Zhou%NULL%1,                            Thomas R.%McCarty%NULL%1,                            Ahmad N.%Bazarbashi%NULL%1,                            Kelly E.%Hathorn%NULL%1,                            Danny%Wong%NULL%1,                            Cheikh%Njie%NULL%1,                            Lin%Shen%NULL%1,                            Walter W.%Chan%wwchan@bwh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Vincent L.%Chen%vichen@med.umich.edu%1,                            Fadi%Hawa%NULL%2,                            Fadi%Hawa%NULL%0,                            Jeffrey A.%Berinstein%NULL%1,                            Chanakyaram A.%Reddy%NULL%1,                            Ihab%Kassab%NULL%1,                            Kevin D.%Platt%NULL%1,                            Chia-Yang%Hsu%NULL%1,                            Calen A.%Steiner%NULL%1,                            Jeremy%Louissaint%NULL%1,                            Naresh T.%Gunaratnam%NULL%1,                            Pratima%Sharma%pratimas@med.umich.edu%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%NULL%2,                            Christopher J.%Tignanelli%NULL%1,                            Nirjhar%Dutta%NULL%1,                            Emma%Jones%NULL%1,                            Leonardo%Tamaritz%NULL%1,                            Jeanne%Clark%NULL%1,                            Genevieve%Melton-Meaux%NULL%1,                            Michael%Usher%NULL%1,                            Sayeed%Ikramuddin%NULL%1,                             C.%Bramante%null%1,                             C. J.% Tignanelli%null%1,                             N.% Dutta%null%1,                             E.% Jones%null%1,                             L.% Tamariz%null%1,                             J. M.% Clark%null%1,                             M.% Usher%null%1,                             G.% Metlon-Meaux%null%1,                             S. % Ikramuddin%null%1,                        C.%Bramante%null%1,                        C. J.% Tignanelli%null%1,                        N.% Dutta%null%1,                        E.% Jones%null%1,                        L.% Tamariz%null%1,                        J. M.% Clark%null%1,                        M.% Usher%null%1,                        G.% Metlon-Meaux%null%1,                        S. % Ikramuddin%null%1,       C.%Bramante%null%1,       C. J.% Tignanelli%null%1,       N.% Dutta%null%1,       E.% Jones%null%1,       L.% Tamariz%null%1,       J. M.% Clark%null%1,       M.% Usher%null%1,       G.% Metlon-Meaux%null%1,       S. % Ikramuddin%null%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%2,                            Feng%Gao%NULL%1,                            Xiao-Bo%Wang%NULL%2,                            Qing-Feng%Sun%NULL%2,                            Ke-Hua%Pan%NULL%2,                            Ting-Yao%Wang%NULL%2,                            Hong-Lei%Ma%NULL%2,                            Yong-Ping%Chen%NULL%2,                            Wen-Yue%Liu%NULL%1,                            Jacob%George%NULL%4,                            Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%2,                            Li%Zhu%NULL%2,                            Li%Zhu%NULL%0,                            Jian%Wang%NULL%1,                            Leyang%Xue%NULL%1,                            Longgen%Liu%NULL%1,                            Xuebing%Yan%NULL%1,                            Songping%Huang%NULL%1,                            Yang%Li%NULL%1,                            Xiaomin%Yan%NULL%1,                            Biao%Zhang%NULL%1,                            Tianmin%Xu%NULL%1,                            Chunyang%Li%NULL%1,                            Fang%Ji%NULL%1,                            Fang%Ming%NULL%1,                            Yun%Zhao%NULL%1,                            Juan%Cheng%NULL%1,                            Yinling%Wang%NULL%1,                            Haiyan%Zhao%NULL%1,                            Shuqin%Hong%NULL%1,                            Kang%Chen%NULL%1,                            Xiang‐an%Zhao%NULL%1,                            Lei%Zou%NULL%1,                            Dawen%Sang%NULL%1,                            Huaping%Shao%NULL%1,                            Xinying%Guan%NULL%1,                            Xiaobing%Chen%NULL%1,                            Yuxin%Chen%NULL%1,                            Jie%Wei%NULL%1,                            Chuanwu%Zhu%zhuchw@126.com%1,                            Chao%Wu%dr.wu@nju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Byrne%Christopher D%coreGivesNoEmail%1,                      Chen%Yong-Ping%coreGivesNoEmail%1,                      Eslam%Mohammed%coreGivesNoEmail%1,                      George%Jacob%coreGivesNoEmail%1,                      Mantovani%Alessandro%coreGivesNoEmail%1,                      Pan%Ke-Hua%coreGivesNoEmail%1,                      Sun%Qing-Feng%coreGivesNoEmail%1,                      Targher%Giovanni%coreGivesNoEmail%1,                      Wang%Xiao-Bo%coreGivesNoEmail%1,                      Yan%Hua-Dong%coreGivesNoEmail%1,                      Zheng%Kenneth I%coreGivesNoEmail%1,                      Zheng%Ming-Hua%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Donghee%Kim%NULL%1,                            Nia%Adeniji%NULL%1,                            Nyann%Latt%NULL%1,                            Sonal%Kumar%NULL%1,                            Patricia P.%Bloom%NULL%1,                            Elizabeth S.%Aby%NULL%1,                            Ponni%Perumalswami%NULL%1,                            Marina%Roytman%NULL%1,                            Michael%Li%NULL%1,                            Alexander S.%Vogel%NULL%1,                            Andreea M.%Catana%NULL%1,                            Kara%Wegermann%NULL%1,                            Rotonya M.%Carr%NULL%1,                            Costica%Aloman%NULL%1,                            Vincent L.%Chen%NULL%1,                            Atoosa%Rabiee%NULL%1,                            Brett%Sadowski%NULL%1,                            Veronica%Nguyen%NULL%1,                            Winston%Dunn%NULL%1,                            Kenneth D.%Chavin%NULL%1,                            Kali%Zhou%NULL%1,                            Blanca%Lizaola-Mayo%NULL%1,                            Akshata%Moghe%NULL%1,                            José%Debes%NULL%1,                            Tzu-Hao%Lee%NULL%1,                            Andrea D.%Branch%NULL%1,                            Kathleen%Viveiros%NULL%0,                            Walter%Chan%NULL%1,                            David M.%Chascsa%NULL%1,                            Paul%Kwo%NULL%1,                            Renumathy%Dhanasekaran%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Jie%Zhou%NULL%1,                            Kenneth I.%Zheng%NULL%3,                            Xiao-Bo%Wang%NULL%0,                            Hua-Dong%Yan%NULL%1,                            Qing-Feng%Sun%NULL%0,                            Ke-Hua%Pan%NULL%0,                            Ting-Yao%Wang%NULL%0,                            Hong-Lei%Ma%NULL%0,                            Yong-Ping%Chen%NULL%0,                            Jacob%George%NULL%0,                            Ming-Hua%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu‐Jie%Zhou%NULL%1,                            Kenneth I.%Zheng%NULL%0,                            Kenneth I.%Zheng%NULL%0,                            Xiao‐Bo%Wang%NULL%4,                            Xiao‐Bo%Wang%NULL%0,                            Qing‐Feng%Sun%NULL%2,                            Ke‐Hua%Pan%NULL%2,                            Ting‐Yao%Wang%NULL%2,                            Hong‐Lei%Ma%NULL%1,                            Yong‐Ping%Chen%NULL%2,                            Jacob%George%jacob.george@sydney.edu.au%0,                            Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Feng%Gao%NULL%1,                            Kenneth I%Zheng%NULL%1,                            Xiao‐Bo%Wang%NULL%0,                            Xiao‐Bo%Wang%NULL%0,                            Hua‐Dong%Yan%NULL%1,                            Qing‐Feng%Sun%NULL%0,                            Ke‐Hua%Pan%NULL%0,                            Ting‐Yao%Wang%NULL%0,                            Yong‐Ping%Chen%NULL%0,                            Jacob%George%jacob.george@sydney.edu.au%0,                            Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ivan%Lopez-Mendez%NULL%1,                            Jorge%Aquino-Matus%NULL%1,                            Sofia Murua-Beltrán%Gall%NULL%1,                            Jose D.%Prieto-Nava%NULL%1,                            Eva%Juarez-Hernandez%NULL%1,                            Misael%Uribe%NULL%1,                            Graciela%Castro-Narro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roberta%Forlano%NULL%1,                            Benjamin H.%Mullish%NULL%2,                            Benjamin H.%Mullish%NULL%0,                            Sujit K.%Mukherjee%NULL%1,                            Rooshi%Nathwani%NULL%1,                            Cristopher%Harlow%NULL%1,                            Peter%Crook%NULL%1,                            Rebekah%Judge%NULL%1,                            Anet%Soubieres%NULL%2,                            Anet%Soubieres%NULL%0,                            Paul%Middleton%NULL%1,                            Anna%Daunt%NULL%1,                            Pablo%Perez-Guzman%NULL%1,                            Nowlan%Selvapatt%NULL%1,                            Maud%Lemoine%NULL%1,                            Ameet%Dhar%NULL%1,                            Mark R.%Thursz%NULL%1,                            Shevanthi%Nayagam%NULL%1,                            Pinelopi%Manousou%NULL%1,                            Wan-Long%Chuang%NULL%2,                            Wan-Long%Chuang%NULL%0,                            NULL%NULL%NULL%2,                            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mahmud%Mahamid%NULL%1,                            Wiliam%Nseir%NULL%1,                            Tawfik%Khoury%NULL%1,                            Baker%Mahamid%NULL%1,                            Adi%Nubania%NULL%1,                            Kamal%Sub-Laban%NULL%1,                            Joel%Schifter%NULL%1,                            Amir%Mari%NULL%1,                            Wisam%Sbeit%NULL%1,                            Eran%Goldin%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1628,6 +1826,9 @@
       <c r="I1" t="s">
         <v>135</v>
       </c>
+      <c r="J1" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1643,7 +1844,7 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>368</v>
+        <v>434</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
@@ -1656,6 +1857,9 @@
       </c>
       <c r="I2" t="s">
         <v>352</v>
+      </c>
+      <c r="J2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -1672,7 +1876,7 @@
         <v>260</v>
       </c>
       <c r="E3" t="s">
-        <v>369</v>
+        <v>435</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -1685,6 +1889,9 @@
       </c>
       <c r="I3" t="s">
         <v>354</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4">
@@ -1701,7 +1908,7 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1714,6 +1921,9 @@
       </c>
       <c r="I4" t="s">
         <v>352</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5">
@@ -1730,7 +1940,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1743,6 +1953,9 @@
       </c>
       <c r="I5" t="s">
         <v>357</v>
+      </c>
+      <c r="J5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6">
@@ -1759,7 +1972,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>372</v>
+        <v>438</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
@@ -1772,6 +1985,9 @@
       </c>
       <c r="I6" t="s">
         <v>352</v>
+      </c>
+      <c r="J6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7">
@@ -1788,7 +2004,7 @@
         <v>158</v>
       </c>
       <c r="E7" t="s">
-        <v>373</v>
+        <v>439</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1801,6 +2017,9 @@
       </c>
       <c r="I7" t="s">
         <v>360</v>
+      </c>
+      <c r="J7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8">
@@ -1817,7 +2036,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>374</v>
+        <v>440</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -1830,6 +2049,9 @@
       </c>
       <c r="I8" t="s">
         <v>357</v>
+      </c>
+      <c r="J8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9">
@@ -1846,7 +2068,7 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>375</v>
+        <v>441</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
@@ -1859,6 +2081,9 @@
       </c>
       <c r="I9" t="s">
         <v>357</v>
+      </c>
+      <c r="J9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10">
@@ -1875,7 +2100,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>376</v>
+        <v>442</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -1888,6 +2113,9 @@
       </c>
       <c r="I10" t="s">
         <v>352</v>
+      </c>
+      <c r="J10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11">
@@ -1904,7 +2132,7 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>377</v>
+        <v>443</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1917,6 +2145,9 @@
       </c>
       <c r="I11" t="s">
         <v>352</v>
+      </c>
+      <c r="J11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12">
@@ -1933,7 +2164,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>378</v>
+        <v>444</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1946,6 +2177,9 @@
       </c>
       <c r="I12" t="s">
         <v>357</v>
+      </c>
+      <c r="J12" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13">
@@ -1962,7 +2196,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>379</v>
+        <v>445</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -1975,6 +2209,9 @@
       </c>
       <c r="I13" t="s">
         <v>352</v>
+      </c>
+      <c r="J13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14">
@@ -1991,7 +2228,7 @@
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>380</v>
+        <v>446</v>
       </c>
       <c r="F14" t="s">
         <v>85</v>
@@ -2004,6 +2241,9 @@
       </c>
       <c r="I14" t="s">
         <v>352</v>
+      </c>
+      <c r="J14" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/9.xlsx
+++ b/Covid_19_Dataset_and_References/References/9.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2872" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3096" uniqueCount="473">
   <si>
     <t>Doi</t>
   </si>
@@ -1509,6 +1509,84 @@
   </si>
   <si>
     <t>[Mahmud%Mahamid%NULL%1,                            Wiliam%Nseir%NULL%1,                            Tawfik%Khoury%NULL%1,                            Baker%Mahamid%NULL%1,                            Adi%Nubania%NULL%1,                            Kamal%Sub-Laban%NULL%1,                            Joel%Schifter%NULL%1,                            Amir%Mari%NULL%1,                            Wisam%Sbeit%NULL%1,                            Eran%Goldin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nikroo%Hashemi%NULL%1,                             Kathleen%Viveiros%NULL%2,                             Walker D.%Redd%NULL%1,                             Joyce C.%Zhou%NULL%1,                             Thomas R.%McCarty%NULL%1,                             Ahmad N.%Bazarbashi%NULL%1,                             Kelly E.%Hathorn%NULL%1,                             Danny%Wong%NULL%1,                             Cheikh%Njie%NULL%1,                             Lin%Shen%NULL%1,                             Walter W.%Chan%wwchan@bwh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Vincent L.%Chen%vichen@med.umich.edu%1,                             Fadi%Hawa%NULL%2,                             Fadi%Hawa%NULL%0,                             Jeffrey A.%Berinstein%NULL%1,                             Chanakyaram A.%Reddy%NULL%1,                             Ihab%Kassab%NULL%1,                             Kevin D.%Platt%NULL%1,                             Chia-Yang%Hsu%NULL%1,                             Calen A.%Steiner%NULL%1,                             Jeremy%Louissaint%NULL%1,                             Naresh T.%Gunaratnam%NULL%1,                             Pratima%Sharma%pratimas@med.umich.edu%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%NULL%2,                             Christopher J.%Tignanelli%NULL%1,                             Nirjhar%Dutta%NULL%1,                             Emma%Jones%NULL%1,                             Leonardo%Tamaritz%NULL%1,                             Jeanne%Clark%NULL%1,                             Genevieve%Melton-Meaux%NULL%1,                             Michael%Usher%NULL%1,                             Sayeed%Ikramuddin%NULL%1,                              C.%Bramante%null%1,                              C. J.% Tignanelli%null%1,                              N.% Dutta%null%1,                              E.% Jones%null%1,                              L.% Tamariz%null%1,                              J. M.% Clark%null%1,                              M.% Usher%null%1,                              G.% Metlon-Meaux%null%1,                              S. % Ikramuddin%null%1,                         C.%Bramante%null%1,                         C. J.% Tignanelli%null%1,                         N.% Dutta%null%1,                         E.% Jones%null%1,                         L.% Tamariz%null%1,                         J. M.% Clark%null%1,                         M.% Usher%null%1,                         G.% Metlon-Meaux%null%1,                         S. % Ikramuddin%null%1,        C.%Bramante%null%1,        C. J.% Tignanelli%null%1,        N.% Dutta%null%1,        E.% Jones%null%1,        L.% Tamariz%null%1,        J. M.% Clark%null%1,        M.% Usher%null%1,        G.% Metlon-Meaux%null%1,        S. % Ikramuddin%null%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%2,                             Feng%Gao%NULL%1,                             Xiao-Bo%Wang%NULL%2,                             Qing-Feng%Sun%NULL%2,                             Ke-Hua%Pan%NULL%2,                             Ting-Yao%Wang%NULL%2,                             Hong-Lei%Ma%NULL%2,                             Yong-Ping%Chen%NULL%2,                             Wen-Yue%Liu%NULL%1,                             Jacob%George%NULL%4,                             Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%2,                             Li%Zhu%NULL%2,                             Li%Zhu%NULL%0,                             Jian%Wang%NULL%1,                             Leyang%Xue%NULL%1,                             Longgen%Liu%NULL%1,                             Xuebing%Yan%NULL%1,                             Songping%Huang%NULL%1,                             Yang%Li%NULL%1,                             Xiaomin%Yan%NULL%1,                             Biao%Zhang%NULL%1,                             Tianmin%Xu%NULL%1,                             Chunyang%Li%NULL%1,                             Fang%Ji%NULL%1,                             Fang%Ming%NULL%1,                             Yun%Zhao%NULL%1,                             Juan%Cheng%NULL%1,                             Yinling%Wang%NULL%1,                             Haiyan%Zhao%NULL%1,                             Shuqin%Hong%NULL%1,                             Kang%Chen%NULL%1,                             Xiang‐an%Zhao%NULL%1,                             Lei%Zou%NULL%1,                             Dawen%Sang%NULL%1,                             Huaping%Shao%NULL%1,                             Xinying%Guan%NULL%1,                             Xiaobing%Chen%NULL%1,                             Yuxin%Chen%NULL%1,                             Jie%Wei%NULL%1,                             Chuanwu%Zhu%zhuchw@126.com%1,                             Chao%Wu%dr.wu@nju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Byrne%Christopher D%coreGivesNoEmail%1,                       Chen%Yong-Ping%coreGivesNoEmail%1,                       Eslam%Mohammed%coreGivesNoEmail%1,                       George%Jacob%coreGivesNoEmail%1,                       Mantovani%Alessandro%coreGivesNoEmail%1,                       Pan%Ke-Hua%coreGivesNoEmail%1,                       Sun%Qing-Feng%coreGivesNoEmail%1,                       Targher%Giovanni%coreGivesNoEmail%1,                       Wang%Xiao-Bo%coreGivesNoEmail%1,                       Yan%Hua-Dong%coreGivesNoEmail%1,                       Zheng%Kenneth I%coreGivesNoEmail%1,                       Zheng%Ming-Hua%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Donghee%Kim%NULL%1,                             Nia%Adeniji%NULL%1,                             Nyann%Latt%NULL%1,                             Sonal%Kumar%NULL%1,                             Patricia P.%Bloom%NULL%1,                             Elizabeth S.%Aby%NULL%1,                             Ponni%Perumalswami%NULL%1,                             Marina%Roytman%NULL%1,                             Michael%Li%NULL%1,                             Alexander S.%Vogel%NULL%1,                             Andreea M.%Catana%NULL%1,                             Kara%Wegermann%NULL%1,                             Rotonya M.%Carr%NULL%1,                             Costica%Aloman%NULL%1,                             Vincent L.%Chen%NULL%1,                             Atoosa%Rabiee%NULL%1,                             Brett%Sadowski%NULL%1,                             Veronica%Nguyen%NULL%1,                             Winston%Dunn%NULL%1,                             Kenneth D.%Chavin%NULL%1,                             Kali%Zhou%NULL%1,                             Blanca%Lizaola-Mayo%NULL%1,                             Akshata%Moghe%NULL%1,                             José%Debes%NULL%1,                             Tzu-Hao%Lee%NULL%1,                             Andrea D.%Branch%NULL%1,                             Kathleen%Viveiros%NULL%0,                             Walter%Chan%NULL%1,                             David M.%Chascsa%NULL%1,                             Paul%Kwo%NULL%1,                             Renumathy%Dhanasekaran%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Jie%Zhou%NULL%1,                             Kenneth I.%Zheng%NULL%3,                             Xiao-Bo%Wang%NULL%0,                             Hua-Dong%Yan%NULL%1,                             Qing-Feng%Sun%NULL%0,                             Ke-Hua%Pan%NULL%0,                             Ting-Yao%Wang%NULL%0,                             Hong-Lei%Ma%NULL%0,                             Yong-Ping%Chen%NULL%0,                             Jacob%George%NULL%0,                             Ming-Hua%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu‐Jie%Zhou%NULL%1,                             Kenneth I.%Zheng%NULL%0,                             Kenneth I.%Zheng%NULL%0,                             Xiao‐Bo%Wang%NULL%4,                             Xiao‐Bo%Wang%NULL%0,                             Qing‐Feng%Sun%NULL%2,                             Ke‐Hua%Pan%NULL%2,                             Ting‐Yao%Wang%NULL%2,                             Hong‐Lei%Ma%NULL%1,                             Yong‐Ping%Chen%NULL%2,                             Jacob%George%jacob.george@sydney.edu.au%0,                             Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Feng%Gao%NULL%1,                             Kenneth I%Zheng%NULL%1,                             Xiao‐Bo%Wang%NULL%0,                             Xiao‐Bo%Wang%NULL%0,                             Hua‐Dong%Yan%NULL%1,                             Qing‐Feng%Sun%NULL%0,                             Ke‐Hua%Pan%NULL%0,                             Ting‐Yao%Wang%NULL%0,                             Yong‐Ping%Chen%NULL%0,                             Jacob%George%jacob.george@sydney.edu.au%0,                             Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ivan%Lopez-Mendez%NULL%1,                             Jorge%Aquino-Matus%NULL%1,                             Sofia Murua-Beltrán%Gall%NULL%1,                             Jose D.%Prieto-Nava%NULL%1,                             Eva%Juarez-Hernandez%NULL%1,                             Misael%Uribe%NULL%1,                             Graciela%Castro-Narro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roberta%Forlano%NULL%1,                             Benjamin H.%Mullish%NULL%2,                             Benjamin H.%Mullish%NULL%0,                             Sujit K.%Mukherjee%NULL%1,                             Rooshi%Nathwani%NULL%1,                             Cristopher%Harlow%NULL%1,                             Peter%Crook%NULL%1,                             Rebekah%Judge%NULL%1,                             Anet%Soubieres%NULL%2,                             Anet%Soubieres%NULL%0,                             Paul%Middleton%NULL%1,                             Anna%Daunt%NULL%1,                             Pablo%Perez-Guzman%NULL%1,                             Nowlan%Selvapatt%NULL%1,                             Maud%Lemoine%NULL%1,                             Ameet%Dhar%NULL%1,                             Mark R.%Thursz%NULL%1,                             Shevanthi%Nayagam%NULL%1,                             Pinelopi%Manousou%NULL%1,                             Wan-Long%Chuang%NULL%2,                             Wan-Long%Chuang%NULL%0,                             NULL%NULL%NULL%2,                             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mahmud%Mahamid%NULL%1,                             Wiliam%Nseir%NULL%1,                             Tawfik%Khoury%NULL%1,                             Baker%Mahamid%NULL%1,                             Adi%Nubania%NULL%1,                             Kamal%Sub-Laban%NULL%1,                             Joel%Schifter%NULL%1,                             Amir%Mari%NULL%1,                             Wisam%Sbeit%NULL%1,                             Eran%Goldin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nikroo%Hashemi%NULL%1,                              Kathleen%Viveiros%NULL%2,                              Walker D.%Redd%NULL%1,                              Joyce C.%Zhou%NULL%1,                              Thomas R.%McCarty%NULL%1,                              Ahmad N.%Bazarbashi%NULL%1,                              Kelly E.%Hathorn%NULL%1,                              Danny%Wong%NULL%1,                              Cheikh%Njie%NULL%1,                              Lin%Shen%NULL%1,                              Walter W.%Chan%wwchan@bwh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Vincent L.%Chen%vichen@med.umich.edu%1,                              Fadi%Hawa%NULL%2,                              Fadi%Hawa%NULL%0,                              Jeffrey A.%Berinstein%NULL%1,                              Chanakyaram A.%Reddy%NULL%1,                              Ihab%Kassab%NULL%1,                              Kevin D.%Platt%NULL%1,                              Chia-Yang%Hsu%NULL%1,                              Calen A.%Steiner%NULL%1,                              Jeremy%Louissaint%NULL%1,                              Naresh T.%Gunaratnam%NULL%1,                              Pratima%Sharma%pratimas@med.umich.edu%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%NULL%2,                              Christopher J.%Tignanelli%NULL%1,                              Nirjhar%Dutta%NULL%1,                              Emma%Jones%NULL%1,                              Leonardo%Tamaritz%NULL%1,                              Jeanne%Clark%NULL%1,                              Genevieve%Melton-Meaux%NULL%1,                              Michael%Usher%NULL%1,                              Sayeed%Ikramuddin%NULL%1,                               C.%Bramante%null%1,                               C. J.% Tignanelli%null%1,                               N.% Dutta%null%1,                               E.% Jones%null%1,                               L.% Tamariz%null%1,                               J. M.% Clark%null%1,                               M.% Usher%null%1,                               G.% Metlon-Meaux%null%1,                               S. % Ikramuddin%null%1,                          C.%Bramante%null%1,                          C. J.% Tignanelli%null%1,                          N.% Dutta%null%1,                          E.% Jones%null%1,                          L.% Tamariz%null%1,                          J. M.% Clark%null%1,                          M.% Usher%null%1,                          G.% Metlon-Meaux%null%1,                          S. % Ikramuddin%null%1,         C.%Bramante%null%1,         C. J.% Tignanelli%null%1,         N.% Dutta%null%1,         E.% Jones%null%1,         L.% Tamariz%null%1,         J. M.% Clark%null%1,         M.% Usher%null%1,         G.% Metlon-Meaux%null%1,         S. % Ikramuddin%null%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%2,                              Feng%Gao%NULL%1,                              Xiao-Bo%Wang%NULL%2,                              Qing-Feng%Sun%NULL%2,                              Ke-Hua%Pan%NULL%2,                              Ting-Yao%Wang%NULL%2,                              Hong-Lei%Ma%NULL%2,                              Yong-Ping%Chen%NULL%2,                              Wen-Yue%Liu%NULL%1,                              Jacob%George%NULL%4,                              Ming-Hua%Zheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%2,                              Li%Zhu%NULL%2,                              Li%Zhu%NULL%0,                              Jian%Wang%NULL%1,                              Leyang%Xue%NULL%1,                              Longgen%Liu%NULL%1,                              Xuebing%Yan%NULL%1,                              Songping%Huang%NULL%1,                              Yang%Li%NULL%1,                              Xiaomin%Yan%NULL%1,                              Biao%Zhang%NULL%1,                              Tianmin%Xu%NULL%1,                              Chunyang%Li%NULL%1,                              Fang%Ji%NULL%1,                              Fang%Ming%NULL%1,                              Yun%Zhao%NULL%1,                              Juan%Cheng%NULL%1,                              Yinling%Wang%NULL%1,                              Haiyan%Zhao%NULL%1,                              Shuqin%Hong%NULL%1,                              Kang%Chen%NULL%1,                              Xiang‐an%Zhao%NULL%1,                              Lei%Zou%NULL%1,                              Dawen%Sang%NULL%1,                              Huaping%Shao%NULL%1,                              Xinying%Guan%NULL%1,                              Xiaobing%Chen%NULL%1,                              Yuxin%Chen%NULL%1,                              Jie%Wei%NULL%1,                              Chuanwu%Zhu%zhuchw@126.com%1,                              Chao%Wu%dr.wu@nju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Byrne%Christopher D%coreGivesNoEmail%1,                        Chen%Yong-Ping%coreGivesNoEmail%1,                        Eslam%Mohammed%coreGivesNoEmail%1,                        George%Jacob%coreGivesNoEmail%1,                        Mantovani%Alessandro%coreGivesNoEmail%1,                        Pan%Ke-Hua%coreGivesNoEmail%1,                        Sun%Qing-Feng%coreGivesNoEmail%1,                        Targher%Giovanni%coreGivesNoEmail%1,                        Wang%Xiao-Bo%coreGivesNoEmail%1,                        Yan%Hua-Dong%coreGivesNoEmail%1,                        Zheng%Kenneth I%coreGivesNoEmail%1,                        Zheng%Ming-Hua%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Donghee%Kim%NULL%1,                              Nia%Adeniji%NULL%1,                              Nyann%Latt%NULL%1,                              Sonal%Kumar%NULL%1,                              Patricia P.%Bloom%NULL%1,                              Elizabeth S.%Aby%NULL%1,                              Ponni%Perumalswami%NULL%1,                              Marina%Roytman%NULL%1,                              Michael%Li%NULL%1,                              Alexander S.%Vogel%NULL%1,                              Andreea M.%Catana%NULL%1,                              Kara%Wegermann%NULL%1,                              Rotonya M.%Carr%NULL%1,                              Costica%Aloman%NULL%1,                              Vincent L.%Chen%NULL%1,                              Atoosa%Rabiee%NULL%1,                              Brett%Sadowski%NULL%1,                              Veronica%Nguyen%NULL%1,                              Winston%Dunn%NULL%1,                              Kenneth D.%Chavin%NULL%1,                              Kali%Zhou%NULL%1,                              Blanca%Lizaola-Mayo%NULL%1,                              Akshata%Moghe%NULL%1,                              José%Debes%NULL%1,                              Tzu-Hao%Lee%NULL%1,                              Andrea D.%Branch%NULL%1,                              Kathleen%Viveiros%NULL%0,                              Walter%Chan%NULL%1,                              David M.%Chascsa%NULL%1,                              Paul%Kwo%NULL%1,                              Renumathy%Dhanasekaran%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Jie%Zhou%NULL%1,                              Kenneth I.%Zheng%NULL%3,                              Xiao-Bo%Wang%NULL%0,                              Hua-Dong%Yan%NULL%1,                              Qing-Feng%Sun%NULL%0,                              Ke-Hua%Pan%NULL%0,                              Ting-Yao%Wang%NULL%0,                              Hong-Lei%Ma%NULL%0,                              Yong-Ping%Chen%NULL%0,                              Jacob%George%NULL%0,                              Ming-Hua%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu‐Jie%Zhou%NULL%1,                              Kenneth I.%Zheng%NULL%0,                              Kenneth I.%Zheng%NULL%0,                              Xiao‐Bo%Wang%NULL%4,                              Xiao‐Bo%Wang%NULL%0,                              Qing‐Feng%Sun%NULL%2,                              Ke‐Hua%Pan%NULL%2,                              Ting‐Yao%Wang%NULL%2,                              Hong‐Lei%Ma%NULL%1,                              Yong‐Ping%Chen%NULL%2,                              Jacob%George%jacob.george@sydney.edu.au%0,                              Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Feng%Gao%NULL%1,                              Kenneth I%Zheng%NULL%1,                              Xiao‐Bo%Wang%NULL%0,                              Xiao‐Bo%Wang%NULL%0,                              Hua‐Dong%Yan%NULL%1,                              Qing‐Feng%Sun%NULL%0,                              Ke‐Hua%Pan%NULL%0,                              Ting‐Yao%Wang%NULL%0,                              Yong‐Ping%Chen%NULL%0,                              Jacob%George%jacob.george@sydney.edu.au%0,                              Ming‐Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ivan%Lopez-Mendez%NULL%1,                              Jorge%Aquino-Matus%NULL%1,                              Sofia Murua-Beltrán%Gall%NULL%1,                              Jose D.%Prieto-Nava%NULL%1,                              Eva%Juarez-Hernandez%NULL%1,                              Misael%Uribe%NULL%1,                              Graciela%Castro-Narro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roberta%Forlano%NULL%1,                              Benjamin H.%Mullish%NULL%2,                              Benjamin H.%Mullish%NULL%0,                              Sujit K.%Mukherjee%NULL%1,                              Rooshi%Nathwani%NULL%1,                              Cristopher%Harlow%NULL%1,                              Peter%Crook%NULL%1,                              Rebekah%Judge%NULL%1,                              Anet%Soubieres%NULL%2,                              Anet%Soubieres%NULL%0,                              Paul%Middleton%NULL%1,                              Anna%Daunt%NULL%1,                              Pablo%Perez-Guzman%NULL%1,                              Nowlan%Selvapatt%NULL%1,                              Maud%Lemoine%NULL%1,                              Ameet%Dhar%NULL%1,                              Mark R.%Thursz%NULL%1,                              Shevanthi%Nayagam%NULL%1,                              Pinelopi%Manousou%NULL%1,                              Wan-Long%Chuang%NULL%2,                              Wan-Long%Chuang%NULL%0,                              NULL%NULL%NULL%2,                              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mahmud%Mahamid%NULL%1,                              Wiliam%Nseir%NULL%1,                              Tawfik%Khoury%NULL%1,                              Baker%Mahamid%NULL%1,                              Adi%Nubania%NULL%1,                              Kamal%Sub-Laban%NULL%1,                              Joel%Schifter%NULL%1,                              Amir%Mari%NULL%1,                              Wisam%Sbeit%NULL%1,                              Eran%Goldin%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1844,7 +1922,7 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>434</v>
+        <v>460</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
@@ -1876,7 +1954,7 @@
         <v>260</v>
       </c>
       <c r="E3" t="s">
-        <v>435</v>
+        <v>461</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -1908,7 +1986,7 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1940,7 +2018,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1972,7 +2050,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
@@ -2004,7 +2082,7 @@
         <v>158</v>
       </c>
       <c r="E7" t="s">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -2036,7 +2114,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -2068,7 +2146,7 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>441</v>
+        <v>467</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
@@ -2100,7 +2178,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -2132,7 +2210,7 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -2164,7 +2242,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -2196,7 +2274,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -2228,7 +2306,7 @@
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="F14" t="s">
         <v>85</v>
